--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -164,6 +164,14 @@
   </si>
   <si>
     <t>‐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ubr_GMSearchメソッド（GM0000.cppの364行目）の処理タイトルで「原始文字 検索」となっていますが、「原始文字」とはどのような文字種を指していますのでしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GM0000.cpp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -445,7 +453,52 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1108,7 +1161,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1279,18 +1332,32 @@
       <c r="K7" s="5"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44739</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
@@ -1813,172 +1880,196 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="47" priority="591" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="53" priority="597" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576">
-    <cfRule type="expression" dxfId="46" priority="589">
+    <cfRule type="expression" dxfId="52" priority="595">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="590">
+    <cfRule type="expression" dxfId="51" priority="596">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="44" priority="104" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="50" priority="110" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I38">
-    <cfRule type="expression" dxfId="43" priority="102">
+  <conditionalFormatting sqref="C5:L5 I6:I7 I9:I38">
+    <cfRule type="expression" dxfId="49" priority="108">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="103">
+    <cfRule type="expression" dxfId="48" priority="109">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="41" priority="100">
+    <cfRule type="expression" dxfId="47" priority="106">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="101">
+    <cfRule type="expression" dxfId="46" priority="107">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C16">
-    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:H9 C10:C16 J10 J7:L9 C7 H7 E7">
-    <cfRule type="expression" dxfId="38" priority="42">
+  <conditionalFormatting sqref="B9:H9 C10:C16 J10 J7:L9 C7 H7 E7 B8:F8">
+    <cfRule type="expression" dxfId="44" priority="48">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="43">
+    <cfRule type="expression" dxfId="43" priority="49">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="37">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$I25="確認中"</formula>
+      <formula>$I32="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="30" priority="32">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="32">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="28">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
     <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$I36="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I37="確認中"</formula>
+      <formula>$I31="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I19="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I33="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I31="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="18">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I6="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="16">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -1986,28 +2077,28 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$I7="済み"</formula>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -153,11 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以前ちらっとお伺いしたかもしれませんが、SQLサーバーをお使いでしたでしょうか。
-また、DBの仕様書（テーブル構成等）は無い状態でしょうか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以前前任者が対応していたときにメニューの英語化を行ったようなのですが、
 今回、AutoCADに移行するにあたり、メニューの多言語化は必要でしょうか？</t>
     <phoneticPr fontId="1"/>
@@ -172,6 +167,124 @@
   </si>
   <si>
     <t>GM0000.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①_円弧配列_カスタム仕様書_REV05.docx</t>
+  </si>
+  <si>
+    <t>VB画面が使用しているヘルプファイル「Brand.hlp」を頂くことは可能でしょうか。
+ヘルプファイルの保存場所は設定ファイル「(ACAD.SETの保存フォルダ)\BR_Set.ini」内の「Help_File」で設定されている場所にあります。</t>
+    <rPh sb="74" eb="76">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>１．図面にあるマーク類を変更するとマークと相当するスペック情報などを自動的に更新・反映させる機能を追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+とありますが、今一度内容をお聞きしても良いでしょうか。</t>
+    </r>
+    <rPh sb="59" eb="62">
+      <t>イマイチド</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①_円弧配列_カスタム仕様書_REV05.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリングの配置は事前に刻印文字等の呼び出し（＝VB画面でのSQL連携）が必要という認識で良いでしょうか。
+または、前述の操作をしていない場合でもデフォルト値で配置可能でしょうか。</t>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前ちらっとお伺いしたかもしれませんが、SQLサーバーをお使いでしたでしょうか。
+また、DBの仕様書（テーブル構成等）は無い状態でしょうか？
+→また、円弧配列刻印文字系の操作が出来ないので、環境を構築したいと考えております。</t>
+    <rPh sb="76" eb="80">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務の順番が、カスタム仕様書の番号順で行われているか
+例えば、②パタ研→④面積変動→⑤パターン面積変動解析みたいにしているのか、または順不同で④→⑤→②のようにしているのか</t>
+    <rPh sb="27" eb="28">
+      <t>タト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>業務の順番</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンバン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -179,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +311,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -431,9 +559,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -449,11 +574,269 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="86">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -806,21 +1189,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1158,11 +1526,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:L40"/>
+  <dimension ref="A3:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1181,17 +1547,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="16" t="s">
         <v>8</v>
       </c>
@@ -1236,12 +1602,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="20" customFormat="1" ht="142.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="142.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
@@ -1268,21 +1634,21 @@
       <c r="K5" s="5"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="85.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5">
         <v>44732</v>
@@ -1300,21 +1666,21 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="20" customFormat="1" ht="57" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5">
         <v>44732</v>
@@ -1332,19 +1698,21 @@
       <c r="K7" s="5"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5">
         <v>44739</v>
@@ -1362,71 +1730,129 @@
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="19" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44741</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44741</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44741</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="19" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44741</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1442,8 +1868,8 @@
       <c r="K13" s="5"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="19">
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="9"/>
@@ -1458,8 +1884,8 @@
       <c r="K14" s="5"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="19">
+    <row r="15" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="9"/>
@@ -1474,8 +1900,8 @@
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19">
+    <row r="16" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="9"/>
@@ -1490,8 +1916,8 @@
       <c r="K16" s="5"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19">
+    <row r="17" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="9"/>
@@ -1506,8 +1932,8 @@
       <c r="K17" s="5"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19">
+    <row r="18" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="9"/>
@@ -1522,7 +1948,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1538,7 +1964,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1554,7 +1980,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1570,7 +1996,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1586,7 +2012,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1602,7 +2028,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1618,7 +2044,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1634,7 +2060,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1650,7 +2076,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1666,7 +2092,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1682,7 +2108,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1698,7 +2124,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1714,8 +2140,8 @@
       <c r="K30" s="5"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="19">
+    <row r="31" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
         <v>27</v>
       </c>
       <c r="B31" s="9"/>
@@ -1730,7 +2156,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1746,7 +2172,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -1762,7 +2188,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -1778,7 +2204,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -1794,9 +2220,9 @@
       <c r="K35" s="5"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1810,9 +2236,9 @@
       <c r="K36" s="5"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1826,9 +2252,9 @@
       <c r="K37" s="5"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1842,9 +2268,9 @@
       <c r="K38" s="5"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1858,257 +2284,369 @@
       <c r="K39" s="5"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
-        <v>35</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="53" priority="597" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C16:C23 C40:C1048576 C10:C11">
+    <cfRule type="containsText" dxfId="85" priority="644" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576">
-    <cfRule type="expression" dxfId="52" priority="595">
+  <conditionalFormatting sqref="A4:L4 A8 B24 B16:H23 L31 J18:J24 K10:L10 D13:H15 J6:L6 H6 A6:E6 A3 D3:L3 B11:B15 J11:L17 A40:L1048576 F9:F11 B10:E10 D12">
+    <cfRule type="expression" dxfId="84" priority="642">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="596">
+    <cfRule type="expression" dxfId="83" priority="643">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="50" priority="110" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="82" priority="157" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I7 I9:I38">
-    <cfRule type="expression" dxfId="49" priority="108">
+  <conditionalFormatting sqref="C5:L5 I6:I7 I13:I37">
+    <cfRule type="expression" dxfId="81" priority="155">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="109">
+    <cfRule type="expression" dxfId="80" priority="156">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="47" priority="106">
+  <conditionalFormatting sqref="A5 A7 A9:A39">
+    <cfRule type="expression" dxfId="9" priority="153">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="107">
+    <cfRule type="expression" dxfId="8" priority="154">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C16">
-    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="高">
+  <conditionalFormatting sqref="C7:C9 C12:C15">
+    <cfRule type="containsText" dxfId="79" priority="97" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:H9 C10:C16 J10 J7:L9 C7 H7 E7 B8:F8">
-    <cfRule type="expression" dxfId="44" priority="48">
+  <conditionalFormatting sqref="C9 C12:C15 J10 J7:L9 C7 H7 E7 C8:F8 E9">
+    <cfRule type="expression" dxfId="78" priority="95">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="49">
+    <cfRule type="expression" dxfId="77" priority="96">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="41" priority="43">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:H30 C31 E31:H31">
-    <cfRule type="expression" dxfId="38" priority="40">
+  <conditionalFormatting sqref="C31:C34 C37:C39">
+    <cfRule type="containsText" dxfId="76" priority="92" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B30 B31:D31 H31 B32:H34 B38:L39 B37:E37 J37 J25:J34">
+    <cfRule type="expression" dxfId="75" priority="90">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="41">
+    <cfRule type="expression" dxfId="74" priority="91">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="36" priority="38">
+  <conditionalFormatting sqref="C24:C30">
+    <cfRule type="containsText" dxfId="73" priority="89" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:H29 C30 E30:H30">
+    <cfRule type="expression" dxfId="72" priority="87">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="88">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="70" priority="85">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="86">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:G31">
+    <cfRule type="expression" dxfId="68" priority="83">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="84">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="expression" dxfId="66" priority="81">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="82">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C36">
+    <cfRule type="containsText" dxfId="64" priority="80" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:H35 B36:E36 J35:J36">
+    <cfRule type="expression" dxfId="63" priority="78">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="79">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:H37">
+    <cfRule type="expression" dxfId="61" priority="76">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="77">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:L30">
+    <cfRule type="expression" dxfId="59" priority="74">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="75">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:L37">
+    <cfRule type="expression" dxfId="57" priority="72">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="39">
+    <cfRule type="expression" dxfId="56" priority="73">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="29" priority="31">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$I37="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="25" priority="27">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$I31="済み"</formula>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="55" priority="70">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="71">
+      <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="53" priority="68">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="52" priority="69">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="51" priority="66">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="50" priority="67">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="49" priority="64">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="48" priority="65">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="47" priority="62">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="46" priority="63">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="45" priority="54">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="44" priority="55">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="43" priority="58">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="42" priority="59">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="7" priority="9">
+  <conditionalFormatting sqref="B7:B9">
+    <cfRule type="expression" dxfId="41" priority="56">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="40" priority="57">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="39" priority="52">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="38" priority="53">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="37" priority="50">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="36" priority="51">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="35" priority="48">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="34" priority="49">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="33" priority="44">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="45">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="31" priority="42">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="43">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="29" priority="40">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="41">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="27" priority="9">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="10">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:E11">
+    <cfRule type="expression" dxfId="25" priority="38">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="39">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="23" priority="35">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="36">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="21" priority="33">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="34">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="17" priority="27">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="28">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="15" priority="25">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="26">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C39">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I39">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H39">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -144,25 +144,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&gt; 2D CADをAdvance CAD の Windows10 サポート終了と
-&gt; 新PLM 対応を目的にAuto CAD へ移行する。
-「現在の運用フロー」と「新PLMへ移行する運用フロー」があれば、頂きたいです。
-理由：ソフトキューブの作業範疇は、AdvanceCAD →AutoCADと考えておりますが、
-全体が見えていないと、 的を外した改修範囲の提案をしてしまいそうで、
-確認させて頂きました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以前前任者が対応していたときにメニューの英語化を行ったようなのですが、
-今回、AutoCADに移行するにあたり、メニューの多言語化は必要でしょうか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>‐</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ubr_GMSearchメソッド（GM0000.cppの364行目）の処理タイトルで「原始文字 検索」となっていますが、「原始文字」とはどのような文字種を指していますのでしょうか。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -284,6 +266,234 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; 2D CADをAdvance CAD の Windows10 サポート終了と
+&gt; 新PLM 対応を目的にAuto CAD へ移行する。
+「現在の運用フロー」と「新PLMへ移行する運用フロー」があれば、頂きたいです。
+理由：ソフトキューブの作業範疇は、AdvanceCAD →AutoCADと考えておりますが、
+全体が見えていないと、 的を外した改修範囲の提案をしてしまいそうで、
+確認させて頂きました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新PLMへの運用フローは現在無しで年末に向けて作成中
+現在
+CADファイルはサーバ上に一括管理
+データべースには値などの情報が入っている。
+CADファイルがローカルPCに入っている訳では無い
+新PLM
+AutoCADのファイル、PLMの中に保管
+input/outputなど行う</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ネンマツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>イッカツカンリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ワケ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前前任者が対応していたときにメニューの英語化を行ったようなのですが、
+今回、AutoCADに移行するにあたり、メニューの多言語化は必要でしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語オンリーで行く</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ubr_GMSearchメソッド（GM0000.cppの364行目）の処理タイトルで「原始文字 検索」となっていますが、「原始文字」とはどのような文字種を指していますのでしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原始文字＝AとかBとか一つの文字
+W,Hなど管理
+ABC＝編集文字
+繋げた状態のW,Hなど管理</t>
+    <rPh sb="11" eb="12">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解説用の資料を提供頂く</t>
+    <rPh sb="0" eb="3">
+      <t>カイセツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必ずDBに繋ぐ必要あり</t>
+    <rPh sb="0" eb="1">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Help_File」は現在存在しない
+SCでも確認</t>
+    <rPh sb="12" eb="14">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的に順番は無い
+順番がもしあるならご連絡頂く</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの仕様書（テーブル構成等）
+→調査中
+まずは円弧配列
+SQLサーバーのテーブル構成出力（SCからご連絡）
+使用バージョンはSQLサーバー2008</t>
+    <rPh sb="17" eb="20">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -568,13 +778,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,21 +1258,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1189,6 +1384,21 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1528,7 +1738,9 @@
   </sheetPr>
   <dimension ref="A3:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1547,11 +1759,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -1607,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
@@ -1616,7 +1828,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5">
         <v>44732</v>
@@ -1630,7 +1842,9 @@
       <c r="I5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="9"/>
     </row>
@@ -1639,16 +1853,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5">
         <v>44732</v>
@@ -1662,7 +1876,9 @@
       <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
@@ -1671,16 +1887,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5">
         <v>44732</v>
@@ -1694,7 +1910,9 @@
       <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="9"/>
     </row>
@@ -1703,16 +1921,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5">
         <v>44739</v>
@@ -1726,25 +1944,27 @@
       <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="19" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="5">
         <v>44741</v>
@@ -1758,7 +1978,9 @@
       <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="9"/>
     </row>
@@ -1771,10 +1993,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5">
         <v>44741</v>
@@ -1788,7 +2010,9 @@
       <c r="I10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="9"/>
     </row>
@@ -1801,10 +2025,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5">
         <v>44741</v>
@@ -1818,7 +2042,9 @@
       <c r="I11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="9"/>
     </row>
@@ -1828,13 +2054,13 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="F12" s="5">
         <v>44741</v>
@@ -1848,7 +2074,9 @@
       <c r="I12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="9"/>
     </row>
@@ -2316,294 +2544,294 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9:A39">
-    <cfRule type="expression" dxfId="9" priority="153">
+    <cfRule type="expression" dxfId="79" priority="153">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="154">
+    <cfRule type="expression" dxfId="78" priority="154">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C12:C15">
-    <cfRule type="containsText" dxfId="79" priority="97" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="77" priority="97" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C12:C15 J10 J7:L9 C7 H7 E7 C8:F8 E9">
-    <cfRule type="expression" dxfId="78" priority="95">
+    <cfRule type="expression" dxfId="76" priority="95">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="96">
+    <cfRule type="expression" dxfId="75" priority="96">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34 C37:C39">
-    <cfRule type="containsText" dxfId="76" priority="92" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="74" priority="92" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B30 B31:D31 H31 B32:H34 B38:L39 B37:E37 J37 J25:J34">
-    <cfRule type="expression" dxfId="75" priority="90">
+    <cfRule type="expression" dxfId="73" priority="90">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="91">
+    <cfRule type="expression" dxfId="72" priority="91">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C30">
-    <cfRule type="containsText" dxfId="73" priority="89" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="71" priority="89" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:H29 C30 E30:H30">
-    <cfRule type="expression" dxfId="72" priority="87">
+    <cfRule type="expression" dxfId="70" priority="87">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="88">
+    <cfRule type="expression" dxfId="69" priority="88">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="70" priority="85">
+    <cfRule type="expression" dxfId="68" priority="85">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="86">
+    <cfRule type="expression" dxfId="67" priority="86">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:G31">
-    <cfRule type="expression" dxfId="68" priority="83">
+    <cfRule type="expression" dxfId="66" priority="83">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="84">
+    <cfRule type="expression" dxfId="65" priority="84">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="66" priority="81">
+    <cfRule type="expression" dxfId="64" priority="81">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="82">
+    <cfRule type="expression" dxfId="63" priority="82">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C36">
-    <cfRule type="containsText" dxfId="64" priority="80" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="62" priority="80" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:H35 B36:E36 J35:J36">
-    <cfRule type="expression" dxfId="63" priority="78">
+    <cfRule type="expression" dxfId="61" priority="78">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="79">
+    <cfRule type="expression" dxfId="60" priority="79">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:H37">
-    <cfRule type="expression" dxfId="61" priority="76">
+    <cfRule type="expression" dxfId="59" priority="76">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="77">
+    <cfRule type="expression" dxfId="58" priority="77">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:L30">
-    <cfRule type="expression" dxfId="59" priority="74">
+    <cfRule type="expression" dxfId="57" priority="74">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="75">
+    <cfRule type="expression" dxfId="56" priority="75">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:L37">
-    <cfRule type="expression" dxfId="57" priority="72">
+    <cfRule type="expression" dxfId="55" priority="72">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="73">
+    <cfRule type="expression" dxfId="54" priority="73">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="55" priority="70">
+    <cfRule type="expression" dxfId="53" priority="70">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="71">
+    <cfRule type="expression" dxfId="52" priority="71">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="53" priority="68">
+    <cfRule type="expression" dxfId="51" priority="68">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="69">
+    <cfRule type="expression" dxfId="50" priority="69">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="51" priority="66">
+    <cfRule type="expression" dxfId="49" priority="66">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="67">
+    <cfRule type="expression" dxfId="48" priority="67">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="49" priority="64">
+    <cfRule type="expression" dxfId="47" priority="64">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="65">
+    <cfRule type="expression" dxfId="46" priority="65">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="47" priority="62">
+    <cfRule type="expression" dxfId="45" priority="62">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="63">
+    <cfRule type="expression" dxfId="44" priority="63">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="45" priority="54">
+    <cfRule type="expression" dxfId="43" priority="54">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="55">
+    <cfRule type="expression" dxfId="42" priority="55">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="43" priority="58">
+    <cfRule type="expression" dxfId="41" priority="58">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="59">
+    <cfRule type="expression" dxfId="40" priority="59">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="41" priority="56">
+    <cfRule type="expression" dxfId="39" priority="56">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="57">
+    <cfRule type="expression" dxfId="38" priority="57">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="39" priority="52">
+    <cfRule type="expression" dxfId="37" priority="52">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="53">
+    <cfRule type="expression" dxfId="36" priority="53">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="37" priority="50">
+    <cfRule type="expression" dxfId="35" priority="50">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="51">
+    <cfRule type="expression" dxfId="34" priority="51">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="35" priority="48">
+    <cfRule type="expression" dxfId="33" priority="48">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="49">
+    <cfRule type="expression" dxfId="32" priority="49">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="33" priority="44">
+    <cfRule type="expression" dxfId="31" priority="44">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="45">
+    <cfRule type="expression" dxfId="30" priority="45">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="31" priority="42">
+    <cfRule type="expression" dxfId="29" priority="42">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="43">
+    <cfRule type="expression" dxfId="28" priority="43">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="29" priority="40">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="41">
+    <cfRule type="expression" dxfId="26" priority="41">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="23" priority="38">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="22" priority="39">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="23" priority="35">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="36">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="21" priority="33">
+    <cfRule type="expression" dxfId="19" priority="33">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="34">
+    <cfRule type="expression" dxfId="18" priority="34">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="17" priority="29">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30">
+    <cfRule type="expression" dxfId="16" priority="30">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="17" priority="27">
+    <cfRule type="expression" dxfId="15" priority="27">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28">
+    <cfRule type="expression" dxfId="14" priority="28">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -249,14 +249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務の順番が、カスタム仕様書の番号順で行われているか
-例えば、②パタ研→④面積変動→⑤パターン面積変動解析みたいにしているのか、または順不同で④→⑤→②のようにしているのか</t>
-    <rPh sb="27" eb="28">
-      <t>タト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>低</t>
   </si>
   <si>
@@ -358,16 +350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>英語オンリーで行く</t>
-    <rPh sb="0" eb="2">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ubr_GMSearchメソッド（GM0000.cppの364行目）の処理タイトルで「原始文字 検索」となっていますが、「原始文字」とはどのような文字種を指していますのでしょうか。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -497,12 +479,131 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>英語オンリーで進める。</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島津様</t>
+    <rPh sb="0" eb="2">
+      <t>シマズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済み</t>
+  </si>
+  <si>
+    <t>対応中</t>
+  </si>
+  <si>
+    <t>変換方法</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C＋はC#のコードに変換する
+マクロファイルもC#のコードに変換して良いか
+（VisualStudioなどのコンパイラが無くても、社内で編集できるようにマクロの形式に拘りあり？）</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>コダワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務の順番が、カスタム仕様書の番号順で行われているか
+例えば、②パタ研→④面積変動→⑤パターン面積変動解析みたいにしているのか、または順不同で④→⑤→②のようにしているのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力データ提供のお願い</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パタ研の機能を使用するにあたり、
+（社外送付用）操作マニュアル（パタ検）.doc
+の中に以下の準備が必要と書かれています。
+この元図を頂くことは可能でしょうか？
+2022/7/6追記
+他機能に関しても図面が欲しいのですが、
+1つの図面に複数PICある状態で作業されているのでしょうか？</t>
+    <rPh sb="90" eb="92">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,13 +630,6 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -711,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,9 +872,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -791,49 +882,234 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+  <dxfs count="110">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1736,10 +2012,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:L39"/>
+  <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1759,11 +2035,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -1828,7 +2104,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5">
         <v>44732</v>
@@ -1840,13 +2116,17 @@
         <v>10</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="K5" s="5">
+        <v>44741</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:12" s="19" customFormat="1" ht="85.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -1874,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
@@ -1896,7 +2176,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5">
         <v>44732</v>
@@ -1908,13 +2188,17 @@
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="K7" s="5">
+        <v>44741</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
@@ -1930,7 +2214,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5">
         <v>44739</v>
@@ -1942,13 +2226,17 @@
         <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="K8" s="5">
+        <v>44741</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="19" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
@@ -1979,9 +2267,11 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="K9" s="5">
+        <v>44741</v>
+      </c>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.4">
@@ -2008,13 +2298,17 @@
         <v>10</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="K10" s="5">
+        <v>44741</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
@@ -2040,27 +2334,31 @@
         <v>10</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" s="19" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="K11" s="5">
+        <v>44741</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>27</v>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="5">
         <v>44741</v>
@@ -2072,42 +2370,70 @@
         <v>10</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="K12" s="5">
+        <v>44741</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44748</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="5"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44748</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="5"/>
       <c r="L14" s="9"/>
@@ -2464,7 +2790,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2496,385 +2822,467 @@
       <c r="K38" s="5"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
-        <v>35</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C16:C23 C40:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="85" priority="644" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C15:C22 C39:C1048576 C10:C11">
+    <cfRule type="containsText" dxfId="109" priority="680" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A8 B24 B16:H23 L31 J18:J24 K10:L10 D13:H15 J6:L6 H6 A6:E6 A3 D3:L3 B11:B15 J11:L17 A40:L1048576 F9:F11 B10:E10 D12">
-    <cfRule type="expression" dxfId="84" priority="642">
+  <conditionalFormatting sqref="A4:L4 B23 B15:H22 L30 J17:J23 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J14:L16 J11 K6:K11 L10:L11 B14 B11:B12 A8:A12 A39:L1048576">
+    <cfRule type="expression" dxfId="108" priority="678">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="643">
+    <cfRule type="expression" dxfId="107" priority="679">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="82" priority="157" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="106" priority="193" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I7 I13:I37">
-    <cfRule type="expression" dxfId="81" priority="155">
+  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I15:I36">
+    <cfRule type="expression" dxfId="105" priority="191">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="156">
+    <cfRule type="expression" dxfId="104" priority="192">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A9:A39">
-    <cfRule type="expression" dxfId="79" priority="153">
+  <conditionalFormatting sqref="A5 A7">
+    <cfRule type="expression" dxfId="103" priority="189">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="154">
+    <cfRule type="expression" dxfId="102" priority="190">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C9 C12:C15">
-    <cfRule type="containsText" dxfId="77" priority="97" operator="containsText" text="高">
+  <conditionalFormatting sqref="C7:C9 C14">
+    <cfRule type="containsText" dxfId="101" priority="133" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C12:C15 J10 J7:L9 C7 H7 E7 C8:F8 E9">
-    <cfRule type="expression" dxfId="76" priority="95">
+  <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
+    <cfRule type="expression" dxfId="100" priority="131">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="96">
+    <cfRule type="expression" dxfId="99" priority="132">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C34 C37:C39">
-    <cfRule type="containsText" dxfId="74" priority="92" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B30 B31:D31 H31 B32:H34 B38:L39 B37:E37 J37 J25:J34">
-    <cfRule type="expression" dxfId="73" priority="90">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="91">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C30">
-    <cfRule type="containsText" dxfId="71" priority="89" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:H29 C30 E30:H30">
-    <cfRule type="expression" dxfId="70" priority="87">
+  <conditionalFormatting sqref="C30:C33 C36:C38">
+    <cfRule type="containsText" dxfId="98" priority="128" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
+    <cfRule type="expression" dxfId="97" priority="126">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="88">
+    <cfRule type="expression" dxfId="96" priority="127">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="68" priority="85">
+  <conditionalFormatting sqref="C23:C29">
+    <cfRule type="containsText" dxfId="95" priority="125" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:H28 C29 E29:H29">
+    <cfRule type="expression" dxfId="94" priority="123">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="124">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="92" priority="121">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="122">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:G30">
+    <cfRule type="expression" dxfId="90" priority="119">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="120">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="expression" dxfId="88" priority="117">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="118">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C35">
+    <cfRule type="containsText" dxfId="86" priority="116" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
+    <cfRule type="expression" dxfId="85" priority="114">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="115">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:H36">
+    <cfRule type="expression" dxfId="83" priority="112">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="113">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:L29">
+    <cfRule type="expression" dxfId="81" priority="110">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="111">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:L36">
+    <cfRule type="expression" dxfId="79" priority="108">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="86">
+    <cfRule type="expression" dxfId="78" priority="109">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:G31">
-    <cfRule type="expression" dxfId="66" priority="83">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="84">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="64" priority="81">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="82">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C36">
-    <cfRule type="containsText" dxfId="62" priority="80" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:H35 B36:E36 J35:J36">
-    <cfRule type="expression" dxfId="61" priority="78">
-      <formula>$I35="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="79">
-      <formula>$I35="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:H37">
-    <cfRule type="expression" dxfId="59" priority="76">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="77">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:L30">
-    <cfRule type="expression" dxfId="57" priority="74">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="75">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:L37">
-    <cfRule type="expression" dxfId="55" priority="72">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="73">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="53" priority="70">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="71">
-      <formula>$I30="済み"</formula>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="77" priority="106">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="107">
+      <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="51" priority="68">
+    <cfRule type="expression" dxfId="75" priority="104">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="69">
+    <cfRule type="expression" dxfId="74" priority="105">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="49" priority="66">
+    <cfRule type="expression" dxfId="73" priority="102">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="67">
+    <cfRule type="expression" dxfId="72" priority="103">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="47" priority="64">
+    <cfRule type="expression" dxfId="71" priority="100">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="65">
+    <cfRule type="expression" dxfId="70" priority="101">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="45" priority="62">
+    <cfRule type="expression" dxfId="69" priority="98">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="63">
+    <cfRule type="expression" dxfId="68" priority="99">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="43" priority="54">
+    <cfRule type="expression" dxfId="67" priority="90">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="55">
+    <cfRule type="expression" dxfId="66" priority="91">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="41" priority="58">
+    <cfRule type="expression" dxfId="65" priority="94">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="59">
+    <cfRule type="expression" dxfId="64" priority="95">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="39" priority="56">
+    <cfRule type="expression" dxfId="63" priority="92">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="57">
+    <cfRule type="expression" dxfId="62" priority="93">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="37" priority="52">
+    <cfRule type="expression" dxfId="61" priority="88">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="53">
+    <cfRule type="expression" dxfId="60" priority="89">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="35" priority="50">
+    <cfRule type="expression" dxfId="59" priority="86">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="51">
+    <cfRule type="expression" dxfId="58" priority="87">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="33" priority="48">
+    <cfRule type="expression" dxfId="57" priority="84">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="49">
+    <cfRule type="expression" dxfId="56" priority="85">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="31" priority="44">
+    <cfRule type="expression" dxfId="55" priority="80">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="45">
+    <cfRule type="expression" dxfId="54" priority="81">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="29" priority="42">
+    <cfRule type="expression" dxfId="53" priority="78">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="43">
+    <cfRule type="expression" dxfId="52" priority="79">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="27" priority="40">
+    <cfRule type="expression" dxfId="51" priority="76">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="41">
+    <cfRule type="expression" dxfId="50" priority="77">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="49" priority="45">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="48" priority="46">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="23" priority="38">
+    <cfRule type="expression" dxfId="47" priority="74">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="39">
+    <cfRule type="expression" dxfId="46" priority="75">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="21" priority="35">
+    <cfRule type="expression" dxfId="45" priority="71">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36">
+    <cfRule type="expression" dxfId="44" priority="72">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="19" priority="33">
+    <cfRule type="expression" dxfId="43" priority="69">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="34">
+    <cfRule type="expression" dxfId="42" priority="70">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="17" priority="29">
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="30">
+    <cfRule type="expression" dxfId="40" priority="66">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="39" priority="63">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="38" priority="64">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="13" priority="25">
+    <cfRule type="expression" dxfId="37" priority="61">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26">
+    <cfRule type="expression" dxfId="36" priority="62">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="34" priority="50">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="19">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13 H13 A13:F13 A14:A38">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I12="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$I12="済み"</formula>
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14 F14">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C38">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I38">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H38">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -572,30 +572,30 @@
 （社外送付用）操作マニュアル（パタ検）.doc
 の中に以下の準備が必要と書かれています。
 この元図を頂くことは可能でしょうか？
-2022/7/6追記
-他機能に関しても図面が欲しいのですが、
-1つの図面に複数PICある状態で作業されているのでしょうか？</t>
+2022/7/8追記
+データ受領済、パタ検に関してレクチャーの依頼</t>
     <rPh sb="90" eb="92">
       <t>ツイキ</t>
     </rPh>
-    <rPh sb="101" eb="103">
-      <t>ズメン</t>
+    <rPh sb="96" eb="98">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ケン</t>
     </rPh>
     <rPh sb="104" eb="105">
-      <t>ホ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>サギョウ</t>
-    </rPh>
+      <t>カン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④ 面積変動のパターン形状の前準備で作成する「ピッチ個数の配列表」に使用される「ピッチ個数情報」のCSVファイルの入手を希望いたします。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -882,7 +882,162 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="130">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2015,7 +2170,7 @@
   <dimension ref="A3:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2438,23 +2593,33 @@
       <c r="K14" s="5"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="5">
+        <v>44750</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2827,452 +2992,526 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C15:C22 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="109" priority="680" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C17:C22 C39:C1048576 C10:C11">
+    <cfRule type="containsText" dxfId="129" priority="700" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B23 B15:H22 L30 J17:J23 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J14:L16 J11 K6:K11 L10:L11 B14 B11:B12 A8:A12 A39:L1048576">
-    <cfRule type="expression" dxfId="108" priority="678">
+  <conditionalFormatting sqref="A4:L4 B23 B17:H22 L30 J17:J23 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J14:L16 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B16 D15:F16">
+    <cfRule type="expression" dxfId="128" priority="698">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="679">
+    <cfRule type="expression" dxfId="127" priority="699">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="106" priority="193" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="126" priority="213" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I15:I36">
-    <cfRule type="expression" dxfId="105" priority="191">
+  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I17:I36">
+    <cfRule type="expression" dxfId="125" priority="211">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="192">
+    <cfRule type="expression" dxfId="124" priority="212">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="103" priority="189">
+    <cfRule type="expression" dxfId="123" priority="209">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="190">
+    <cfRule type="expression" dxfId="122" priority="210">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="101" priority="133" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="121" priority="153" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
+    <cfRule type="expression" dxfId="120" priority="151">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="152">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C33 C36:C38">
+    <cfRule type="containsText" dxfId="118" priority="148" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
+    <cfRule type="expression" dxfId="117" priority="146">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="147">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C29">
+    <cfRule type="containsText" dxfId="115" priority="145" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:H28 C29 E29:H29">
+    <cfRule type="expression" dxfId="114" priority="143">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="144">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="112" priority="141">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="142">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:G30">
+    <cfRule type="expression" dxfId="110" priority="139">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="140">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="expression" dxfId="108" priority="137">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="138">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C35">
+    <cfRule type="containsText" dxfId="106" priority="136" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
+    <cfRule type="expression" dxfId="105" priority="134">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="135">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:H36">
+    <cfRule type="expression" dxfId="103" priority="132">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="133">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:L29">
+    <cfRule type="expression" dxfId="101" priority="130">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="100" priority="131">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:L36">
+    <cfRule type="expression" dxfId="99" priority="128">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="129">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="97" priority="126">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="127">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="95" priority="124">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="125">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="93" priority="122">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="132">
+    <cfRule type="expression" dxfId="92" priority="123">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C33 C36:C38">
-    <cfRule type="containsText" dxfId="98" priority="128" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
-    <cfRule type="expression" dxfId="97" priority="126">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="127">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C29">
-    <cfRule type="containsText" dxfId="95" priority="125" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:H28 C29 E29:H29">
-    <cfRule type="expression" dxfId="94" priority="123">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="124">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="92" priority="121">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="122">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="90" priority="119">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="120">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="88" priority="117">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="118">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
-    <cfRule type="containsText" dxfId="86" priority="116" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="91" priority="120">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="121">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="89" priority="118">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="119">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="87" priority="110">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="111">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="85" priority="114">
-      <formula>$I34="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="84" priority="115">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:H36">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B9">
     <cfRule type="expression" dxfId="83" priority="112">
-      <formula>$I35="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="82" priority="113">
-      <formula>$I35="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:L29">
-    <cfRule type="expression" dxfId="81" priority="110">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="111">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:L36">
-    <cfRule type="expression" dxfId="79" priority="108">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="109">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="77" priority="106">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="107">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="75" priority="104">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="105">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="73" priority="102">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="103">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="71" priority="100">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="101">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="69" priority="98">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="99">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="67" priority="90">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="91">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="65" priority="94">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="95">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="63" priority="92">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="93">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="61" priority="88">
+    <cfRule type="expression" dxfId="81" priority="108">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="89">
+    <cfRule type="expression" dxfId="80" priority="109">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="59" priority="86">
+    <cfRule type="expression" dxfId="79" priority="106">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="87">
+    <cfRule type="expression" dxfId="78" priority="107">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="57" priority="84">
+    <cfRule type="expression" dxfId="77" priority="104">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="85">
+    <cfRule type="expression" dxfId="76" priority="105">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="55" priority="80">
+    <cfRule type="expression" dxfId="75" priority="100">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="81">
+    <cfRule type="expression" dxfId="74" priority="101">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="53" priority="78">
+    <cfRule type="expression" dxfId="73" priority="98">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="79">
+    <cfRule type="expression" dxfId="72" priority="99">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="51" priority="76">
+    <cfRule type="expression" dxfId="71" priority="96">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="77">
+    <cfRule type="expression" dxfId="70" priority="97">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46">
+    <cfRule type="expression" dxfId="68" priority="66">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="47" priority="74">
+    <cfRule type="expression" dxfId="67" priority="94">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="75">
+    <cfRule type="expression" dxfId="66" priority="95">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="45" priority="71">
+    <cfRule type="expression" dxfId="65" priority="91">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="72">
+    <cfRule type="expression" dxfId="64" priority="92">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="43" priority="69">
+    <cfRule type="expression" dxfId="63" priority="89">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="70">
+    <cfRule type="expression" dxfId="62" priority="90">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="41" priority="65">
+    <cfRule type="expression" dxfId="61" priority="85">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="66">
+    <cfRule type="expression" dxfId="60" priority="86">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="39" priority="63">
+    <cfRule type="expression" dxfId="59" priority="83">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="64">
+    <cfRule type="expression" dxfId="58" priority="84">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="37" priority="61">
+    <cfRule type="expression" dxfId="57" priority="81">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="62">
+    <cfRule type="expression" dxfId="56" priority="82">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="35" priority="49">
+    <cfRule type="expression" dxfId="55" priority="69">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="50">
+    <cfRule type="expression" dxfId="54" priority="70">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="33" priority="47">
+    <cfRule type="expression" dxfId="53" priority="67">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="48">
+    <cfRule type="expression" dxfId="52" priority="68">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="51" priority="51">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="52">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="47">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="44" priority="44">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="45">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="42" priority="42">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="43">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="40" priority="36">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="37">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="35">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13 H13 A13:F13 A14:A38">
     <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$I12="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="32">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="26" priority="26">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14 F14">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="21">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:L13 H13 A13:F13 A14:A38">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$I13="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I13="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14 F14">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I14="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I14="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I14="済み"</formula>
+      <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -572,30 +572,30 @@
 （社外送付用）操作マニュアル（パタ検）.doc
 の中に以下の準備が必要と書かれています。
 この元図を頂くことは可能でしょうか？
-2022/7/8追記
-データ受領済、パタ検に関してレクチャーの依頼</t>
+2022/7/6追記
+他機能に関しても図面が欲しいのですが、
+1つの図面に複数PICある状態で作業されているのでしょうか？</t>
     <rPh sb="90" eb="92">
       <t>ツイキ</t>
     </rPh>
-    <rPh sb="96" eb="98">
-      <t>ジュリョウ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ケン</t>
+    <rPh sb="101" eb="103">
+      <t>ズメン</t>
     </rPh>
     <rPh sb="104" eb="105">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イライ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④ 面積変動のパターン形状の前準備で作成する「ピッチ個数の配列表」に使用される「ピッチ個数情報」のCSVファイルの入手を希望いたします。</t>
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>サギョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -882,162 +882,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="110">
     <dxf>
       <fill>
         <patternFill>
@@ -2170,7 +2015,7 @@
   <dimension ref="A3:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2593,33 +2438,23 @@
       <c r="K14" s="5"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="5">
-        <v>44750</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="I15" s="10"/>
       <c r="J15" s="3"/>
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2992,526 +2827,452 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C17:C22 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="129" priority="700" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C15:C22 C39:C1048576 C10:C11">
+    <cfRule type="containsText" dxfId="109" priority="680" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B23 B17:H22 L30 J17:J23 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J14:L16 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B16 D15:F16">
-    <cfRule type="expression" dxfId="128" priority="698">
+  <conditionalFormatting sqref="A4:L4 B23 B15:H22 L30 J17:J23 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J14:L16 J11 K6:K11 L10:L11 B14 B11:B12 A8:A12 A39:L1048576">
+    <cfRule type="expression" dxfId="108" priority="678">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="699">
+    <cfRule type="expression" dxfId="107" priority="679">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="126" priority="213" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="106" priority="193" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I17:I36">
-    <cfRule type="expression" dxfId="125" priority="211">
+  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I15:I36">
+    <cfRule type="expression" dxfId="105" priority="191">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="212">
+    <cfRule type="expression" dxfId="104" priority="192">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="123" priority="209">
+    <cfRule type="expression" dxfId="103" priority="189">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="210">
+    <cfRule type="expression" dxfId="102" priority="190">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="121" priority="153" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="101" priority="133" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="120" priority="151">
+    <cfRule type="expression" dxfId="100" priority="131">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="152">
+    <cfRule type="expression" dxfId="99" priority="132">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33 C36:C38">
-    <cfRule type="containsText" dxfId="118" priority="148" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="98" priority="128" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
-    <cfRule type="expression" dxfId="117" priority="146">
+    <cfRule type="expression" dxfId="97" priority="126">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="147">
+    <cfRule type="expression" dxfId="96" priority="127">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C29">
-    <cfRule type="containsText" dxfId="115" priority="145" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="95" priority="125" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:H28 C29 E29:H29">
-    <cfRule type="expression" dxfId="114" priority="143">
+    <cfRule type="expression" dxfId="94" priority="123">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="144">
+    <cfRule type="expression" dxfId="93" priority="124">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="112" priority="141">
+    <cfRule type="expression" dxfId="92" priority="121">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="142">
+    <cfRule type="expression" dxfId="91" priority="122">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="110" priority="139">
+    <cfRule type="expression" dxfId="90" priority="119">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="140">
+    <cfRule type="expression" dxfId="89" priority="120">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="108" priority="137">
+    <cfRule type="expression" dxfId="88" priority="117">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="138">
+    <cfRule type="expression" dxfId="87" priority="118">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C35">
-    <cfRule type="containsText" dxfId="106" priority="136" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="86" priority="116" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
-    <cfRule type="expression" dxfId="105" priority="134">
+    <cfRule type="expression" dxfId="85" priority="114">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="135">
+    <cfRule type="expression" dxfId="84" priority="115">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:H36">
-    <cfRule type="expression" dxfId="103" priority="132">
+    <cfRule type="expression" dxfId="83" priority="112">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="133">
+    <cfRule type="expression" dxfId="82" priority="113">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:L29">
-    <cfRule type="expression" dxfId="101" priority="130">
+    <cfRule type="expression" dxfId="81" priority="110">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="131">
+    <cfRule type="expression" dxfId="80" priority="111">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:L36">
-    <cfRule type="expression" dxfId="99" priority="128">
+    <cfRule type="expression" dxfId="79" priority="108">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="129">
+    <cfRule type="expression" dxfId="78" priority="109">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="97" priority="126">
+    <cfRule type="expression" dxfId="77" priority="106">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="127">
+    <cfRule type="expression" dxfId="76" priority="107">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="95" priority="124">
+    <cfRule type="expression" dxfId="75" priority="104">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="125">
+    <cfRule type="expression" dxfId="74" priority="105">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="93" priority="122">
+    <cfRule type="expression" dxfId="73" priority="102">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="123">
+    <cfRule type="expression" dxfId="72" priority="103">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="91" priority="120">
+    <cfRule type="expression" dxfId="71" priority="100">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="121">
+    <cfRule type="expression" dxfId="70" priority="101">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="89" priority="118">
+    <cfRule type="expression" dxfId="69" priority="98">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="119">
+    <cfRule type="expression" dxfId="68" priority="99">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="87" priority="110">
+    <cfRule type="expression" dxfId="67" priority="90">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="111">
+    <cfRule type="expression" dxfId="66" priority="91">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="85" priority="114">
+    <cfRule type="expression" dxfId="65" priority="94">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="115">
+    <cfRule type="expression" dxfId="64" priority="95">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="83" priority="112">
+    <cfRule type="expression" dxfId="63" priority="92">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="113">
+    <cfRule type="expression" dxfId="62" priority="93">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="81" priority="108">
+    <cfRule type="expression" dxfId="61" priority="88">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="109">
+    <cfRule type="expression" dxfId="60" priority="89">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="79" priority="106">
+    <cfRule type="expression" dxfId="59" priority="86">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="107">
+    <cfRule type="expression" dxfId="58" priority="87">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="77" priority="104">
+    <cfRule type="expression" dxfId="57" priority="84">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="105">
+    <cfRule type="expression" dxfId="56" priority="85">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="75" priority="100">
+    <cfRule type="expression" dxfId="55" priority="80">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="101">
+    <cfRule type="expression" dxfId="54" priority="81">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="73" priority="98">
+    <cfRule type="expression" dxfId="53" priority="78">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="99">
+    <cfRule type="expression" dxfId="52" priority="79">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="71" priority="96">
+    <cfRule type="expression" dxfId="51" priority="76">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="97">
+    <cfRule type="expression" dxfId="50" priority="77">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="69" priority="65">
+    <cfRule type="expression" dxfId="49" priority="45">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="66">
+    <cfRule type="expression" dxfId="48" priority="46">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="67" priority="94">
+    <cfRule type="expression" dxfId="47" priority="74">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="95">
+    <cfRule type="expression" dxfId="46" priority="75">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="65" priority="91">
+    <cfRule type="expression" dxfId="45" priority="71">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="92">
+    <cfRule type="expression" dxfId="44" priority="72">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="63" priority="89">
+    <cfRule type="expression" dxfId="43" priority="69">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="90">
+    <cfRule type="expression" dxfId="42" priority="70">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="61" priority="85">
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="86">
+    <cfRule type="expression" dxfId="40" priority="66">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="59" priority="83">
+    <cfRule type="expression" dxfId="39" priority="63">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="84">
+    <cfRule type="expression" dxfId="38" priority="64">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="57" priority="81">
+    <cfRule type="expression" dxfId="37" priority="61">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="82">
+    <cfRule type="expression" dxfId="36" priority="62">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="55" priority="69">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="70">
+    <cfRule type="expression" dxfId="34" priority="50">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="53" priority="67">
+    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="68">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="51" priority="51">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="37">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="41">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="39">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:L13 H13 A13:F13 A14:A38">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14 F14">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
+    <sheet name="No6、No7" sheetId="25" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -216,39 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以前ちらっとお伺いしたかもしれませんが、SQLサーバーをお使いでしたでしょうか。
-また、DBの仕様書（テーブル構成等）は無い状態でしょうか？
-→また、円弧配列刻印文字系の操作が出来ないので、環境を構築したいと考えております。</t>
-    <rPh sb="76" eb="80">
-      <t>エンコハイレツ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>コクイン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>低</t>
   </si>
   <si>
@@ -568,12 +536,291 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パタ研の機能を使用するにあたり、
+    <t>④ 面積変動のパターン形状の前準備で作成する「ピッチ個数の配列表」に使用される「ピッチ個数情報」のCSVファイルの入手を希望いたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④_面積変動_カスタム仕様_REV03.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ページの「接地形状が全部（ALL）のタイプ」の場合の「接地形状切り出し図」に示されている上、中、下の絵はそれぞれどの部分の形状を表していますでしょうか。
+別紙「No6、No7」シートの左側の図になります。</t>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④_面積変動_カスタム仕様_REV03.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.6の質問の続きですが、仮に中の絵がタイヤ全体の接地面を表している場合の質問です。
+接地形状の選択（全部／片側／下側）を行った場合のタイヤ接地面は、「別紙「No6、No7」シートの右側の図」のようになりますでしょうか。</t>
+    <rPh sb="5" eb="7">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>セッチメン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③TM登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタム仕様書10ページ目の「① 事前準備 （形状準備）」は手作業で作成したデータでしょうか。</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタム仕様書12ページ目の「③ フレックス・ライン定義」でフレックスラインを図示している画像の左側の方が事前準備の形状と違うのはフレックスラインの説明の為であって、実際の操作で選択するのは事前準備の形状という認識で問題ないでしょうか。</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良要望の18～19ページ分の内容は、
+19ページの末尾の「TM登録をしないと。セクターやサイドプレート作図のマクロが流れない、登録できているか確認する際に、問題がある。」とその直前までのものでそれぞれ別の改良内容という認識でよろしいでしょうか。</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="103" eb="107">
+      <t>カイリョウナイヨウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC山本</t>
+    <rPh sb="2" eb="4">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④_面積変動_カスタム仕様_REV03 10ページの【接地形状切出し図…接地形状が全部（ALL）のタイプ】の図</t>
+    <rPh sb="54" eb="55">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All…閉図形になっているストリング形状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>One side…半円上ストリング形状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bottom side…１／４円ストリング形状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">パタ研の機能を使用するにあたり、
 （社外送付用）操作マニュアル（パタ検）.doc
 の中に以下の準備が必要と書かれています。
 この元図を頂くことは可能でしょうか？
 2022/7/8追記
-データ受領済、パタ検に関してレクチャーの依頼</t>
+データ受領済、パタ検に関してレクチャーの依頼
+2022/7/13追記
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レクチャー日程調整中</t>
+    </r>
     <rPh sb="90" eb="92">
       <t>ツイキ</t>
     </rPh>
@@ -592,10 +839,48 @@
     <rPh sb="113" eb="115">
       <t>イライ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④ 面積変動のパターン形状の前準備で作成する「ピッチ個数の配列表」に使用される「ピッチ個数情報」のCSVファイルの入手を希望いたします。</t>
+    <rPh sb="125" eb="127">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前ちらっとお伺いしたかもしれませんが、SQLサーバーをお使いでしたでしょうか。
+また、DBの仕様書（テーブル構成等）は無い状態でしょうか？
+→また、円弧配列刻印文字系の操作が出来ないので、環境を構築したいと考えております。
+2022/7/13
+円配配列に関係するもののみ受領</t>
+    <rPh sb="76" eb="80">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>カンガ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -603,7 +888,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +915,20 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -805,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,11 +1177,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="228">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -939,6 +1304,51 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -960,6 +1370,661 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1899,6 +2964,259 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>315833</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8582025" y="809625"/>
+          <a:ext cx="2020808" cy="4400550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4619625" y="1952625"/>
+          <a:ext cx="3971925" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4638675" y="3609975"/>
+          <a:ext cx="3924300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638675" y="3838575"/>
+          <a:ext cx="3990975" cy="828676"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2169,8 +3487,8 @@
   </sheetPr>
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2259,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5">
         <v>44732</v>
@@ -2271,19 +3589,19 @@
         <v>10</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="5">
         <v>44741</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="19" customFormat="1" ht="85.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2297,7 +3615,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F6" s="5">
         <v>44732</v>
@@ -2309,10 +3627,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
@@ -2331,7 +3649,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5">
         <v>44732</v>
@@ -2343,16 +3661,16 @@
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="5">
         <v>44741</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2369,7 +3687,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5">
         <v>44739</v>
@@ -2381,16 +3699,16 @@
         <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="5">
         <v>44741</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="19" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2422,7 +3740,7 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="5">
         <v>44741</v>
@@ -2453,16 +3771,16 @@
         <v>10</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="5">
         <v>44741</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
@@ -2489,16 +3807,16 @@
         <v>10</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="5">
         <v>44741</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2507,13 +3825,13 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5">
         <v>44741</v>
@@ -2525,16 +3843,16 @@
         <v>10</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="5">
         <v>44741</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2546,10 +3864,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F13" s="5">
         <v>44748</v>
@@ -2557,7 +3875,9 @@
       <c r="G13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I13" s="10" t="s">
         <v>14</v>
       </c>
@@ -2565,19 +3885,19 @@
       <c r="K13" s="5"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F14" s="5">
         <v>44748</v>
@@ -2585,9 +3905,11 @@
       <c r="G14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I14" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="5"/>
@@ -2601,17 +3923,21 @@
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="5">
         <v>44750</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I15" s="10" t="s">
         <v>14</v>
       </c>
@@ -2623,78 +3949,152 @@
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
+      <c r="B16" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5">
+        <v>44754</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="5"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="B17" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="5">
+        <v>44754</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="5"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44753</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="5"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="5">
+        <v>44755</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="5"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44755</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="5"/>
       <c r="L20" s="9"/>
@@ -2992,518 +4392,616 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C17:C22 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="129" priority="700" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C39:C1048576 C10:C11">
+    <cfRule type="containsText" dxfId="227" priority="764" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B23 B17:H22 L30 J17:J23 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J14:L16 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B16 D15:F16">
-    <cfRule type="expression" dxfId="128" priority="698">
+  <conditionalFormatting sqref="A4:L4 B23 G21:H22 L30 J17:J23 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J14:L16 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15">
+    <cfRule type="expression" dxfId="226" priority="762">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="699">
+    <cfRule type="expression" dxfId="225" priority="763">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="126" priority="213" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="224" priority="277" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I17:I36">
-    <cfRule type="expression" dxfId="125" priority="211">
+  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I36">
+    <cfRule type="expression" dxfId="223" priority="275">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="212">
+    <cfRule type="expression" dxfId="222" priority="276">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="123" priority="209">
+    <cfRule type="expression" dxfId="221" priority="273">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="210">
+    <cfRule type="expression" dxfId="220" priority="274">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="121" priority="153" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="219" priority="217" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="120" priority="151">
+    <cfRule type="expression" dxfId="218" priority="215">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="152">
+    <cfRule type="expression" dxfId="217" priority="216">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33 C36:C38">
-    <cfRule type="containsText" dxfId="118" priority="148" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="216" priority="212" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
-    <cfRule type="expression" dxfId="117" priority="146">
+    <cfRule type="expression" dxfId="215" priority="210">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="147">
+    <cfRule type="expression" dxfId="214" priority="211">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C29">
-    <cfRule type="containsText" dxfId="115" priority="145" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="213" priority="209" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:H28 C29 E29:H29">
-    <cfRule type="expression" dxfId="114" priority="143">
+    <cfRule type="expression" dxfId="212" priority="207">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="144">
+    <cfRule type="expression" dxfId="211" priority="208">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="112" priority="141">
+    <cfRule type="expression" dxfId="210" priority="205">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="142">
+    <cfRule type="expression" dxfId="209" priority="206">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="110" priority="139">
+    <cfRule type="expression" dxfId="208" priority="203">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="140">
+    <cfRule type="expression" dxfId="207" priority="204">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="108" priority="137">
+    <cfRule type="expression" dxfId="206" priority="201">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="138">
+    <cfRule type="expression" dxfId="205" priority="202">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C35">
-    <cfRule type="containsText" dxfId="106" priority="136" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="204" priority="200" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
-    <cfRule type="expression" dxfId="105" priority="134">
+    <cfRule type="expression" dxfId="203" priority="198">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="135">
+    <cfRule type="expression" dxfId="202" priority="199">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:H36">
-    <cfRule type="expression" dxfId="103" priority="132">
+    <cfRule type="expression" dxfId="201" priority="196">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="133">
+    <cfRule type="expression" dxfId="200" priority="197">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:L29">
-    <cfRule type="expression" dxfId="101" priority="130">
+    <cfRule type="expression" dxfId="199" priority="194">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="131">
+    <cfRule type="expression" dxfId="198" priority="195">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:L36">
-    <cfRule type="expression" dxfId="99" priority="128">
+    <cfRule type="expression" dxfId="197" priority="192">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="129">
+    <cfRule type="expression" dxfId="196" priority="193">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="97" priority="126">
+    <cfRule type="expression" dxfId="195" priority="190">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="127">
+    <cfRule type="expression" dxfId="194" priority="191">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="95" priority="124">
+    <cfRule type="expression" dxfId="193" priority="188">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="125">
+    <cfRule type="expression" dxfId="192" priority="189">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="93" priority="122">
+    <cfRule type="expression" dxfId="191" priority="186">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="123">
+    <cfRule type="expression" dxfId="190" priority="187">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="91" priority="120">
+    <cfRule type="expression" dxfId="189" priority="184">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="121">
+    <cfRule type="expression" dxfId="188" priority="185">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="89" priority="118">
+    <cfRule type="expression" dxfId="187" priority="182">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="119">
+    <cfRule type="expression" dxfId="186" priority="183">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="87" priority="110">
+    <cfRule type="expression" dxfId="185" priority="174">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="111">
+    <cfRule type="expression" dxfId="184" priority="175">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="85" priority="114">
+    <cfRule type="expression" dxfId="183" priority="178">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="115">
+    <cfRule type="expression" dxfId="182" priority="179">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="83" priority="112">
+    <cfRule type="expression" dxfId="181" priority="176">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="113">
+    <cfRule type="expression" dxfId="180" priority="177">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="81" priority="108">
+    <cfRule type="expression" dxfId="179" priority="172">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="109">
+    <cfRule type="expression" dxfId="178" priority="173">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="79" priority="106">
+    <cfRule type="expression" dxfId="177" priority="170">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="107">
+    <cfRule type="expression" dxfId="176" priority="171">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="77" priority="104">
+    <cfRule type="expression" dxfId="175" priority="168">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="105">
+    <cfRule type="expression" dxfId="174" priority="169">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="75" priority="100">
+    <cfRule type="expression" dxfId="173" priority="164">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="101">
+    <cfRule type="expression" dxfId="172" priority="165">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="73" priority="98">
+    <cfRule type="expression" dxfId="171" priority="162">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="99">
+    <cfRule type="expression" dxfId="170" priority="163">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="71" priority="96">
+    <cfRule type="expression" dxfId="169" priority="160">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="97">
+    <cfRule type="expression" dxfId="168" priority="161">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="69" priority="65">
+    <cfRule type="expression" dxfId="167" priority="129">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="66">
+    <cfRule type="expression" dxfId="166" priority="130">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="67" priority="94">
+    <cfRule type="expression" dxfId="165" priority="158">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="95">
+    <cfRule type="expression" dxfId="164" priority="159">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="65" priority="91">
+    <cfRule type="expression" dxfId="163" priority="155">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="92">
+    <cfRule type="expression" dxfId="162" priority="156">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="63" priority="89">
+    <cfRule type="expression" dxfId="161" priority="153">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="90">
+    <cfRule type="expression" dxfId="160" priority="154">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="61" priority="85">
+    <cfRule type="expression" dxfId="159" priority="149">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="86">
+    <cfRule type="expression" dxfId="158" priority="150">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="59" priority="83">
+    <cfRule type="expression" dxfId="157" priority="147">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="84">
+    <cfRule type="expression" dxfId="156" priority="148">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="57" priority="81">
+    <cfRule type="expression" dxfId="155" priority="145">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="82">
+    <cfRule type="expression" dxfId="154" priority="146">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="55" priority="69">
+    <cfRule type="expression" dxfId="153" priority="133">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="70">
+    <cfRule type="expression" dxfId="152" priority="134">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="53" priority="67">
+    <cfRule type="expression" dxfId="151" priority="131">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="68">
+    <cfRule type="expression" dxfId="150" priority="132">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="51" priority="51">
+    <cfRule type="expression" dxfId="149" priority="115">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="148" priority="116">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="147" priority="114" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="146" priority="112">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="113">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="144" priority="110">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="111">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="142" priority="108">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="109">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="140" priority="106">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="107">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="138" priority="100">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="101">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="136" priority="104">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="105">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="134" priority="102">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="103">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="expression" dxfId="132" priority="98">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="99">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="130" priority="97" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
+    <cfRule type="expression" dxfId="129" priority="95">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="96">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="127" priority="93">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="94">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="125" priority="91">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="92">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="123" priority="89">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="90">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="121" priority="87">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="88">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="119" priority="85">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="86">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="115" priority="81">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="82">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="107" priority="72" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="106" priority="70">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="71">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22 D21:F22">
     <cfRule type="expression" dxfId="48" priority="48">
-      <formula>$I12="確認中"</formula>
+      <formula>$I21="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="47" priority="49">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="46" priority="46">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="42" priority="42">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="40" priority="36">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="37">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="38" priority="40">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="36" priority="38">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:L13 H13 A13:F13 A14:A38">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="45" priority="45">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:H17 H18:H20">
     <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 D18:F18">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20 D19:F20">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14 F14">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="19" priority="19">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
@@ -3528,4 +5026,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="Q7" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="Q14" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -536,10 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>④ 面積変動のパターン形状の前準備で作成する「ピッチ個数の配列表」に使用される「ピッチ個数情報」のCSVファイルの入手を希望いたします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>④_面積変動_カスタム仕様_REV03.docx</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -798,50 +794,6 @@
   </si>
   <si>
     <t>Bottom side…１／４円ストリング形状</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">パタ研の機能を使用するにあたり、
-（社外送付用）操作マニュアル（パタ検）.doc
-の中に以下の準備が必要と書かれています。
-この元図を頂くことは可能でしょうか？
-2022/7/8追記
-データ受領済、パタ検に関してレクチャーの依頼
-2022/7/13追記
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>レクチャー日程調整中</t>
-    </r>
-    <rPh sb="90" eb="92">
-      <t>ツイキ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ジュリョウ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ツイキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -883,12 +835,99 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>社内でマクロのまま編集することはない
+C＃で良い</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④ 面積変動のパターン形状の前準備で作成する「ピッチ個数の配列表」に使用される「ピッチ個数情報」のCSVファイルの入手を希望いたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武市様</t>
+    <rPh sb="0" eb="2">
+      <t>タケチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パタ研の機能を使用するにあたり、
+（社外送付用）操作マニュアル（パタ検）.doc
+の中に以下の準備が必要と書かれています。
+この元図を頂くことは可能でしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/7/13
+データ提供依頼中</t>
+    <rPh sb="13" eb="15">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レクチャー時に確認予定</t>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/7/8
+データ受領済、パタ検に関してレクチャーの依頼
+2022/7/13
+レクチャー日程調整中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうです。
+※もう少し詳細を記載すべきかも（島津様）</t>
+    <rPh sb="9" eb="10">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シマズサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,13 +961,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1171,23 +1203,128 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="156">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1319,36 +1456,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1404,51 +1511,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1495,596 +1557,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3487,8 +2959,8 @@
   </sheetPr>
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3508,11 +2980,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -3615,7 +3087,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="5">
         <v>44732</v>
@@ -3879,13 +3351,19 @@
         <v>10</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="5">
+        <v>44755</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -3897,7 +3375,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F14" s="5">
         <v>44748</v>
@@ -3911,7 +3389,9 @@
       <c r="I14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="9"/>
     </row>
@@ -3924,24 +3404,26 @@
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F15" s="5">
         <v>44750</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
     </row>
@@ -3949,63 +3431,67 @@
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>51</v>
+      <c r="B16" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F16" s="5">
         <v>44754</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" s="19" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>51</v>
+      <c r="B17" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5">
         <v>44754</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="K17" s="5"/>
       <c r="L17" s="9"/>
     </row>
@@ -4018,26 +3504,32 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F18" s="5">
         <v>44753</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="5">
+        <v>44755</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
@@ -4048,26 +3540,32 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="5">
         <v>44755</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="5">
+        <v>44755</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
@@ -4078,26 +3576,32 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="5">
         <v>44755</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="5">
+        <v>44755</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
@@ -4393,623 +3897,639 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="227" priority="764" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="155" priority="768" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B23 G21:H22 L30 J17:J23 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J14:L16 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15">
-    <cfRule type="expression" dxfId="226" priority="762">
+  <conditionalFormatting sqref="A4:L4 B23 G21:H22 L30 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J14:L16 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23">
+    <cfRule type="expression" dxfId="154" priority="766">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="763">
+    <cfRule type="expression" dxfId="153" priority="767">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="224" priority="277" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="152" priority="281" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I36">
-    <cfRule type="expression" dxfId="223" priority="275">
+    <cfRule type="expression" dxfId="151" priority="279">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="276">
+    <cfRule type="expression" dxfId="150" priority="280">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="221" priority="273">
+    <cfRule type="expression" dxfId="149" priority="277">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="274">
+    <cfRule type="expression" dxfId="148" priority="278">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="219" priority="217" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="147" priority="221" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="218" priority="215">
+    <cfRule type="expression" dxfId="146" priority="219">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="216">
+    <cfRule type="expression" dxfId="145" priority="220">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33 C36:C38">
-    <cfRule type="containsText" dxfId="216" priority="212" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="144" priority="216" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
-    <cfRule type="expression" dxfId="215" priority="210">
+    <cfRule type="expression" dxfId="143" priority="214">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="211">
+    <cfRule type="expression" dxfId="142" priority="215">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C29">
-    <cfRule type="containsText" dxfId="213" priority="209" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="141" priority="213" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:H28 C29 E29:H29">
-    <cfRule type="expression" dxfId="212" priority="207">
+    <cfRule type="expression" dxfId="140" priority="211">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="208">
+    <cfRule type="expression" dxfId="139" priority="212">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="210" priority="205">
+    <cfRule type="expression" dxfId="138" priority="209">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="206">
+    <cfRule type="expression" dxfId="137" priority="210">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="208" priority="203">
+    <cfRule type="expression" dxfId="136" priority="207">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="204">
+    <cfRule type="expression" dxfId="135" priority="208">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="206" priority="201">
+    <cfRule type="expression" dxfId="134" priority="205">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="202">
+    <cfRule type="expression" dxfId="133" priority="206">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C35">
-    <cfRule type="containsText" dxfId="204" priority="200" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="132" priority="204" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
-    <cfRule type="expression" dxfId="203" priority="198">
+    <cfRule type="expression" dxfId="131" priority="202">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="199">
+    <cfRule type="expression" dxfId="130" priority="203">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:H36">
-    <cfRule type="expression" dxfId="201" priority="196">
+    <cfRule type="expression" dxfId="129" priority="200">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="197">
+    <cfRule type="expression" dxfId="128" priority="201">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:L29">
-    <cfRule type="expression" dxfId="199" priority="194">
+  <conditionalFormatting sqref="K17:L17 K21:L29">
+    <cfRule type="expression" dxfId="127" priority="198">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="195">
+    <cfRule type="expression" dxfId="126" priority="199">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:L36">
-    <cfRule type="expression" dxfId="197" priority="192">
+    <cfRule type="expression" dxfId="125" priority="196">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="193">
+    <cfRule type="expression" dxfId="124" priority="197">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="195" priority="190">
+    <cfRule type="expression" dxfId="123" priority="194">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="191">
+    <cfRule type="expression" dxfId="122" priority="195">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="193" priority="188">
+    <cfRule type="expression" dxfId="121" priority="192">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="189">
+    <cfRule type="expression" dxfId="120" priority="193">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="191" priority="186">
+    <cfRule type="expression" dxfId="119" priority="190">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="187">
+    <cfRule type="expression" dxfId="118" priority="191">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="189" priority="184">
+    <cfRule type="expression" dxfId="117" priority="188">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="185">
+    <cfRule type="expression" dxfId="116" priority="189">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="187" priority="182">
+    <cfRule type="expression" dxfId="115" priority="186">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="183">
+    <cfRule type="expression" dxfId="114" priority="187">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="185" priority="174">
+    <cfRule type="expression" dxfId="113" priority="178">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="175">
+    <cfRule type="expression" dxfId="112" priority="179">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="183" priority="178">
+    <cfRule type="expression" dxfId="111" priority="182">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="179">
+    <cfRule type="expression" dxfId="110" priority="183">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="181" priority="176">
+    <cfRule type="expression" dxfId="109" priority="180">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="177">
+    <cfRule type="expression" dxfId="108" priority="181">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="179" priority="172">
+    <cfRule type="expression" dxfId="107" priority="176">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="173">
+    <cfRule type="expression" dxfId="106" priority="177">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="177" priority="170">
+    <cfRule type="expression" dxfId="105" priority="174">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="171">
+    <cfRule type="expression" dxfId="104" priority="175">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="175" priority="168">
+    <cfRule type="expression" dxfId="103" priority="172">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="169">
+    <cfRule type="expression" dxfId="102" priority="173">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="173" priority="164">
+    <cfRule type="expression" dxfId="101" priority="168">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="165">
+    <cfRule type="expression" dxfId="100" priority="169">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="171" priority="162">
+    <cfRule type="expression" dxfId="99" priority="166">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="163">
+    <cfRule type="expression" dxfId="98" priority="167">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="169" priority="160">
+    <cfRule type="expression" dxfId="97" priority="164">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="161">
+    <cfRule type="expression" dxfId="96" priority="165">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="167" priority="129">
+    <cfRule type="expression" dxfId="95" priority="133">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="130">
+    <cfRule type="expression" dxfId="94" priority="134">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="165" priority="158">
+    <cfRule type="expression" dxfId="93" priority="162">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="159">
+    <cfRule type="expression" dxfId="92" priority="163">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="163" priority="155">
+    <cfRule type="expression" dxfId="91" priority="159">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="156">
+    <cfRule type="expression" dxfId="90" priority="160">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="161" priority="153">
+    <cfRule type="expression" dxfId="89" priority="157">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="154">
+    <cfRule type="expression" dxfId="88" priority="158">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="159" priority="149">
+    <cfRule type="expression" dxfId="87" priority="153">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="150">
+    <cfRule type="expression" dxfId="86" priority="154">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="157" priority="147">
+    <cfRule type="expression" dxfId="85" priority="151">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="148">
+    <cfRule type="expression" dxfId="84" priority="152">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="155" priority="145">
+    <cfRule type="expression" dxfId="83" priority="149">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="146">
+    <cfRule type="expression" dxfId="82" priority="150">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="153" priority="133">
+    <cfRule type="expression" dxfId="81" priority="137">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="134">
+    <cfRule type="expression" dxfId="80" priority="138">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="151" priority="131">
+    <cfRule type="expression" dxfId="79" priority="135">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="132">
+    <cfRule type="expression" dxfId="78" priority="136">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="149" priority="115">
+    <cfRule type="expression" dxfId="77" priority="119">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="116">
+    <cfRule type="expression" dxfId="76" priority="120">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="147" priority="114" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="75" priority="118" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="146" priority="112">
+    <cfRule type="expression" dxfId="74" priority="116">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="113">
+    <cfRule type="expression" dxfId="73" priority="117">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="144" priority="110">
+    <cfRule type="expression" dxfId="72" priority="114">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="111">
+    <cfRule type="expression" dxfId="71" priority="115">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="142" priority="108">
+    <cfRule type="expression" dxfId="70" priority="112">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="109">
+    <cfRule type="expression" dxfId="69" priority="113">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="140" priority="106">
+    <cfRule type="expression" dxfId="68" priority="110">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="107">
+    <cfRule type="expression" dxfId="67" priority="111">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="138" priority="100">
+    <cfRule type="expression" dxfId="66" priority="104">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="101">
+    <cfRule type="expression" dxfId="65" priority="105">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="136" priority="104">
+    <cfRule type="expression" dxfId="64" priority="108">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="105">
+    <cfRule type="expression" dxfId="63" priority="109">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="134" priority="102">
+    <cfRule type="expression" dxfId="62" priority="106">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="103">
+    <cfRule type="expression" dxfId="61" priority="107">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="132" priority="98">
+    <cfRule type="expression" dxfId="60" priority="102">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="99">
+    <cfRule type="expression" dxfId="59" priority="103">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="130" priority="97" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="58" priority="101" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
-    <cfRule type="expression" dxfId="129" priority="95">
+    <cfRule type="expression" dxfId="57" priority="99">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="96">
+    <cfRule type="expression" dxfId="56" priority="100">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="127" priority="93">
+    <cfRule type="expression" dxfId="55" priority="97">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="94">
+    <cfRule type="expression" dxfId="54" priority="98">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="125" priority="91">
+    <cfRule type="expression" dxfId="53" priority="95">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="92">
+    <cfRule type="expression" dxfId="52" priority="96">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="123" priority="89">
+    <cfRule type="expression" dxfId="51" priority="93">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="90">
+    <cfRule type="expression" dxfId="50" priority="94">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="121" priority="87">
+    <cfRule type="expression" dxfId="49" priority="91">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="88">
+    <cfRule type="expression" dxfId="48" priority="92">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="119" priority="85">
+    <cfRule type="expression" dxfId="47" priority="89">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="86">
+    <cfRule type="expression" dxfId="46" priority="90">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="115" priority="81">
+    <cfRule type="expression" dxfId="45" priority="85">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="82">
+    <cfRule type="expression" dxfId="44" priority="86">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="107" priority="72" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="43" priority="76" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="106" priority="70">
+    <cfRule type="expression" dxfId="42" priority="74">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="71">
+    <cfRule type="expression" dxfId="41" priority="75">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="40" priority="52">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="39" priority="53">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="37" priority="49">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="36" priority="50">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="35" priority="47">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="34" priority="48">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="33" priority="45">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="32" priority="46">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="31" priority="44" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="27" priority="41">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="24" priority="38">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="21" priority="33">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="20" priority="34">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="19" priority="31">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="18" priority="32">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="17" priority="27">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="16" priority="28">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I19="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I20="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H15">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I13="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K20">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I15="確認中"</formula>
+      <formula>$I18="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L20">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I15="確認中"</formula>
+      <formula>$I18="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I15="済み"</formula>
+      <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -5032,7 +4552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -5040,22 +4560,22 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="Q7" s="25" t="s">
-        <v>60</v>
+      <c r="Q7" s="23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="Q14" s="25" t="s">
-        <v>61</v>
+      <c r="Q14" s="23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -919,6 +919,20 @@
     </rPh>
     <rPh sb="22" eb="25">
       <t>シマズサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saiban.exeはTOYOTIRE様ソースお持ちでしょうか。</t>
+    <rPh sb="19" eb="20">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2959,8 +2973,8 @@
   </sheetPr>
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3603,14 +3617,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -933,6 +933,22 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バルーン機能はAutoCADMechanicalの機能となりますが、導入は通常のAutoCADのままでよろしいでしょうか。</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3637,14 +3653,18 @@
       <c r="K21" s="5"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898"/>
   </bookViews>
   <sheets>
-    <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
+    <sheet name="質疑表" sheetId="24" r:id="rId1"/>
     <sheet name="No6、No7" sheetId="25" r:id="rId2"/>
+    <sheet name="No.18　バルーンについて" sheetId="26" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -937,18 +938,89 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バルーン機能はAutoCADMechanicalの機能となりますが、導入は通常のAutoCADのままでよろしいでしょうか。</t>
+    <t>AutoCADの注釈メニュー</t>
+    <rPh sb="8" eb="10">
+      <t>チュウシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜AutoCADとMechanicalでの機能の違い＞</t>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoCADMechanicalの注釈メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バルーン機能はAutoCADMechanicalのみの機能となりますが、導入は通常のAutoCADのままでよろしいでしょうか。
+※「No.18　バルーンについて」シートを参照
+（備考）
+通常のAutoCADの場合、見た目だけであれば、下記のいずれかの方法で手動操作で作図できることは確認出来ている。
+・引出線、円、テキストを組み合わせる
+・引出線のスタイル設定を追加する。</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="27" eb="29">
       <t>キノウ</t>
     </rPh>
-    <rPh sb="34" eb="36">
+    <rPh sb="36" eb="38">
       <t>ドウニュウ</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="39" eb="41">
       <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="152" eb="155">
+      <t>ヒキダシセン</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="171" eb="174">
+      <t>ヒキダシセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -957,7 +1029,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,6 +1066,22 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1166,7 +1254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,6 +1332,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2716,6 +2810,343 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>626771</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="238125"/>
+          <a:ext cx="15028571" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>598886</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2857500"/>
+          <a:ext cx="9514286" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="2971800"/>
+          <a:ext cx="714375" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="4181475"/>
+          <a:ext cx="1809750" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48290"/>
+            <a:gd name="adj2" fmla="val -1491"/>
+            <a:gd name="adj3" fmla="val -18097"/>
+            <a:gd name="adj4" fmla="val -28859"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>引出線とは別にバルーンメニューがある</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="790575"/>
+          <a:ext cx="2638425" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="1885950"/>
+          <a:ext cx="1733550" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48290"/>
+            <a:gd name="adj2" fmla="val -1491"/>
+            <a:gd name="adj3" fmla="val -18097"/>
+            <a:gd name="adj4" fmla="val -28859"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>引出線のみでバルーン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューがない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2989,8 +3420,8 @@
   </sheetPr>
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3653,7 +4084,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="19" customFormat="1" ht="128.25" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -3663,12 +4094,20 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44769</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="5"/>
       <c r="L22" s="9"/>
@@ -4650,4 +5089,36 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\ichiro-uehara\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -872,37 +872,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2022/7/13
-データ提供依頼中</t>
-    <rPh sb="13" eb="15">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レクチャー時に確認予定</t>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2022/7/8
-データ受領済、パタ検に関してレクチャーの依頼
-2022/7/13
-レクチャー日程調整中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>そうです。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -925,16 +894,6 @@
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>saiban.exeはTOYOTIRE様ソースお持ちでしょうか。</t>
-    <rPh sb="19" eb="20">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>モ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1021,6 +980,78 @@
     </rPh>
     <rPh sb="171" eb="174">
       <t>ヒキダシセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/7/8
+データ受領済、パタ検に関してレクチャーの依頼
+2022/7/29
+レクチャー頂きました、ありがとうございました。</t>
+    <rPh sb="47" eb="48">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/7/29
+データ提供依頼中
+インプットとアウトプットのデータ</t>
+    <rPh sb="13" eb="15">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レクチャー時に確認予定
+2022/7/29
+レクチャー頂きました、ありがとうございました。</t>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/7/27
+データ提供依頼中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saiban.exeはTOYOTIRE様ソースお持ちでしょうか。
+SCはVB6版のみ所持、.NET版があるはず・・</t>
+    <rPh sb="19" eb="20">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常のAutoCADで行う</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1327,23 +1358,113 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="168">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3420,8 +3541,8 @@
   </sheetPr>
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3441,11 +3562,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -3848,13 +3969,17 @@
         <v>10</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="K14" s="5">
+        <v>44771</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
@@ -3883,7 +4008,7 @@
         <v>41</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
@@ -3914,13 +4039,17 @@
         <v>10</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="K16" s="5">
+        <v>44771</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:12" s="19" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
@@ -3948,13 +4077,17 @@
         <v>10</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="K17" s="5">
+        <v>44771</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
@@ -3983,7 +4116,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K18" s="5">
         <v>44755</v>
@@ -4019,7 +4152,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K19" s="5">
         <v>44755</v>
@@ -4055,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K20" s="5">
         <v>44755</v>
@@ -4070,17 +4203,21 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I21" s="10"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="K21" s="5"/>
       <c r="L21" s="9"/>
     </row>
@@ -4094,7 +4231,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" s="5">
         <v>44769</v>
@@ -4108,9 +4245,15 @@
       <c r="I22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="9"/>
+      <c r="J22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="5">
+        <v>44769</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
@@ -4374,345 +4517,393 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="155" priority="768" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="167" priority="780" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B23 G21:H22 L30 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J14:L16 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23">
-    <cfRule type="expression" dxfId="154" priority="766">
+  <conditionalFormatting sqref="A4:L4 B23 G21:H22 L30 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16">
+    <cfRule type="expression" dxfId="166" priority="778">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="767">
+    <cfRule type="expression" dxfId="165" priority="779">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="152" priority="281" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="164" priority="293" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I36">
-    <cfRule type="expression" dxfId="151" priority="279">
+    <cfRule type="expression" dxfId="163" priority="291">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="280">
+    <cfRule type="expression" dxfId="162" priority="292">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="149" priority="277">
+    <cfRule type="expression" dxfId="161" priority="289">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="278">
+    <cfRule type="expression" dxfId="160" priority="290">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="147" priority="221" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="159" priority="233" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="146" priority="219">
+    <cfRule type="expression" dxfId="158" priority="231">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="220">
+    <cfRule type="expression" dxfId="157" priority="232">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33 C36:C38">
+    <cfRule type="containsText" dxfId="156" priority="228" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
+    <cfRule type="expression" dxfId="155" priority="226">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="227">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C29">
+    <cfRule type="containsText" dxfId="153" priority="225" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:H28 C29 E29:H29">
+    <cfRule type="expression" dxfId="152" priority="223">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="224">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="150" priority="221">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="222">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:G30">
+    <cfRule type="expression" dxfId="148" priority="219">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="220">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="expression" dxfId="146" priority="217">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="218">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C35">
     <cfRule type="containsText" dxfId="144" priority="216" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
+      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
     <cfRule type="expression" dxfId="143" priority="214">
-      <formula>$I24="確認中"</formula>
+      <formula>$I34="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="142" priority="215">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C29">
-    <cfRule type="containsText" dxfId="141" priority="213" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:H28 C29 E29:H29">
-    <cfRule type="expression" dxfId="140" priority="211">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="212">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="138" priority="209">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="210">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="136" priority="207">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="208">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="134" priority="205">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="206">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
-    <cfRule type="containsText" dxfId="132" priority="204" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:H36">
+    <cfRule type="expression" dxfId="141" priority="212">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="213">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:L21 K23:L29">
+    <cfRule type="expression" dxfId="139" priority="210">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="211">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:L36">
+    <cfRule type="expression" dxfId="137" priority="208">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="209">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="135" priority="206">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="207">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="133" priority="204">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="205">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="131" priority="202">
-      <formula>$I34="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="130" priority="203">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:H36">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" dxfId="129" priority="200">
-      <formula>$I35="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="128" priority="201">
-      <formula>$I35="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:L17 K21:L29">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="expression" dxfId="127" priority="198">
-      <formula>$I17="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="126" priority="199">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:L36">
-    <cfRule type="expression" dxfId="125" priority="196">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="197">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="125" priority="190">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="191">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="123" priority="194">
-      <formula>$I29="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="122" priority="195">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B9">
     <cfRule type="expression" dxfId="121" priority="192">
-      <formula>$I6="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="120" priority="193">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="119" priority="190">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="191">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="117" priority="188">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="189">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="115" priority="186">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="187">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="113" priority="178">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="179">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="111" priority="182">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="183">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="109" priority="180">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="181">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="107" priority="176">
+    <cfRule type="expression" dxfId="119" priority="188">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="177">
+    <cfRule type="expression" dxfId="118" priority="189">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="117" priority="186">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="187">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="115" priority="184">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="185">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="113" priority="180">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="181">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="111" priority="178">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="179">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="109" priority="176">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="177">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="107" priority="145">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="146">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:E11">
     <cfRule type="expression" dxfId="105" priority="174">
-      <formula>$I8="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="104" priority="175">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="103" priority="172">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="173">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="101" priority="168">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="103" priority="171">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="172">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="101" priority="169">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="169">
+    <cfRule type="expression" dxfId="100" priority="170">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="99" priority="166">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="167">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="97" priority="164">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="165">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="95" priority="133">
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="99" priority="165">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="166">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="97" priority="163">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="164">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="95" priority="161">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="162">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="93" priority="149">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="134">
+    <cfRule type="expression" dxfId="92" priority="150">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="93" priority="162">
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="91" priority="147">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="163">
+    <cfRule type="expression" dxfId="90" priority="148">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="91" priority="159">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="160">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="89" priority="157">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="158">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="87" priority="153">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="154">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="85" priority="151">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="152">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="83" priority="149">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="150">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="81" priority="137">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="138">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="79" priority="135">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="136">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="77" priority="119">
+    <cfRule type="expression" dxfId="89" priority="131">
       <formula>$I12="確認中"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="88" priority="132">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="87" priority="130" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="86" priority="128">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="129">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="84" priority="126">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="127">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="82" priority="124">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="125">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="80" priority="122">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="123">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="78" priority="116">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="117">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="expression" dxfId="76" priority="120">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="121">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="75" priority="118" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="74" priority="116">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="74" priority="118">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="117">
+    <cfRule type="expression" dxfId="73" priority="119">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="L12">
     <cfRule type="expression" dxfId="72" priority="114">
       <formula>$I12="確認中"</formula>
     </cfRule>
@@ -4720,293 +4911,293 @@
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="70" priority="112">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="113">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="68" priority="110">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="111">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="66" priority="104">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="105">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="70" priority="113" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
+    <cfRule type="expression" dxfId="69" priority="111">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="112">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="67" priority="109">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="110">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="65" priority="107">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="64" priority="108">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="109">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="63" priority="105">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="62" priority="106">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="107">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="60" priority="102">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="103">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="58" priority="101" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
-    <cfRule type="expression" dxfId="57" priority="99">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="61" priority="103">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="104">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="59" priority="101">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="102">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="57" priority="97">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="98">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="55" priority="88" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="54" priority="86">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="87">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22 D21:F22">
+    <cfRule type="expression" dxfId="52" priority="64">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="65">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="containsText" dxfId="50" priority="63" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="49" priority="61">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="62">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
+    <cfRule type="expression" dxfId="47" priority="59">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="60">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="45" priority="57">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="58">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="43" priority="56" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="42" priority="54">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="55">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="40" priority="52">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="53">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="expression" dxfId="37" priority="49">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="50">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:H17 H18:H20">
+    <cfRule type="expression" dxfId="35" priority="47">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="48">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="expression" dxfId="33" priority="45">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="46">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="31" priority="43">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="44">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 D18:F18">
+    <cfRule type="expression" dxfId="29" priority="39">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="40">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20 D19:F20">
+    <cfRule type="expression" dxfId="27" priority="30">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="100">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="55" priority="97">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="98">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="53" priority="95">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="96">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="51" priority="93">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K20">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L20">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="94">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="49" priority="91">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="92">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="47" priority="89">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="90">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="45" priority="85">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="86">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="43" priority="76" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="42" priority="74">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="75">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="40" priority="52">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="53">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="37" priority="49">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="50">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="35" priority="47">
+  <conditionalFormatting sqref="L16">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="48">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="33" priority="45">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="46">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="31" priority="44" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="30" priority="42">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="43">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="28" priority="40">
+  <conditionalFormatting sqref="L17">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="41">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="25" priority="37">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="38">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="23" priority="35">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="36">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="21" priority="33">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="34">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="19" priority="31">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="17" priority="27">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="19">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K20">
+  <conditionalFormatting sqref="K22">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I18="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L20">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I18="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I18="済み"</formula>
+      <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -5102,18 +5293,18 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
-        <v>76</v>
+      <c r="A1" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
-        <v>75</v>
+      <c r="A2" s="24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="26" t="s">
-        <v>77</v>
+      <c r="A12" s="24" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1021,11 +1021,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2022/7/27
-データ提供依頼中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>saiban.exeはTOYOTIRE様ソースお持ちでしょうか。
 SCはVB6版のみ所持、.NET版があるはず・・</t>
     <rPh sb="19" eb="20">
@@ -1052,6 +1047,222 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/7/27
+データ提供依頼中
+2022/8/　受領済</t>
+    <rPh sb="27" eb="30">
+      <t>ジュリョウスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①_円弧配列_カスタム仕様書.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26ページの「刻印文字登録」画面で設定する「Font name」と「Font Category1」は、文字のデザイン作成時に設定されているか、もしくは、同画面での登録となるのか何れでしょうか。</t>
+    <rPh sb="7" eb="9">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>イズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26ページの「刻印文字登録」画面で設定する「Unit」は、どのような条件で、どのような値を設定すればよろしいでしょうか。</t>
+    <rPh sb="34" eb="36">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥C表作成</t>
+    <rPh sb="2" eb="5">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【データ確認／依頼】
+C表作成に使用しているテーブル構成をご提供頂くことは可能ですか。
+サーバー名：IHDB66
+DB名：number
+テーブル名：
+①seiri_no_kanri ・・・ 整理番号管理ﾃｰﾌﾞﾙ名称
+②zumen_no_kanri ・・・ 図面番号管理ﾃｰﾌﾞﾙ名称
+③seiri_no ・・・ 整理番号ﾃｰﾌﾞﾙ名称
+④zumen_no ・・・ 図面番号ﾃｰﾌﾞﾙ名称
+⑤zumen_no2 ・・ ・図面番号ﾃｰﾌﾞﾙ名称(ｵﾌﾟｼｮﾝ付）</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>テイキョウイタダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【データ確認／依頼】
+C表作成機能の元図となるAT-B図面は、以前ご提供頂いた「AT-B-14313-00.MDL」でしょうか。
+また、異なる場合は、AT-B図面のサンプルを頂くことは可能でしょうか。</t>
+    <rPh sb="12" eb="15">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モトズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>テイキョウイタダ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認】
+「SafetyWarning」のダイアログのテキストボックスの使用方法は下記①、②の認識で問題ないでしょうか。
+①文章の出力順を入力する。
+②入力が有効な項目は全て設定する必要がある。
+※「「SafetyWarning」のダイアログ」シートを参照</t>
+    <rPh sb="1" eb="5">
+      <t>ソウサカクニン</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>シヨウホウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>シュツリョクジュン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/8/9 受領済</t>
+    <rPh sb="9" eb="12">
+      <t>ジュリョウスミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1374,7 +1585,447 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="168">
+  <dxfs count="225">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3541,7 +4192,7 @@
   </sheetPr>
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -4207,19 +4858,25 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="J21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="K21" s="5">
+        <v>44774</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="19" customFormat="1" ht="128.25" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -4243,10 +4900,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K22" s="5">
         <v>44769</v>
@@ -4255,82 +4912,168 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="B23" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="5">
+        <v>44782</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="5"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="B24" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="5">
+        <v>44782</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="5"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="156.75" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="9"/>
+      <c r="B25" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="5">
+        <v>44782</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="5">
+        <v>44782</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
+      <c r="B26" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="5">
+        <v>44782</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="5"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="99.75" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
+      <c r="B27" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="5">
+        <v>44782</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
       <c r="L27" s="9"/>
@@ -4517,687 +5260,838 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="167" priority="780" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="224" priority="817" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B23 G21:H22 L30 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16">
-    <cfRule type="expression" dxfId="166" priority="778">
+  <conditionalFormatting sqref="A4:L4 G21:H22 L30 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
+    <cfRule type="expression" dxfId="223" priority="815">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="779">
+    <cfRule type="expression" dxfId="222" priority="816">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="164" priority="293" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="221" priority="330" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I36">
-    <cfRule type="expression" dxfId="163" priority="291">
+  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22 I28:I36">
+    <cfRule type="expression" dxfId="220" priority="328">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="292">
+    <cfRule type="expression" dxfId="219" priority="329">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="161" priority="289">
+    <cfRule type="expression" dxfId="218" priority="326">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="290">
+    <cfRule type="expression" dxfId="217" priority="327">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="159" priority="233" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="216" priority="270" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="158" priority="231">
+    <cfRule type="expression" dxfId="215" priority="268">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="232">
+    <cfRule type="expression" dxfId="214" priority="269">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33 C36:C38">
-    <cfRule type="containsText" dxfId="156" priority="228" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="213" priority="265" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
-    <cfRule type="expression" dxfId="155" priority="226">
+  <conditionalFormatting sqref="B28:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
+    <cfRule type="expression" dxfId="212" priority="263">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="227">
+    <cfRule type="expression" dxfId="211" priority="264">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C29">
-    <cfRule type="containsText" dxfId="153" priority="225" operator="containsText" text="高">
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="containsText" dxfId="210" priority="262" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:H28 C29 E29:H29">
+    <cfRule type="expression" dxfId="209" priority="260">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="261">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="207" priority="258">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="259">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:G30">
+    <cfRule type="expression" dxfId="205" priority="256">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="257">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="expression" dxfId="203" priority="254">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="255">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C35">
+    <cfRule type="containsText" dxfId="201" priority="253" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
+    <cfRule type="expression" dxfId="200" priority="251">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="252">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:H36">
+    <cfRule type="expression" dxfId="198" priority="249">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="250">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:L24 K26:L29">
+    <cfRule type="expression" dxfId="196" priority="247">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="248">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:L36">
+    <cfRule type="expression" dxfId="194" priority="245">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="246">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="192" priority="243">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="244">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="190" priority="241">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="242">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="188" priority="239">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="240">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="186" priority="237">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="238">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="184" priority="235">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="236">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="182" priority="227">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="228">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="180" priority="231">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="232">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B9">
+    <cfRule type="expression" dxfId="178" priority="229">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="230">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="176" priority="225">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="226">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="174" priority="223">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="224">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="172" priority="221">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="222">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="170" priority="217">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="218">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="168" priority="215">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="216">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="166" priority="213">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="214">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="164" priority="182">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="183">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:E11">
+    <cfRule type="expression" dxfId="162" priority="211">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="212">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="160" priority="208">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="209">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="158" priority="206">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="207">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="156" priority="202">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="203">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="154" priority="200">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="201">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="152" priority="198">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="199">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="150" priority="186">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="187">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="148" priority="184">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="185">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="146" priority="168">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="169">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="144" priority="167" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="143" priority="165">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="166">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="141" priority="163">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="164">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="139" priority="161">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="162">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="137" priority="159">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="160">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="135" priority="153">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="154">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="133" priority="157">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="158">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="131" priority="155">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="156">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="expression" dxfId="129" priority="151">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="152">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="127" priority="150" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
+    <cfRule type="expression" dxfId="126" priority="148">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="149">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="124" priority="146">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="147">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="122" priority="144">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="145">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="120" priority="142">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="143">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="118" priority="140">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="141">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="116" priority="138">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="139">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="114" priority="134">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="135">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="112" priority="125" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="111" priority="123">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="124">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22 D21:F22">
+    <cfRule type="expression" dxfId="109" priority="101">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="102">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="containsText" dxfId="107" priority="100" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="106" priority="98">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="99">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
+    <cfRule type="expression" dxfId="104" priority="96">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="97">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="102" priority="94">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="95">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="100" priority="93" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="99" priority="91">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="92">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="97" priority="89">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="90">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="95" priority="88" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="expression" dxfId="94" priority="86">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="87">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:H17 H18:H20">
+    <cfRule type="expression" dxfId="92" priority="84">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="85">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="expression" dxfId="90" priority="82">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="83">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="88" priority="80">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="81">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 D18:F18">
+    <cfRule type="expression" dxfId="86" priority="76">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="77">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20 D19:F20">
+    <cfRule type="expression" dxfId="84" priority="67">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="68">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="82" priority="62">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="63">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="80" priority="60">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="61">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="expression" dxfId="78" priority="58">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="59">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="76" priority="56">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="57">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="74" priority="54">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="55">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K20">
+    <cfRule type="expression" dxfId="72" priority="52">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="53">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L20">
+    <cfRule type="expression" dxfId="70" priority="50">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="51">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="68" priority="48">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="49">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="66" priority="46">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="47">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="expression" dxfId="64" priority="44">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="45">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="expression" dxfId="62" priority="42">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="43">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="60" priority="40">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="41">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="expression" dxfId="58" priority="38">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="39">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:L21">
+    <cfRule type="expression" dxfId="56" priority="36">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="37">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 D23:F23">
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="35">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:H28 C29 E29:H29">
-    <cfRule type="expression" dxfId="152" priority="223">
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="224">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="150" priority="221">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="222">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="148" priority="219">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="220">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="146" priority="217">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="218">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
-    <cfRule type="containsText" dxfId="144" priority="216" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
-    <cfRule type="expression" dxfId="143" priority="214">
-      <formula>$I34="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="215">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:H36">
-    <cfRule type="expression" dxfId="141" priority="212">
-      <formula>$I35="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="213">
-      <formula>$I35="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:L21 K23:L29">
-    <cfRule type="expression" dxfId="139" priority="210">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="211">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:L36">
-    <cfRule type="expression" dxfId="137" priority="208">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="209">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="135" priority="206">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="207">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="133" priority="204">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="205">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="131" priority="202">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="203">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="129" priority="200">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="201">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="127" priority="198">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="199">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="125" priority="190">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="191">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="123" priority="194">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="195">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="121" priority="192">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="193">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="119" priority="188">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="189">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="117" priority="186">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="187">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="115" priority="184">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="185">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="113" priority="180">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="181">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="111" priority="178">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="179">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="109" priority="176">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="177">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="107" priority="145">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="146">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="105" priority="174">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="175">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="103" priority="171">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="172">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="101" priority="169">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="170">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="99" priority="165">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="166">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="97" priority="163">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="164">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="95" priority="161">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="162">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="93" priority="149">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="150">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="91" priority="147">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="148">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="89" priority="131">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="132">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="87" priority="130" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="86" priority="128">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="129">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="84" priority="126">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="127">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="82" priority="124">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="125">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="80" priority="122">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="123">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="78" priority="116">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="117">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="76" priority="120">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="121">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="74" priority="118">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="119">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="72" priority="114">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="115">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="70" priority="113" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
-    <cfRule type="expression" dxfId="69" priority="111">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="112">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="67" priority="109">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="110">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="65" priority="107">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="108">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="63" priority="105">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="106">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="61" priority="103">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="104">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="59" priority="101">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="102">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="57" priority="97">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="98">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="55" priority="88" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="54" priority="86">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="87">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="52" priority="64">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="65">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="50" priority="63" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="49" priority="61">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="62">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="47" priority="59">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="60">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="45" priority="57">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="58">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="43" priority="56" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="42" priority="54">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="55">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="40" priority="52">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="53">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="37" priority="49">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="50">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="35" priority="47">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="48">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="33" priority="45">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="46">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="31" priority="43">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="44">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="29" priority="39">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="40">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="27" priority="30">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="31">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$I19="確認中"</formula>
+      <formula>$I24="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K20">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L20">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B27">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H27">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I27">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I14="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I16="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I17="確認中"</formula>
+      <formula>$I24="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I22="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I22="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I22="済み"</formula>
+      <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\ichiro-uehara\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="質疑表" sheetId="24" r:id="rId1"/>
     <sheet name="No6、No7" sheetId="25" r:id="rId2"/>
     <sheet name="No.18　バルーンについて" sheetId="26" r:id="rId3"/>
+    <sheet name="「SafetyWarning」のダイアログ" sheetId="27" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="91">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1263,6 +1264,13 @@
     <t>2022/8/9 受領済</t>
     <rPh sb="9" eb="12">
       <t>ジュリョウスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;出力&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1585,7 +1593,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="225">
+  <dxfs count="205">
     <dxf>
       <fill>
         <patternFill>
@@ -1683,161 +1691,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3924,6 +3777,1038 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666139</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="714375"/>
+          <a:ext cx="4780939" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>42861</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>214314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="L 字 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1733550" y="638175"/>
+          <a:ext cx="2662236" cy="4672013"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 57156"/>
+            <a:gd name="adj2" fmla="val 83989"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5753101" cy="2066926"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239124" y="723900"/>
+          <a:ext cx="5753101" cy="2066926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SAFETY WARNING</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>SERIOUS IN JULY MAY RESULT FORM:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*TYRE FAILURE DUE TO UNDERINFLATION/OVERLOADING--</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>FOLLOW OWNER'S MANUAL OR TIRE PLACARD IN VEHICLE:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*EXPLOSION OF TIRE/RIM ASSEMBLY DUE TO IMPROTER MOUNTING--</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>ONLY SPECIALLY TRAINED PERSONS SHOULD MOOUNT TIRES.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NEVER EXCEED 40 PSI(275KPA) TO SEAT BEADS.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5753101" cy="2066926"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229599" y="3590925"/>
+          <a:ext cx="5753101" cy="2066926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SAFETY WARNING</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>FOLLOW OWNER'S MANUAL OR TIRE PLACARD IN VEHICLE:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*EXPLOSION OF TIRE/RIM ASSEMBLY DUE TO IMPROTER MOUNTING--</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>SERIOUS IN JULY MAY RESULT FORM:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*TYRE FAILURE DUE TO UNDERINFLATION/OVERLOADING--</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>ONLY SPECIALLY TRAINED PERSONS SHOULD MOOUNT TIRES.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NEVER EXCEED 40 PSI(275KPA) TO SEAT BEADS.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="351828" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1647825"/>
+          <a:ext cx="351828" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(A)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="351828" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1978479"/>
+          <a:ext cx="351828" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(B)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166008</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="351828" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="2309133"/>
+          <a:ext cx="351828" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(C)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>302204</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="302204" y="2639787"/>
+          <a:ext cx="357021" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(D)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112941</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="351828" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="2970441"/>
+          <a:ext cx="351828" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(E)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>205470</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="335028" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="313200" y="3301095"/>
+          <a:ext cx="335028" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(F)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301114</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59874</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="359201" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="301114" y="3631749"/>
+          <a:ext cx="359201" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(G)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301659</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="358111" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="301659" y="3962400"/>
+          <a:ext cx="358111" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(H)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666139</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5466739" y="1757363"/>
+          <a:ext cx="2772385" cy="785812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5466739" y="2543175"/>
+          <a:ext cx="2762860" cy="2081213"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="線吹き出し 1 (枠付き) 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="57150"/>
+          <a:ext cx="1533525" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100998"/>
+            <a:gd name="adj2" fmla="val 28672"/>
+            <a:gd name="adj3" fmla="val 121691"/>
+            <a:gd name="adj4" fmla="val 36089"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(A)=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(B)=2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(C)=3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(D)=4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(E)=5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(F)=6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(G)=7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>を入力した場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="線吹き出し 1 (枠付き) 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="4638675"/>
+          <a:ext cx="1533525" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2116"/>
+            <a:gd name="adj2" fmla="val 49791"/>
+            <a:gd name="adj3" fmla="val -62108"/>
+            <a:gd name="adj4" fmla="val 64660"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(A)=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(B)=4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(C)=5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(D)=2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(E)=3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(F)=6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(G)=7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>を入力した場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4192,7 +5077,7 @@
   </sheetPr>
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -5260,694 +6145,694 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="224" priority="817" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="204" priority="817" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 G21:H22 L30 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
-    <cfRule type="expression" dxfId="223" priority="815">
+    <cfRule type="expression" dxfId="203" priority="815">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="816">
+    <cfRule type="expression" dxfId="202" priority="816">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="221" priority="330" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="201" priority="330" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22 I28:I36">
-    <cfRule type="expression" dxfId="220" priority="328">
+    <cfRule type="expression" dxfId="200" priority="328">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="329">
+    <cfRule type="expression" dxfId="199" priority="329">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="218" priority="326">
+    <cfRule type="expression" dxfId="198" priority="326">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="327">
+    <cfRule type="expression" dxfId="197" priority="327">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="216" priority="270" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="196" priority="270" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="215" priority="268">
+    <cfRule type="expression" dxfId="195" priority="268">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="269">
+    <cfRule type="expression" dxfId="194" priority="269">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C33 C36:C38">
-    <cfRule type="containsText" dxfId="213" priority="265" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="193" priority="265" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
-    <cfRule type="expression" dxfId="212" priority="263">
+    <cfRule type="expression" dxfId="192" priority="263">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="264">
+    <cfRule type="expression" dxfId="191" priority="264">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="containsText" dxfId="210" priority="262" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="190" priority="262" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:H28 C29 E29:H29">
-    <cfRule type="expression" dxfId="209" priority="260">
+    <cfRule type="expression" dxfId="189" priority="260">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="261">
+    <cfRule type="expression" dxfId="188" priority="261">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="207" priority="258">
+    <cfRule type="expression" dxfId="187" priority="258">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="259">
+    <cfRule type="expression" dxfId="186" priority="259">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="205" priority="256">
+    <cfRule type="expression" dxfId="185" priority="256">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="257">
+    <cfRule type="expression" dxfId="184" priority="257">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="203" priority="254">
+    <cfRule type="expression" dxfId="183" priority="254">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="255">
+    <cfRule type="expression" dxfId="182" priority="255">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C35">
-    <cfRule type="containsText" dxfId="201" priority="253" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="181" priority="253" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
-    <cfRule type="expression" dxfId="200" priority="251">
+    <cfRule type="expression" dxfId="180" priority="251">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="252">
+    <cfRule type="expression" dxfId="179" priority="252">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:H36">
-    <cfRule type="expression" dxfId="198" priority="249">
+    <cfRule type="expression" dxfId="178" priority="249">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="250">
+    <cfRule type="expression" dxfId="177" priority="250">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L24 K26:L29">
-    <cfRule type="expression" dxfId="196" priority="247">
+    <cfRule type="expression" dxfId="176" priority="247">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="248">
+    <cfRule type="expression" dxfId="175" priority="248">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:L36">
-    <cfRule type="expression" dxfId="194" priority="245">
+    <cfRule type="expression" dxfId="174" priority="245">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="246">
+    <cfRule type="expression" dxfId="173" priority="246">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="192" priority="243">
+    <cfRule type="expression" dxfId="172" priority="243">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="244">
+    <cfRule type="expression" dxfId="171" priority="244">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="190" priority="241">
+    <cfRule type="expression" dxfId="170" priority="241">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="242">
+    <cfRule type="expression" dxfId="169" priority="242">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="188" priority="239">
+    <cfRule type="expression" dxfId="168" priority="239">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="240">
+    <cfRule type="expression" dxfId="167" priority="240">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="186" priority="237">
+    <cfRule type="expression" dxfId="166" priority="237">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="238">
+    <cfRule type="expression" dxfId="165" priority="238">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="184" priority="235">
+    <cfRule type="expression" dxfId="164" priority="235">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="236">
+    <cfRule type="expression" dxfId="163" priority="236">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="182" priority="227">
+    <cfRule type="expression" dxfId="162" priority="227">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="228">
+    <cfRule type="expression" dxfId="161" priority="228">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="180" priority="231">
+    <cfRule type="expression" dxfId="160" priority="231">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="232">
+    <cfRule type="expression" dxfId="159" priority="232">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="178" priority="229">
+    <cfRule type="expression" dxfId="158" priority="229">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="230">
+    <cfRule type="expression" dxfId="157" priority="230">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="176" priority="225">
+    <cfRule type="expression" dxfId="156" priority="225">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="226">
+    <cfRule type="expression" dxfId="155" priority="226">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="174" priority="223">
+    <cfRule type="expression" dxfId="154" priority="223">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="224">
+    <cfRule type="expression" dxfId="153" priority="224">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="172" priority="221">
+    <cfRule type="expression" dxfId="152" priority="221">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="222">
+    <cfRule type="expression" dxfId="151" priority="222">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="170" priority="217">
+    <cfRule type="expression" dxfId="150" priority="217">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="218">
+    <cfRule type="expression" dxfId="149" priority="218">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="168" priority="215">
+    <cfRule type="expression" dxfId="148" priority="215">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="216">
+    <cfRule type="expression" dxfId="147" priority="216">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="166" priority="213">
+    <cfRule type="expression" dxfId="146" priority="213">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="214">
+    <cfRule type="expression" dxfId="145" priority="214">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="164" priority="182">
+    <cfRule type="expression" dxfId="144" priority="182">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="183">
+    <cfRule type="expression" dxfId="143" priority="183">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="162" priority="211">
+    <cfRule type="expression" dxfId="142" priority="211">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="212">
+    <cfRule type="expression" dxfId="141" priority="212">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="160" priority="208">
+    <cfRule type="expression" dxfId="140" priority="208">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="209">
+    <cfRule type="expression" dxfId="139" priority="209">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="158" priority="206">
+    <cfRule type="expression" dxfId="138" priority="206">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="207">
+    <cfRule type="expression" dxfId="137" priority="207">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="156" priority="202">
+    <cfRule type="expression" dxfId="136" priority="202">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="203">
+    <cfRule type="expression" dxfId="135" priority="203">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="154" priority="200">
+    <cfRule type="expression" dxfId="134" priority="200">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="201">
+    <cfRule type="expression" dxfId="133" priority="201">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="152" priority="198">
+    <cfRule type="expression" dxfId="132" priority="198">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="199">
+    <cfRule type="expression" dxfId="131" priority="199">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="150" priority="186">
+    <cfRule type="expression" dxfId="130" priority="186">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="187">
+    <cfRule type="expression" dxfId="129" priority="187">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="148" priority="184">
+    <cfRule type="expression" dxfId="128" priority="184">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="185">
+    <cfRule type="expression" dxfId="127" priority="185">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="146" priority="168">
+    <cfRule type="expression" dxfId="126" priority="168">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="169">
+    <cfRule type="expression" dxfId="125" priority="169">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="144" priority="167" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="124" priority="167" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="143" priority="165">
+    <cfRule type="expression" dxfId="123" priority="165">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="166">
+    <cfRule type="expression" dxfId="122" priority="166">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="141" priority="163">
+    <cfRule type="expression" dxfId="121" priority="163">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="164">
+    <cfRule type="expression" dxfId="120" priority="164">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="139" priority="161">
+    <cfRule type="expression" dxfId="119" priority="161">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="162">
+    <cfRule type="expression" dxfId="118" priority="162">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="137" priority="159">
+    <cfRule type="expression" dxfId="117" priority="159">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="160">
+    <cfRule type="expression" dxfId="116" priority="160">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="135" priority="153">
+    <cfRule type="expression" dxfId="115" priority="153">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="154">
+    <cfRule type="expression" dxfId="114" priority="154">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="133" priority="157">
+    <cfRule type="expression" dxfId="113" priority="157">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="158">
+    <cfRule type="expression" dxfId="112" priority="158">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="131" priority="155">
+    <cfRule type="expression" dxfId="111" priority="155">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="156">
+    <cfRule type="expression" dxfId="110" priority="156">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="129" priority="151">
+    <cfRule type="expression" dxfId="109" priority="151">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="152">
+    <cfRule type="expression" dxfId="108" priority="152">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="127" priority="150" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="107" priority="150" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
-    <cfRule type="expression" dxfId="126" priority="148">
+    <cfRule type="expression" dxfId="106" priority="148">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="149">
+    <cfRule type="expression" dxfId="105" priority="149">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="124" priority="146">
+    <cfRule type="expression" dxfId="104" priority="146">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="147">
+    <cfRule type="expression" dxfId="103" priority="147">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="122" priority="144">
+    <cfRule type="expression" dxfId="102" priority="144">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="145">
+    <cfRule type="expression" dxfId="101" priority="145">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="120" priority="142">
+    <cfRule type="expression" dxfId="100" priority="142">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="143">
+    <cfRule type="expression" dxfId="99" priority="143">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="118" priority="140">
+    <cfRule type="expression" dxfId="98" priority="140">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="141">
+    <cfRule type="expression" dxfId="97" priority="141">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="116" priority="138">
+    <cfRule type="expression" dxfId="96" priority="138">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="139">
+    <cfRule type="expression" dxfId="95" priority="139">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="114" priority="134">
+    <cfRule type="expression" dxfId="94" priority="134">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="135">
+    <cfRule type="expression" dxfId="93" priority="135">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="112" priority="125" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="92" priority="125" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="111" priority="123">
+    <cfRule type="expression" dxfId="91" priority="123">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="124">
+    <cfRule type="expression" dxfId="90" priority="124">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="109" priority="101">
+    <cfRule type="expression" dxfId="89" priority="101">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="102">
+    <cfRule type="expression" dxfId="88" priority="102">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="107" priority="100" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="87" priority="100" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="106" priority="98">
+    <cfRule type="expression" dxfId="86" priority="98">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="99">
+    <cfRule type="expression" dxfId="85" priority="99">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="104" priority="96">
+    <cfRule type="expression" dxfId="84" priority="96">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="97">
+    <cfRule type="expression" dxfId="83" priority="97">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="102" priority="94">
+    <cfRule type="expression" dxfId="82" priority="94">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="95">
+    <cfRule type="expression" dxfId="81" priority="95">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="100" priority="93" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="80" priority="93" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="99" priority="91">
+    <cfRule type="expression" dxfId="79" priority="91">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="92">
+    <cfRule type="expression" dxfId="78" priority="92">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="97" priority="89">
+    <cfRule type="expression" dxfId="77" priority="89">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="90">
+    <cfRule type="expression" dxfId="76" priority="90">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="95" priority="88" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="75" priority="88" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="94" priority="86">
+    <cfRule type="expression" dxfId="74" priority="86">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="87">
+    <cfRule type="expression" dxfId="73" priority="87">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="92" priority="84">
+    <cfRule type="expression" dxfId="72" priority="84">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="85">
+    <cfRule type="expression" dxfId="71" priority="85">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="90" priority="82">
+    <cfRule type="expression" dxfId="70" priority="82">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="83">
+    <cfRule type="expression" dxfId="69" priority="83">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="88" priority="80">
+    <cfRule type="expression" dxfId="68" priority="80">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="81">
+    <cfRule type="expression" dxfId="67" priority="81">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="86" priority="76">
+    <cfRule type="expression" dxfId="66" priority="76">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="77">
+    <cfRule type="expression" dxfId="65" priority="77">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="84" priority="67">
+    <cfRule type="expression" dxfId="64" priority="67">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="68">
+    <cfRule type="expression" dxfId="63" priority="68">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="82" priority="62">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="63">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="80" priority="60">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="78" priority="58">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="59">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="76" priority="56">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="57">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="74" priority="54">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="55">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K20">
-    <cfRule type="expression" dxfId="72" priority="52">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="53">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L20">
-    <cfRule type="expression" dxfId="70" priority="50">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="51">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="68" priority="48">
+    <cfRule type="expression" dxfId="48" priority="48">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="49">
+    <cfRule type="expression" dxfId="47" priority="49">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="66" priority="46">
+    <cfRule type="expression" dxfId="46" priority="46">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="47">
+    <cfRule type="expression" dxfId="45" priority="47">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="64" priority="44">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="45">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="62" priority="42">
+    <cfRule type="expression" dxfId="42" priority="42">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="43">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="60" priority="40">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="41">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="58" priority="38">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="39">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:L21">
-    <cfRule type="expression" dxfId="56" priority="36">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="37">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6206,4 +7091,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M3:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\ichiro-uehara\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,65 +15,32 @@
     <sheet name="質疑表" sheetId="24" r:id="rId1"/>
     <sheet name="No6、No7" sheetId="25" r:id="rId2"/>
     <sheet name="No.18　バルーンについて" sheetId="26" r:id="rId3"/>
-    <sheet name="「SafetyWarning」のダイアログ" sheetId="27" r:id="rId4"/>
+    <sheet name="No19" sheetId="27" r:id="rId4"/>
+    <sheet name="No24" sheetId="28" r:id="rId5"/>
+    <sheet name="No27" sheetId="29" r:id="rId6"/>
+    <sheet name="「SafetyWarning」のダイアログ" sheetId="30" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="91">
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起票日</t>
-    <rPh sb="0" eb="3">
-      <t>キヒョウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>関連資料</t>
-    <rPh sb="0" eb="4">
-      <t>カンレンシリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起票者</t>
-    <rPh sb="0" eb="2">
-      <t>キヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>状況</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="220">
   <si>
     <t>質疑・課題</t>
     <phoneticPr fontId="1"/>
@@ -89,17 +56,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回答・対応日</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>タイオウビ</t>
-    </rPh>
+    <t>No.</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質疑</t>
   </si>
   <si>
     <t>関連
@@ -117,10 +75,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>起票</t>
+    <t>関連資料</t>
+    <rPh sb="0" eb="4">
+      <t>カンレンシリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起票日</t>
+    <rPh sb="0" eb="3">
+      <t>キヒョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起票者</t>
+    <rPh sb="0" eb="2">
+      <t>キヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答・対応日</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タイオウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>回答・対応者</t>
@@ -136,6 +140,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>‐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>次期CADシステム構築</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; 2D CADをAdvance CAD の Windows10 サポート終了と
+&gt; 新PLM 対応を目的にAuto CAD へ移行する。
+「現在の運用フロー」と「新PLMへ移行する運用フロー」があれば、頂きたいです。
+理由：ソフトキューブの作業範疇は、AdvanceCAD →AutoCADと考えておりますが、
+全体が見えていないと、 的を外した改修範囲の提案をしてしまいそうで、
+確認させて頂きました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>SC上原</t>
     <rPh sb="2" eb="4">
       <t>ウエハラ</t>
@@ -143,11 +167,175 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次期CADシステム構築</t>
+    <t>質疑</t>
+  </si>
+  <si>
+    <t>済み</t>
+  </si>
+  <si>
+    <t>新PLMへの運用フローは現在無しで年末に向けて作成中
+現在
+CADファイルはサーバ上に一括管理
+データべースには値などの情報が入っている。
+CADファイルがローカルPCに入っている訳では無い
+新PLM
+AutoCADのファイル、PLMの中に保管
+input/outputなど行う</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ネンマツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>イッカツカンリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ワケ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>‐</t>
+    <t>島津様</t>
+    <rPh sb="0" eb="2">
+      <t>シマズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前ちらっとお伺いしたかもしれませんが、SQLサーバーをお使いでしたでしょうか。
+また、DBの仕様書（テーブル構成等）は無い状態でしょうか？
+→また、円弧配列刻印文字系の操作が出来ないので、環境を構築したいと考えております。
+2022/7/13
+円配配列に関係するもののみ受領</t>
+    <rPh sb="76" eb="80">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+  </si>
+  <si>
+    <t>DBの仕様書（テーブル構成等）
+→調査中
+まずは円弧配列
+SQLサーバーのテーブル構成出力（SCからご連絡）
+使用バージョンはSQLサーバー2008</t>
+    <rPh sb="17" eb="20">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前前任者が対応していたときにメニューの英語化を行ったようなのですが、
+今回、AutoCADに移行するにあたり、メニューの多言語化は必要でしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語オンリーで進める。</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -155,18 +343,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Ubr_GMSearchメソッド（GM0000.cppの364行目）の処理タイトルで「原始文字 検索」となっていますが、「原始文字」とはどのような文字種を指していますのでしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原始文字＝AとかBとか一つの文字
+W,Hなど管理
+ABC＝編集文字
+繋げた状態のW,Hなど管理</t>
+    <rPh sb="11" eb="12">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>中</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>①_円弧配列_カスタム仕様書_REV05.docx</t>
-  </si>
-  <si>
-    <t>VB画面が使用しているヘルプファイル「Brand.hlp」を頂くことは可能でしょうか。
-ヘルプファイルの保存場所は設定ファイル「(ACAD.SETの保存フォルダ)\BR_Set.ini」内の「Help_File」で設定されている場所にあります。</t>
-    <rPh sb="74" eb="76">
-      <t>ホゾン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -207,8 +420,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>起票</t>
+  </si>
+  <si>
+    <t>解説用の資料を提供頂く</t>
+    <rPh sb="0" eb="3">
+      <t>カイセツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>①_円弧配列_カスタム仕様書_REV05.docx</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ラベリングの配置は事前に刻印文字等の呼び出し（＝VB画面でのSQL連携）が必要という認識で良いでしょうか。
@@ -219,155 +450,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>業務の順番</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュンバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&gt; 2D CADをAdvance CAD の Windows10 サポート終了と
-&gt; 新PLM 対応を目的にAuto CAD へ移行する。
-「現在の運用フロー」と「新PLMへ移行する運用フロー」があれば、頂きたいです。
-理由：ソフトキューブの作業範疇は、AdvanceCAD →AutoCADと考えておりますが、
-全体が見えていないと、 的を外した改修範囲の提案をしてしまいそうで、
-確認させて頂きました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新PLMへの運用フローは現在無しで年末に向けて作成中
-現在
-CADファイルはサーバ上に一括管理
-データべースには値などの情報が入っている。
-CADファイルがローカルPCに入っている訳では無い
-新PLM
-AutoCADのファイル、PLMの中に保管
-input/outputなど行う</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ネンマツ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="44" eb="48">
-      <t>イッカツカンリ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ワケ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ホカン</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以前前任者が対応していたときにメニューの英語化を行ったようなのですが、
-今回、AutoCADに移行するにあたり、メニューの多言語化は必要でしょうか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ubr_GMSearchメソッド（GM0000.cppの364行目）の処理タイトルで「原始文字 検索」となっていますが、「原始文字」とはどのような文字種を指していますのでしょうか。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>原始文字＝AとかBとか一つの文字
-W,Hなど管理
-ABC＝編集文字
-繋げた状態のW,Hなど管理</t>
-    <rPh sb="11" eb="12">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ツナ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>解説用の資料を提供頂く</t>
-    <rPh sb="0" eb="3">
-      <t>カイセツヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イタダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必ずDBに繋ぐ必要あり</t>
     <rPh sb="0" eb="1">
       <t>カナラ</t>
@@ -377,6 +459,14 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB画面が使用しているヘルプファイル「Brand.hlp」を頂くことは可能でしょうか。
+ヘルプファイルの保存場所は設定ファイル「(ACAD.SETの保存フォルダ)\BR_Set.ini」内の「Help_File」で設定されている場所にあります。</t>
+    <rPh sb="74" eb="76">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -395,6 +485,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>業務の順番</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務の順番が、カスタム仕様書の番号順で行われているか
+例えば、②パタ研→④面積変動→⑤パターン面積変動解析みたいにしているのか、または順不同で④→⑤→②のようにしているのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>基本的に順番は無い
 順番がもしあるならご連絡頂く</t>
     <rPh sb="0" eb="2">
@@ -419,61 +527,6 @@
       <t>イタダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBの仕様書（テーブル構成等）
-→調査中
-まずは円弧配列
-SQLサーバーのテーブル構成出力（SCからご連絡）
-使用バージョンはSQLサーバー2008</t>
-    <rPh sb="17" eb="20">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>エンコ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>英語オンリーで進める。</t>
-    <rPh sb="0" eb="2">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>島津様</t>
-    <rPh sb="0" eb="2">
-      <t>シマズ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>済み</t>
-  </si>
-  <si>
-    <t>対応中</t>
   </si>
   <si>
     <t>変換方法</t>
@@ -516,328 +569,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務の順番が、カスタム仕様書の番号順で行われているか
-例えば、②パタ研→④面積変動→⑤パターン面積変動解析みたいにしているのか、または順不同で④→⑤→②のようにしているのか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力データ提供のお願い</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④_面積変動_カスタム仕様_REV03.docx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10ページの「接地形状が全部（ALL）のタイプ」の場合の「接地形状切り出し図」に示されている上、中、下の絵はそれぞれどの部分の形状を表していますでしょうか。
-別紙「No6、No7」シートの左側の図になります。</t>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケイジョウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ケイジョウ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ベッシ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SC平</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④_面積変動_カスタム仕様_REV03.docx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.6の質問の続きですが、仮に中の絵がタイヤ全体の接地面を表している場合の質問です。
-接地形状の選択（全部／片側／下側）を行った場合のタイヤ接地面は、「別紙「No6、No7」シートの右側の図」のようになりますでしょうか。</t>
-    <rPh sb="5" eb="7">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>メン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>セッチメン</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③TM登録</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタム仕様書10ページ目の「① 事前準備 （形状準備）」は手作業で作成したデータでしょうか。</t>
-    <rPh sb="4" eb="7">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>テサギョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタム仕様書12ページ目の「③ フレックス・ライン定義」でフレックスラインを図示している画像の左側の方が事前準備の形状と違うのはフレックスラインの説明の為であって、実際の操作で選択するのは事前準備の形状という認識で問題ないでしょうか。</t>
-    <rPh sb="4" eb="7">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="53" eb="57">
-      <t>ジゼンジュンビ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ケイジョウ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ケイジョウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>改良要望の18～19ページ分の内容は、
-19ページの末尾の「TM登録をしないと。セクターやサイドプレート作図のマクロが流れない、登録できているか確認する際に、問題がある。」とその直前までのものでそれぞれ別の改良内容という認識でよろしいでしょうか。</t>
-    <rPh sb="0" eb="2">
-      <t>カイリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウボウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>マツビ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>チョクゼン</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="103" eb="107">
-      <t>カイリョウナイヨウ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SC山本</t>
-    <rPh sb="2" eb="4">
-      <t>ヤマモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④_面積変動_カスタム仕様_REV03 10ページの【接地形状切出し図…接地形状が全部（ALL）のタイプ】の図</t>
-    <rPh sb="54" eb="55">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>All…閉図形になっているストリング形状</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>One side…半円上ストリング形状</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bottom side…１／４円ストリング形状</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SC平</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以前ちらっとお伺いしたかもしれませんが、SQLサーバーをお使いでしたでしょうか。
-また、DBの仕様書（テーブル構成等）は無い状態でしょうか？
-→また、円弧配列刻印文字系の操作が出来ないので、環境を構築したいと考えております。
-2022/7/13
-円配配列に関係するもののみ受領</t>
-    <rPh sb="76" eb="80">
-      <t>エンコハイレツ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>コクイン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社内でマクロのまま編集することはない
 C＃で良い</t>
     <rPh sb="0" eb="2">
@@ -852,16 +583,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>④ 面積変動のパターン形状の前準備で作成する「ピッチ個数の配列表」に使用される「ピッチ個数情報」のCSVファイルの入手を希望いたします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>武市様</t>
     <rPh sb="0" eb="2">
       <t>タケチ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力データ提供のお願い</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -873,7 +613,286 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>2022/7/8
+データ受領済、パタ検に関してレクチャーの依頼
+2022/7/29
+レクチャー頂きました、ありがとうございました。</t>
+    <rPh sb="47" eb="48">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④_面積変動_カスタム仕様_REV03.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④ 面積変動のパターン形状の前準備で作成する「ピッチ個数の配列表」に使用される「ピッチ個数情報」のCSVファイルの入手を希望いたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/7/29
+データ提供依頼中
+インプットとアウトプットのデータ</t>
+    <rPh sb="13" eb="15">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ページの「接地形状が全部（ALL）のタイプ」の場合の「接地形状切り出し図」に示されている上、中、下の絵はそれぞれどの部分の形状を表していますでしょうか。
+別紙「No6、No7」シートの左側の図になります。</t>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レクチャー時に確認予定
+2022/7/29
+レクチャー頂きました、ありがとうございました。</t>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.6の質問の続きですが、仮に中の絵がタイヤ全体の接地面を表している場合の質問です。
+接地形状の選択（全部／片側／下側）を行った場合のタイヤ接地面は、「別紙「No6、No7」シートの右側の図」のようになりますでしょうか。</t>
+    <rPh sb="5" eb="7">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>セッチメン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③TM登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタム仕様書10ページ目の「① 事前準備 （形状準備）」は手作業で作成したデータでしょうか。</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC山本</t>
+    <rPh sb="2" eb="4">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>そうです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタム仕様書12ページ目の「③ フレックス・ライン定義」でフレックスラインを図示している画像の左側の方が事前準備の形状と違うのはフレックスラインの説明の為であって、実際の操作で選択するのは事前準備の形状という認識で問題ないでしょうか。</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良要望の18～19ページ分の内容は、
+19ページの末尾の「TM登録をしないと。セクターやサイドプレート作図のマクロが流れない、登録できているか確認する際に、問題がある。」とその直前までのものでそれぞれ別の改良内容という認識でよろしいでしょうか。</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="103" eb="107">
+      <t>カイリョウナイヨウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ニンシキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -894,28 +913,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中</t>
+    <t>saiban.exeはTOYOTIRE様ソースお持ちでしょうか。
+SCはVB6版のみ所持、.NET版があるはず・・</t>
+    <rPh sb="19" eb="20">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>バン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AutoCADの注釈メニュー</t>
-    <rPh sb="8" eb="10">
-      <t>チュウシャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＜AutoCADとMechanicalでの機能の違い＞</t>
-    <rPh sb="21" eb="23">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AutoCADMechanicalの注釈メニュー</t>
+    <t>2022/7/27
+データ提供依頼中
+2022/8/　受領済</t>
+    <rPh sb="27" eb="30">
+      <t>ジュリョウスミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -985,63 +1008,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2022/7/8
-データ受領済、パタ検に関してレクチャーの依頼
-2022/7/29
-レクチャー頂きました、ありがとうございました。</t>
-    <rPh sb="47" eb="48">
-      <t>イタダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2022/7/29
-データ提供依頼中
-インプットとアウトプットのデータ</t>
-    <rPh sb="13" eb="15">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レクチャー時に確認予定
-2022/7/29
-レクチャー頂きました、ありがとうございました。</t>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カクニンヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>saiban.exeはTOYOTIRE様ソースお持ちでしょうか。
-SCはVB6版のみ所持、.NET版があるはず・・</t>
-    <rPh sb="19" eb="20">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通常のAutoCADで行う</t>
     <rPh sb="0" eb="2">
       <t>ツウジョウ</t>
@@ -1052,74 +1018,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2022/7/27
-データ提供依頼中
-2022/8/　受領済</t>
-    <rPh sb="27" eb="30">
-      <t>ジュリョウスミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①_円弧配列_カスタム仕様書.docx</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>26ページの「刻印文字登録」画面で設定する「Font name」と「Font Category1」は、文字のデザイン作成時に設定されているか、もしくは、同画面での登録となるのか何れでしょうか。</t>
-    <rPh sb="7" eb="9">
-      <t>コクイン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>サクセイジ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>イズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「刻印文字登録」をする際は、「Font name」と「Font Category1」は、デザイングループで決めておいて画面で登録するになります。
+「Font name」は、Excel業務表の方で番号習得し、登録時入力
+「Font Category1」は、登録時、デザイングループでどれに属するか選択しております。
+</t>
+  </si>
+  <si>
+    <t>武市様</t>
   </si>
   <si>
     <t>26ページの「刻印文字登録」画面で設定する「Unit」は、どのような条件で、どのような値を設定すればよろしいでしょうか。</t>
-    <rPh sb="34" eb="36">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「Unit」は、登録者の部署を示しています。
+　登録時に入力となります。　
+　MD(モールドデザイン)グループの場合　Mを入力します。
+</t>
   </si>
   <si>
     <t>⑥C表作成</t>
@@ -1169,6 +1090,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>2022/8/9 受領済</t>
+    <rPh sb="9" eb="12">
+      <t>ジュリョウスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>【データ確認／依頼】
 C表作成機能の元図となるAT-B図面は、以前ご提供頂いた「AT-B-14313-00.MDL」でしょうか。
 また、異なる場合は、AT-B図面のサンプルを頂くことは可能でしょうか。</t>
@@ -1203,6 +1131,19 @@
       <t>イタダ</t>
     </rPh>
     <rPh sb="92" eb="94">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B-14313-00.MDLでC表作成は実施可能</t>
+    <rPh sb="19" eb="22">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
       <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1261,9 +1202,904 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2022/8/9 受領済</t>
-    <rPh sb="9" eb="12">
-      <t>ジュリョウスミ</t>
+    <t>①②共にその通り。
+②については、表記すべき文言が決まっているため、
+空番号になることは無い。</t>
+    <rPh sb="2" eb="3">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小島様</t>
+    <rPh sb="0" eb="3">
+      <t>コジマサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④_面積変動_カスタム仕様_REV03 10ページの【接地形状切出し図…接地形状が全部（ALL）のタイプ】の図</t>
+    <rPh sb="54" eb="55">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All…閉図形になっているストリング形状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>One side…半円上ストリング形状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bottom side…１／４円ストリング形状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜AutoCADとMechanicalでの機能の違い＞</t>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoCADの注釈メニュー</t>
+    <rPh sb="8" eb="10">
+      <t>チュウシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoCADMechanicalの注釈メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FontNameとgm_nameの関係</t>
+  </si>
+  <si>
+    <t>刻印文字登録する際にFontName、FontCategory1、FontCategory2、Charactername1、Caractername2の項目を結合して、DB内ではgm_nameとして登録されています。</t>
+  </si>
+  <si>
+    <t>FontCategory1、FontCategory2、Charactername1、Caractername2を使用して一意の文字コードを作成しております。</t>
+  </si>
+  <si>
+    <t>dbo_gz_kanri</t>
+  </si>
+  <si>
+    <t>flag_delete</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>no1</t>
+  </si>
+  <si>
+    <t>no2</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>dep_name</t>
+  </si>
+  <si>
+    <t>entry_name</t>
+  </si>
+  <si>
+    <t>entry_date</t>
+  </si>
+  <si>
+    <t>gm_num</t>
+  </si>
+  <si>
+    <t>gm_name001</t>
+  </si>
+  <si>
+    <t>gm_name002</t>
+  </si>
+  <si>
+    <t>gm_name003</t>
+  </si>
+  <si>
+    <t>gm_name004</t>
+  </si>
+  <si>
+    <t>gm_name005</t>
+  </si>
+  <si>
+    <t>gm_name006</t>
+  </si>
+  <si>
+    <t>gm_name007</t>
+  </si>
+  <si>
+    <t>gm_name008</t>
+  </si>
+  <si>
+    <t>gm_name009</t>
+  </si>
+  <si>
+    <t>gm_name010</t>
+  </si>
+  <si>
+    <t>gm_name011</t>
+  </si>
+  <si>
+    <t>gm_name012</t>
+  </si>
+  <si>
+    <t>gm_name013</t>
+  </si>
+  <si>
+    <t>gm_name014</t>
+  </si>
+  <si>
+    <t>gm_name015</t>
+  </si>
+  <si>
+    <t>gm_name016</t>
+  </si>
+  <si>
+    <t>gm_name017</t>
+  </si>
+  <si>
+    <t>gm_name018</t>
+  </si>
+  <si>
+    <t>gm_name019</t>
+  </si>
+  <si>
+    <t>gm_name020</t>
+  </si>
+  <si>
+    <t>gm_name021</t>
+  </si>
+  <si>
+    <t>gm_name022</t>
+  </si>
+  <si>
+    <t>gm_name023</t>
+  </si>
+  <si>
+    <t>gm_name024</t>
+  </si>
+  <si>
+    <t>gm_name025</t>
+  </si>
+  <si>
+    <t>gm_name026</t>
+  </si>
+  <si>
+    <t>gm_name027</t>
+  </si>
+  <si>
+    <t>gm_name028</t>
+  </si>
+  <si>
+    <t>gm_name029</t>
+  </si>
+  <si>
+    <t>gm_name030</t>
+  </si>
+  <si>
+    <t>gm_name031</t>
+  </si>
+  <si>
+    <t>gm_name032</t>
+  </si>
+  <si>
+    <t>gm_name033</t>
+  </si>
+  <si>
+    <t>gm_name034</t>
+  </si>
+  <si>
+    <t>gm_name035</t>
+  </si>
+  <si>
+    <t>gm_name036</t>
+  </si>
+  <si>
+    <t>gm_name037</t>
+  </si>
+  <si>
+    <t>gm_name038</t>
+  </si>
+  <si>
+    <t>gm_name039</t>
+  </si>
+  <si>
+    <t>gm_name040</t>
+  </si>
+  <si>
+    <t>gm_name041</t>
+  </si>
+  <si>
+    <t>gm_name042</t>
+  </si>
+  <si>
+    <t>gm_name043</t>
+  </si>
+  <si>
+    <t>gm_name044</t>
+  </si>
+  <si>
+    <t>gm_name045</t>
+  </si>
+  <si>
+    <t>gm_name046</t>
+  </si>
+  <si>
+    <t>gm_name047</t>
+  </si>
+  <si>
+    <t>gm_name048</t>
+  </si>
+  <si>
+    <t>gm_name049</t>
+  </si>
+  <si>
+    <t>gm_name050</t>
+  </si>
+  <si>
+    <t>gm_name051</t>
+  </si>
+  <si>
+    <t>gm_name052</t>
+  </si>
+  <si>
+    <t>gm_name053</t>
+  </si>
+  <si>
+    <t>gm_name054</t>
+  </si>
+  <si>
+    <t>gm_name055</t>
+  </si>
+  <si>
+    <t>gm_name056</t>
+  </si>
+  <si>
+    <t>gm_name057</t>
+  </si>
+  <si>
+    <t>gm_name058</t>
+  </si>
+  <si>
+    <t>gm_name059</t>
+  </si>
+  <si>
+    <t>gm_name060</t>
+  </si>
+  <si>
+    <t>gm_name061</t>
+  </si>
+  <si>
+    <t>gm_name062</t>
+  </si>
+  <si>
+    <t>gm_name063</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>TRAMPIO(ベタ）</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>KO0303A0AA</t>
+  </si>
+  <si>
+    <t>KO0303A1AA</t>
+  </si>
+  <si>
+    <t>KO0303A2AA</t>
+  </si>
+  <si>
+    <t>KO0303A3AA</t>
+  </si>
+  <si>
+    <t>KO0303A4AA</t>
+  </si>
+  <si>
+    <t>KO0303A0AI</t>
+  </si>
+  <si>
+    <t>KO0303A1AI</t>
+  </si>
+  <si>
+    <t>KO0303A2AI</t>
+  </si>
+  <si>
+    <t>KO0303A3AI</t>
+  </si>
+  <si>
+    <t>KO0303A4AI</t>
+  </si>
+  <si>
+    <t>KO0303A0AM</t>
+  </si>
+  <si>
+    <t>KO0303A1AM</t>
+  </si>
+  <si>
+    <t>KO0303A2AM</t>
+  </si>
+  <si>
+    <t>KO0303A3AM</t>
+  </si>
+  <si>
+    <t>KO0303A4AM</t>
+  </si>
+  <si>
+    <t>KO0303A2AO</t>
+  </si>
+  <si>
+    <t>KO0303A0AO</t>
+  </si>
+  <si>
+    <t>KO0303A1AO</t>
+  </si>
+  <si>
+    <t>KO0303A3AO</t>
+  </si>
+  <si>
+    <t>KO0303A4AO</t>
+  </si>
+  <si>
+    <t>KO0303A0AP</t>
+  </si>
+  <si>
+    <t>KO0303A1AP</t>
+  </si>
+  <si>
+    <t>KO0303A2AP</t>
+  </si>
+  <si>
+    <t>KO0303A3AP</t>
+  </si>
+  <si>
+    <t>KO0303A4AP</t>
+  </si>
+  <si>
+    <t>KO0303A0AR</t>
+  </si>
+  <si>
+    <t>KO0303A1AR</t>
+  </si>
+  <si>
+    <t>KO0303A2AR</t>
+  </si>
+  <si>
+    <t>KO0303A3AR</t>
+  </si>
+  <si>
+    <t>KO0303A4AR</t>
+  </si>
+  <si>
+    <t>KO0303A0AT</t>
+  </si>
+  <si>
+    <t>KO0303A1AT</t>
+  </si>
+  <si>
+    <t>KO0303A2AT</t>
+  </si>
+  <si>
+    <t>KO0303A3AT</t>
+  </si>
+  <si>
+    <t>KO0303A4AT</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①_円弧配列_カスタム仕様書.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ページの「① 基本配置設定」に、基準線作成時の両側、片側の選択についての記載がありますが、どのような手順で選択すればよろしいでしょうか。
+また、片側を選択した場合のピクチャーは、選択したTopまたはBottomのみのピクチャーが生成されるのでしょうか。</t>
+    <rPh sb="18" eb="21">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カタガワ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12ページの「Mold number」の登録につきまして、画面サンプルにありますように「Type」が「区分2（1桁）+番号」の場合、表示されているデザインでDBの登録されているテンプレートモデル（HE005901）に対して、「Category」と「Number」のテキストBOXで入力された文字に対応する（あらかじめDB登録されている）文字で置換するということでよろしいでしょうか。</t>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記No16の続きの質問ですが、別紙「No16」シートの画面で文字を検索する際に緑枠のテキストBOXには「フォント名」を入力しますが、赤枠のテキストBOX（Primitive character code）には、どのような値を設定すればよろしいでしょうか。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ミドリワク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1文字の編集文字を作成・DB登録する場合、25～28ページの「２）刻印文字、編集文字の扱い」に記載されている手順でよろしいでしょうか。</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥C表作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【データ確認／依頼】
+「C:\ACAD19\env_test\submodel\P-SUB-C.MDL」を頂くことは可能でしょうか。
+「② C表データの落とし込み」（コマンド：Pre Process）及び、「⑤ 定義オブジェクトの詳細化 - (ア）自動認識」（コマンド：Labeling Detail）の機能実行時に当該ファイルのヘッダー情報の読み込みに失敗しているようで、コマンドライン部に 「モデルファイルヘッダー情報が参照できませんでした」と表示されるためです。
+以下補足説明です。
+＜C表データの落とし込み＞
+不要PIC、アイテム削除後のタイミングでヘッダー情報の取得を行っている。
+＜定義オブジェクトの詳細化（自動）＞
+「SafetyWarning」ダイアログで「Execute」→「Back」の操作後にヘッダー情報の取得を行っている。
+→「SafetyWarning」の詳細化が失敗する形で終わるため、他のラベルの詳細化行われない。</t>
+    <rPh sb="53" eb="54">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="155" eb="158">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="239" eb="243">
+      <t>ホソクセツメイ</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="271" eb="274">
+      <t>サクジョゴ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="288" eb="290">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="291" eb="292">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="313" eb="315">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="356" eb="359">
+      <t>ソウサゴ</t>
+    </rPh>
+    <rPh sb="394" eb="397">
+      <t>ショウサイカ</t>
+    </rPh>
+    <rPh sb="398" eb="400">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="402" eb="403">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="404" eb="405">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="410" eb="411">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="416" eb="418">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="418" eb="419">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="419" eb="420">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥C表作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認】
+AT-B図面「AT-B-14313-00.MDL」で、「④ 各種ラベリング及びマーク類形状（オブジェクト）の定義 - (エ) Platformマーク類」（コマンド：Platform-Create(DOM)、Platform-Create(IO)」機能を実行すると、共にPlatformマーク情報が作成されなったのですが、当該の図面にはマークが存在しないという認識でよろしいでしょうか。</t>
+    <rPh sb="11" eb="13">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認】
+自動詳細化の機能（コマンド：Labeling Detail）が途中で終了しているためか、NonSerial側のPIC.8が作成されませんでした。
+NonSerial側のもの（PIC.3）に対して、手動詳細化機能（コマンド：Detail）の実行も行いましたが、PIC.7の方に追加されるだけで、PIC8の方には作成されませんでした。
+自動詳細化の処理が最後まで動けばPIC.8が作成されるという認識で良いでしょうか。
+または、PIC7の内容を手動でコピー等を行っているのでしょうか。</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="107" eb="110">
+      <t>ショウサイカ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18ページの「③ ラベリングの各種操作」「・配置」を行った際に表示されるパラメータの内の「Mold flag」は、基準線作成時の両側、片側を示していますのでしょうか。
+別紙「No24」シートの図の赤枠部分のパラメータになります。</t>
+    <rPh sb="22" eb="24">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>リョウガワ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カタガワ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8ページの表の「呼出」-「編集文字」-「Character search」-「Editing “CH”２」で表示される画面は、1文字の編集文字を呼び出す目的のものでしょうか。
+別紙「No27」シートに同画面のキャプチャを表示しています。</t>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1279,7 +2115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1333,8 +2169,39 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1353,8 +2220,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1498,13 +2383,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1544,13 +2444,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,9 +2455,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1583,17 +2474,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="205">
+  <dxfs count="296">
     <dxf>
       <fill>
         <patternFill>
@@ -1770,6 +2685,51 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1825,21 +2785,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1925,246 +2870,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2205,6 +2910,51 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2260,6 +3010,36 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2300,6 +3080,51 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2321,6 +3146,796 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3210,6 +4825,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3256,7 +4874,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3311,7 +4935,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3358,7 +4988,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3405,7 +5041,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3457,7 +5099,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3495,7 +5143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3533,7 +5187,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3591,7 +5251,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4"/>
+        <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3657,7 +5323,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3715,7 +5387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6"/>
+        <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3778,6 +5456,338 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BFD7C6-A597-4F9E-D80B-FB6F10F5E2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="714375"/>
+          <a:ext cx="6772275" cy="6943725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="695325" y="238125"/>
+          <a:ext cx="5486400" cy="1171575"/>
+          <a:chOff x="695325" y="238125"/>
+          <a:chExt cx="5486400" cy="1171575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="695325" y="238125"/>
+            <a:ext cx="5486400" cy="1171575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2486026" y="657225"/>
+            <a:ext cx="1485900" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5991225" cy="7486650"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5991225" cy="7486650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5991225" cy="7486650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1590675" y="1038225"/>
+            <a:ext cx="981075" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4562475" y="1028700"/>
+            <a:ext cx="857250" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5077,8 +7087,8 @@
   </sheetPr>
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5098,1016 +7108,1180 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
+      <c r="A3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="L4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="142.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="142.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5">
         <v>44732</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K5" s="5">
         <v>44741</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="19" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5">
         <v>44732</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5">
         <v>44732</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K7" s="5">
         <v>44741</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5">
         <v>44739</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K8" s="5">
         <v>44741</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5">
         <v>44741</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" s="5">
         <v>44741</v>
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="57" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5">
         <v>44741</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K10" s="5">
         <v>44741</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="71.25" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F11" s="5">
         <v>44741</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K11" s="5">
         <v>44741</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5">
         <v>44741</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K12" s="5">
         <v>44741</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5">
         <v>44748</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K13" s="5">
         <v>44755</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5">
         <v>44748</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K14" s="5">
         <v>44771</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5">
         <v>44750</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>50</v>
+      <c r="B16" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F16" s="5">
         <v>44754</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="K16" s="5">
         <v>44771</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="19" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>50</v>
+      <c r="B17" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F17" s="5">
         <v>44754</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="K17" s="5">
         <v>44771</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F18" s="5">
         <v>44753</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K18" s="5">
         <v>44755</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="57" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F19" s="5">
         <v>44755</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K19" s="5">
         <v>44755</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="71.25" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F20" s="5">
         <v>44755</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K20" s="5">
         <v>44755</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K21" s="5">
         <v>44774</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="19" customFormat="1" ht="128.25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="128.25" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F22" s="5">
         <v>44769</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K22" s="5">
         <v>44769</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>81</v>
+      <c r="B23" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F23" s="5">
         <v>44782</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="5">
+        <v>44792</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="57" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>81</v>
+      <c r="B24" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F24" s="5">
         <v>44782</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="5">
+        <v>44792</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" ht="156.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="156.75" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>81</v>
+      <c r="B25" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F25" s="5">
         <v>44782</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K25" s="5">
         <v>44782</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" ht="71.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="71.25" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>81</v>
+      <c r="B26" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F26" s="5">
         <v>44782</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="5">
+        <v>44783</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" s="19" customFormat="1" ht="99.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="99.75" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F27" s="5">
         <v>44782</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="5">
+        <v>44783</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="32" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="B28" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="5">
+        <v>44795</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="32" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
+      <c r="B29" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="5">
+        <v>44795</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="5"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="32" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
+      <c r="B30" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="5"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="32" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
+      <c r="B31" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="5"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="32" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="B32" s="19">
+        <v>16</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="5"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
+      <c r="B33" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="5"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="32" customFormat="1" ht="315.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>30</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
+      <c r="C34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="5"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="32" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>31</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
+      <c r="C35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="5"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="32" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
+      <c r="B36" s="9">
+        <v>14</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="5"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -6123,7 +8297,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -6145,838 +8319,1135 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="204" priority="817" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="295" priority="908" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 G21:H22 L30 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
-    <cfRule type="expression" dxfId="203" priority="815">
+  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
+    <cfRule type="expression" dxfId="294" priority="906">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="816">
+    <cfRule type="expression" dxfId="293" priority="907">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="201" priority="330" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="292" priority="421" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22 I28:I36">
-    <cfRule type="expression" dxfId="200" priority="328">
+  <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22">
+    <cfRule type="expression" dxfId="291" priority="419">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="329">
+    <cfRule type="expression" dxfId="290" priority="420">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="198" priority="326">
+    <cfRule type="expression" dxfId="289" priority="417">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="327">
+    <cfRule type="expression" dxfId="288" priority="418">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="196" priority="270" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="287" priority="361" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="195" priority="268">
+    <cfRule type="expression" dxfId="286" priority="359">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="269">
+    <cfRule type="expression" dxfId="285" priority="360">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C33 C36:C38">
-    <cfRule type="containsText" dxfId="193" priority="265" operator="containsText" text="高">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsText" dxfId="284" priority="356" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:L38 J25:J27">
+    <cfRule type="expression" dxfId="283" priority="354">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="355">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:L24 K27:L27">
+    <cfRule type="expression" dxfId="267" priority="338">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="339">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="261" priority="332">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="333">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="259" priority="330">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="331">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="257" priority="328">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="329">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="255" priority="326">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="327">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="253" priority="318">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="319">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="251" priority="322">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="323">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B9">
+    <cfRule type="expression" dxfId="249" priority="320">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="321">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="247" priority="316">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="317">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="245" priority="314">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="315">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="243" priority="312">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="313">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="241" priority="308">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="309">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="239" priority="306">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="307">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="237" priority="304">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="305">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="235" priority="273">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="274">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:E11">
+    <cfRule type="expression" dxfId="233" priority="302">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="303">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="231" priority="299">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="300">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="229" priority="297">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="298">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="227" priority="293">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="294">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="225" priority="291">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="292">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="223" priority="289">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="290">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="221" priority="277">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="278">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="219" priority="275">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="276">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="217" priority="259">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="260">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="215" priority="258" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="214" priority="256">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="257">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="212" priority="254">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="255">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="210" priority="252">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="253">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="208" priority="250">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="251">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="206" priority="244">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="245">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="204" priority="248">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="249">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="202" priority="246">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="247">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="expression" dxfId="200" priority="242">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="243">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="198" priority="241" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
+    <cfRule type="expression" dxfId="1" priority="239">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="240">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="197" priority="237">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="238">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="195" priority="235">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="236">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="193" priority="233">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="234">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="191" priority="231">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="232">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="189" priority="229">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="230">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="187" priority="225">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="226">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="185" priority="216" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="184" priority="214">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="215">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22 D21:F22">
+    <cfRule type="expression" dxfId="182" priority="192">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="193">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="containsText" dxfId="180" priority="191" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="179" priority="189">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="190">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
+    <cfRule type="expression" dxfId="177" priority="187">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="188">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="175" priority="185">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="186">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="173" priority="184" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="172" priority="182">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="183">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="170" priority="180">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="181">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="168" priority="179" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="expression" dxfId="167" priority="177">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="178">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:H17 H18:H20">
+    <cfRule type="expression" dxfId="165" priority="175">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="176">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="expression" dxfId="163" priority="173">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="174">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="161" priority="171">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="172">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 D18:F18">
+    <cfRule type="expression" dxfId="159" priority="167">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="168">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20 D19:F20">
+    <cfRule type="expression" dxfId="157" priority="158">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="159">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="155" priority="153">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="154">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="153" priority="151">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="152">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="expression" dxfId="151" priority="149">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="150">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="149" priority="147">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="148">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="147" priority="145">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="146">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K20">
+    <cfRule type="expression" dxfId="145" priority="143">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="144">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L20">
+    <cfRule type="expression" dxfId="143" priority="141">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="142">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="141" priority="139">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="140">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="139" priority="137">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="138">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="expression" dxfId="137" priority="135">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="136">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="expression" dxfId="135" priority="133">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="134">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="133" priority="131">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="132">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="expression" dxfId="131" priority="129">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="130">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:L21">
+    <cfRule type="expression" dxfId="129" priority="127">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="128">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 D23:F23">
+    <cfRule type="expression" dxfId="127" priority="125">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="126">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="125" priority="124" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="124" priority="122">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="123">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="122" priority="120">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="121">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="120" priority="118">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="119">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="118" priority="116">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="117">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="116" priority="115" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="115" priority="113">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="114">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B27">
+    <cfRule type="expression" dxfId="113" priority="111">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="112">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="111" priority="109">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="110">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="expression" dxfId="109" priority="107">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="108">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H27">
+    <cfRule type="expression" dxfId="107" priority="105">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="106">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I27">
+    <cfRule type="expression" dxfId="105" priority="103">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="104">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="102" priority="100">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="101">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="100" priority="98">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="99">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="98" priority="96">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="97">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="expression" dxfId="96" priority="94">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="95">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="expression" dxfId="94" priority="92">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="93">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="expression" dxfId="92" priority="90">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="91">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="expression" dxfId="90" priority="88">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="89">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="expression" dxfId="88" priority="86">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="87">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J33 J28:L29 E28:E31">
+    <cfRule type="expression" dxfId="86" priority="84">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="85">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:L33">
+    <cfRule type="expression" dxfId="84" priority="82">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="83">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="82" priority="80">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="81">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="79" priority="77">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="78">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="77" priority="75">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="76">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
+    <cfRule type="expression" dxfId="75" priority="73">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="74">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="73" priority="71">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="72">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="71" priority="69">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="70">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="68" priority="66">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="67">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="66" priority="64">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="65">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="expression" dxfId="64" priority="62">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="63">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="62" priority="60">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="61">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="60" priority="58">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="59">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B29 B30:D30 H30 B31:H33 B37:L38 B36:E36 J36 J24:J33">
-    <cfRule type="expression" dxfId="192" priority="263">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="191" priority="264">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
-    <cfRule type="containsText" dxfId="190" priority="262" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:H28 C29 E29:H29">
-    <cfRule type="expression" dxfId="189" priority="260">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="57" priority="55">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="56">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="expression" dxfId="55" priority="53">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="54">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:H30">
+    <cfRule type="expression" dxfId="53" priority="51">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="51" priority="49">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="50">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="49" priority="47">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="46" priority="44">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="45">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="expression" dxfId="44" priority="42">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:H31">
+    <cfRule type="expression" dxfId="42" priority="40">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="40" priority="38">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="39">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="38" priority="36">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="33" priority="31">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="28" priority="26">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="26" priority="24">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="expression" dxfId="24" priority="22">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="22" priority="20">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="expression" dxfId="20" priority="18">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:H33">
+    <cfRule type="expression" dxfId="18" priority="16">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="14" priority="12">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B33">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="261">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="187" priority="258">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="259">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="185" priority="256">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="257">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="183" priority="254">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="255">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
-    <cfRule type="containsText" dxfId="181" priority="253" operator="containsText" text="高">
+  <conditionalFormatting sqref="C34:C36">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:H34 B35:E35 J34:J35">
-    <cfRule type="expression" dxfId="180" priority="251">
+  <conditionalFormatting sqref="J35:J36 J34:L34 B34:E36">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="252">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:H36">
-    <cfRule type="expression" dxfId="178" priority="249">
+  <conditionalFormatting sqref="K35:L36">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="250">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:L24 K26:L29">
-    <cfRule type="expression" dxfId="176" priority="247">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="248">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:L36">
-    <cfRule type="expression" dxfId="174" priority="245">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="246">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="172" priority="243">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="244">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="170" priority="241">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="242">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="168" priority="239">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="240">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="166" priority="237">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="238">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="164" priority="235">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="236">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="162" priority="227">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="228">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="160" priority="231">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="232">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="158" priority="229">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="230">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="156" priority="225">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="226">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="154" priority="223">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="224">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="152" priority="221">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="222">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="150" priority="217">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="218">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="148" priority="215">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="216">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="146" priority="213">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="214">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="144" priority="182">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="183">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="142" priority="211">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="212">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="140" priority="208">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="209">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="138" priority="206">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="207">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="136" priority="202">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="203">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="134" priority="200">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="201">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="132" priority="198">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="199">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="130" priority="186">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="187">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="128" priority="184">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="185">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="126" priority="168">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="169">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="124" priority="167" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="123" priority="165">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="166">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="121" priority="163">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="164">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="119" priority="161">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="162">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="117" priority="159">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="160">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="115" priority="153">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="154">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="113" priority="157">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="158">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="111" priority="155">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="156">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="109" priority="151">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="152">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="107" priority="150" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
-    <cfRule type="expression" dxfId="106" priority="148">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="149">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="104" priority="146">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="147">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="102" priority="144">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="145">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="100" priority="142">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="143">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="98" priority="140">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="141">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="96" priority="138">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="139">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="94" priority="134">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="135">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="92" priority="125" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="91" priority="123">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="124">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="89" priority="101">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="102">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="87" priority="100" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="86" priority="98">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="99">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="84" priority="96">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="97">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="82" priority="94">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="95">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="80" priority="93" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="79" priority="91">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="92">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="77" priority="89">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="90">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="75" priority="88" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="74" priority="86">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="87">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="72" priority="84">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="85">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="70" priority="82">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="83">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="68" priority="80">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="81">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="66" priority="76">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="77">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="64" priority="67">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="68">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="62" priority="62">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="63">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="60" priority="60">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="58" priority="58">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="59">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="56" priority="56">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="54" priority="54">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="55">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K20">
-    <cfRule type="expression" dxfId="52" priority="52">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L20">
-    <cfRule type="expression" dxfId="50" priority="50">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="48" priority="48">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="46" priority="46">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="42" priority="42">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="40" priority="40">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="38" priority="38">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:L21">
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24 D23:F23">
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:H27">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I27">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I25="済み"</formula>
+  <conditionalFormatting sqref="F34:H36">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I36">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -7007,22 +9478,22 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="Q7" s="23" t="s">
-        <v>59</v>
+      <c r="Q7" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="Q14" s="23" t="s">
-        <v>60</v>
+      <c r="Q14" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q20" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -7072,18 +9543,18 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>72</v>
+      <c r="A1" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
-        <v>71</v>
+      <c r="A2" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
-        <v>73</v>
+      <c r="A12" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -7094,6 +9565,529 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:BU42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:73" x14ac:dyDescent="0.4">
+      <c r="B40" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40" s="31"/>
+      <c r="AP40" s="31"/>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="31"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+      <c r="AW40" s="31"/>
+      <c r="AX40" s="31"/>
+      <c r="AY40" s="31"/>
+      <c r="AZ40" s="31"/>
+      <c r="BA40" s="31"/>
+      <c r="BB40" s="31"/>
+      <c r="BC40" s="31"/>
+      <c r="BD40" s="31"/>
+      <c r="BE40" s="31"/>
+      <c r="BF40" s="31"/>
+      <c r="BG40" s="31"/>
+      <c r="BH40" s="31"/>
+      <c r="BI40" s="31"/>
+      <c r="BJ40" s="31"/>
+      <c r="BK40" s="31"/>
+      <c r="BL40" s="31"/>
+      <c r="BM40" s="31"/>
+      <c r="BN40" s="31"/>
+      <c r="BO40" s="31"/>
+      <c r="BP40" s="31"/>
+      <c r="BQ40" s="31"/>
+      <c r="BR40" s="31"/>
+      <c r="BS40" s="31"/>
+      <c r="BT40" s="31"/>
+      <c r="BU40" s="31"/>
+    </row>
+    <row r="41" spans="2:73" x14ac:dyDescent="0.4">
+      <c r="B41" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O41" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="P41" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="R41" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="S41" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="T41" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="U41" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="V41" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="W41" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="X41" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y41" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z41" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA41" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB41" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC41" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD41" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE41" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF41" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG41" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH41" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI41" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ41" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK41" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL41" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM41" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN41" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO41" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP41" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ41" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR41" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS41" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT41" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU41" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV41" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW41" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX41" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY41" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ41" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA41" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB41" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC41" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD41" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE41" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF41" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG41" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH41" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="BI41" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="BJ41" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK41" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL41" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM41" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN41" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="BO41" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP41" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ41" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR41" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BS41" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT41" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU41" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="2:73" x14ac:dyDescent="0.4">
+      <c r="B42" s="24">
+        <v>0</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="24">
+        <v>303</v>
+      </c>
+      <c r="E42" s="24">
+        <v>0</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" s="24">
+        <v>5153</v>
+      </c>
+      <c r="I42" s="25">
+        <v>35585</v>
+      </c>
+      <c r="J42" s="24">
+        <v>35</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="M42" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="N42" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O42" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="P42" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q42" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="R42" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="S42" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="T42" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="U42" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="V42" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="W42" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="X42" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y42" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z42" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA42" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB42" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC42" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD42" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE42" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF42" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG42" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH42" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI42" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ42" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK42" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL42" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM42" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN42" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO42" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP42" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ42" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR42" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS42" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT42" s="26"/>
+      <c r="AU42" s="26"/>
+      <c r="AV42" s="26"/>
+      <c r="AW42" s="26"/>
+      <c r="AX42" s="26"/>
+      <c r="AY42" s="26"/>
+      <c r="AZ42" s="26"/>
+      <c r="BA42" s="26"/>
+      <c r="BB42" s="26"/>
+      <c r="BC42" s="26"/>
+      <c r="BD42" s="26"/>
+      <c r="BE42" s="26"/>
+      <c r="BF42" s="26"/>
+      <c r="BG42" s="26"/>
+      <c r="BH42" s="26"/>
+      <c r="BI42" s="26"/>
+      <c r="BJ42" s="26"/>
+      <c r="BK42" s="26"/>
+      <c r="BL42" s="26"/>
+      <c r="BM42" s="26"/>
+      <c r="BN42" s="26"/>
+      <c r="BO42" s="26"/>
+      <c r="BP42" s="26"/>
+      <c r="BQ42" s="26"/>
+      <c r="BR42" s="26"/>
+      <c r="BS42" s="26"/>
+      <c r="BT42" s="26"/>
+      <c r="BU42" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B40:BU40"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M3:M15"/>
   <sheetViews>
@@ -7105,12 +10099,12 @@
   <sheetData>
     <row r="3" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7118,4 +10112,198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003442B980DF3C8247A14AC4F4CEC26B16" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="28b866df324f6e72f4ae0767aa81268a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="545b8069-f163-4bb3-9d35-7febfaab5682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44d7a6a8b5cec89910e4d0bef4271b70" ns2:_="">
+    <xsd:import namespace="545b8069-f163-4bb3-9d35-7febfaab5682"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="545b8069-f163-4bb3-9d35-7febfaab5682" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A64E9643-3472-45CF-A1F0-277D254AE09F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="545b8069-f163-4bb3-9d35-7febfaab5682"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\ichiro-uehara\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1717,49 +1717,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上記No16の続きの質問ですが、別紙「No16」シートの画面で文字を検索する際に緑枠のテキストBOXには「フォント名」を入力しますが、赤枠のテキストBOX（Primitive character code）には、どのような値を設定すればよろしいでしょうか。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ミドリワク</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>アカワク</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1文字の編集文字を作成・DB登録する場合、25～28ページの「２）刻印文字、編集文字の扱い」に記載されている手順でよろしいでしょうか。</t>
     <rPh sb="1" eb="3">
       <t>モジ</t>
@@ -2107,6 +2064,49 @@
     <t>&lt;出力&gt;</t>
     <rPh sb="1" eb="3">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記No27の続きの質問ですが、別紙「No27」シートの画面で文字を検索する際に緑枠のテキストBOXには「フォント名」を入力しますが、赤枠のテキストBOX（Primitive character code）には、どのような値を設定すればよろしいでしょうか。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ミドリワク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2492,6 +2492,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2501,29 +2504,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="296">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="278">
     <dxf>
       <fill>
         <patternFill>
@@ -4030,6 +4015,21 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4526,146 +4526,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7087,8 +6947,8 @@
   </sheetPr>
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7108,11 +6968,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -7997,7 +7857,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="32" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="29" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -8011,7 +7871,7 @@
         <v>206</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F28" s="5">
         <v>44795</v>
@@ -8029,7 +7889,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="32" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="29" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -8061,7 +7921,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" s="32" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="29" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -8093,7 +7953,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="32" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="29" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -8107,7 +7967,7 @@
         <v>206</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F31" s="5">
         <v>44796</v>
@@ -8125,12 +7985,12 @@
       <c r="K31" s="5"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="32" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="29" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32" s="19">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>14</v>
@@ -8139,7 +7999,7 @@
         <v>206</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F32" s="5">
         <v>44796</v>
@@ -8157,7 +8017,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -8171,7 +8031,7 @@
         <v>206</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F33" s="5">
         <v>44796</v>
@@ -8189,7 +8049,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="32" customFormat="1" ht="315.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="29" customFormat="1" ht="315.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -8198,10 +8058,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="F34" s="5">
         <v>44796</v>
@@ -8219,7 +8079,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="32" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="29" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -8228,10 +8088,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F35" s="5">
         <v>44796</v>
@@ -8249,21 +8109,21 @@
       <c r="K35" s="5"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="32" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="29" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>32</v>
       </c>
       <c r="B36" s="9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F36" s="5">
         <v>44796</v>
@@ -8319,70 +8179,70 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="295" priority="908" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="277" priority="908" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
-    <cfRule type="expression" dxfId="294" priority="906">
+    <cfRule type="expression" dxfId="276" priority="906">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="907">
+    <cfRule type="expression" dxfId="275" priority="907">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="292" priority="421" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="274" priority="421" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22">
-    <cfRule type="expression" dxfId="291" priority="419">
+    <cfRule type="expression" dxfId="273" priority="419">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="420">
+    <cfRule type="expression" dxfId="272" priority="420">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="289" priority="417">
+    <cfRule type="expression" dxfId="271" priority="417">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="418">
+    <cfRule type="expression" dxfId="270" priority="418">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="287" priority="361" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="269" priority="361" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="286" priority="359">
+    <cfRule type="expression" dxfId="268" priority="359">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="360">
+    <cfRule type="expression" dxfId="267" priority="360">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C38">
-    <cfRule type="containsText" dxfId="284" priority="356" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="266" priority="356" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:L38 J25:J27">
-    <cfRule type="expression" dxfId="283" priority="354">
+    <cfRule type="expression" dxfId="265" priority="354">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="355">
+    <cfRule type="expression" dxfId="264" priority="355">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L24 K27:L27">
-    <cfRule type="expression" dxfId="267" priority="338">
+    <cfRule type="expression" dxfId="263" priority="338">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="339">
+    <cfRule type="expression" dxfId="262" priority="339">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8645,808 +8505,808 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
-    <cfRule type="expression" dxfId="1" priority="239">
+    <cfRule type="expression" dxfId="197" priority="239">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="240">
+    <cfRule type="expression" dxfId="196" priority="240">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="197" priority="237">
+    <cfRule type="expression" dxfId="195" priority="237">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="238">
+    <cfRule type="expression" dxfId="194" priority="238">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="195" priority="235">
+    <cfRule type="expression" dxfId="193" priority="235">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="236">
+    <cfRule type="expression" dxfId="192" priority="236">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="193" priority="233">
+    <cfRule type="expression" dxfId="191" priority="233">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="234">
+    <cfRule type="expression" dxfId="190" priority="234">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="191" priority="231">
+    <cfRule type="expression" dxfId="189" priority="231">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="232">
+    <cfRule type="expression" dxfId="188" priority="232">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="189" priority="229">
+    <cfRule type="expression" dxfId="187" priority="229">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="230">
+    <cfRule type="expression" dxfId="186" priority="230">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="187" priority="225">
+    <cfRule type="expression" dxfId="185" priority="225">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="226">
+    <cfRule type="expression" dxfId="184" priority="226">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="185" priority="216" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="183" priority="216" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="184" priority="214">
+    <cfRule type="expression" dxfId="182" priority="214">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="215">
+    <cfRule type="expression" dxfId="181" priority="215">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="182" priority="192">
+    <cfRule type="expression" dxfId="180" priority="192">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="193">
+    <cfRule type="expression" dxfId="179" priority="193">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="180" priority="191" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="179" priority="189">
+    <cfRule type="expression" dxfId="177" priority="189">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="190">
+    <cfRule type="expression" dxfId="176" priority="190">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="177" priority="187">
+    <cfRule type="expression" dxfId="175" priority="187">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="188">
+    <cfRule type="expression" dxfId="174" priority="188">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="175" priority="185">
+    <cfRule type="expression" dxfId="173" priority="185">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="186">
+    <cfRule type="expression" dxfId="172" priority="186">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="173" priority="184" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="171" priority="184" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="172" priority="182">
+    <cfRule type="expression" dxfId="170" priority="182">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="183">
+    <cfRule type="expression" dxfId="169" priority="183">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="170" priority="180">
+    <cfRule type="expression" dxfId="168" priority="180">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="181">
+    <cfRule type="expression" dxfId="167" priority="181">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="168" priority="179" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="166" priority="179" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="167" priority="177">
+    <cfRule type="expression" dxfId="165" priority="177">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="178">
+    <cfRule type="expression" dxfId="164" priority="178">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="165" priority="175">
+    <cfRule type="expression" dxfId="163" priority="175">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="176">
+    <cfRule type="expression" dxfId="162" priority="176">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="163" priority="173">
+    <cfRule type="expression" dxfId="161" priority="173">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="174">
+    <cfRule type="expression" dxfId="160" priority="174">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="161" priority="171">
+    <cfRule type="expression" dxfId="159" priority="171">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="172">
+    <cfRule type="expression" dxfId="158" priority="172">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="159" priority="167">
+    <cfRule type="expression" dxfId="157" priority="167">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="168">
+    <cfRule type="expression" dxfId="156" priority="168">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="157" priority="158">
+    <cfRule type="expression" dxfId="155" priority="158">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="159">
+    <cfRule type="expression" dxfId="154" priority="159">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="155" priority="153">
+    <cfRule type="expression" dxfId="153" priority="153">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="154">
+    <cfRule type="expression" dxfId="152" priority="154">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="153" priority="151">
+    <cfRule type="expression" dxfId="151" priority="151">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="152">
+    <cfRule type="expression" dxfId="150" priority="152">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="151" priority="149">
+    <cfRule type="expression" dxfId="149" priority="149">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="150">
+    <cfRule type="expression" dxfId="148" priority="150">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="149" priority="147">
+    <cfRule type="expression" dxfId="147" priority="147">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="148">
+    <cfRule type="expression" dxfId="146" priority="148">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="147" priority="145">
+    <cfRule type="expression" dxfId="145" priority="145">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="146">
+    <cfRule type="expression" dxfId="144" priority="146">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K20">
-    <cfRule type="expression" dxfId="145" priority="143">
+    <cfRule type="expression" dxfId="143" priority="143">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="144">
+    <cfRule type="expression" dxfId="142" priority="144">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L20">
-    <cfRule type="expression" dxfId="143" priority="141">
+    <cfRule type="expression" dxfId="141" priority="141">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="142">
+    <cfRule type="expression" dxfId="140" priority="142">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="141" priority="139">
+    <cfRule type="expression" dxfId="139" priority="139">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="140">
+    <cfRule type="expression" dxfId="138" priority="140">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="139" priority="137">
+    <cfRule type="expression" dxfId="137" priority="137">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="138">
+    <cfRule type="expression" dxfId="136" priority="138">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="137" priority="135">
+    <cfRule type="expression" dxfId="135" priority="135">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="136">
+    <cfRule type="expression" dxfId="134" priority="136">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="135" priority="133">
+    <cfRule type="expression" dxfId="133" priority="133">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="134">
+    <cfRule type="expression" dxfId="132" priority="134">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="133" priority="131">
+    <cfRule type="expression" dxfId="131" priority="131">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="132">
+    <cfRule type="expression" dxfId="130" priority="132">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="131" priority="129">
+    <cfRule type="expression" dxfId="129" priority="129">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="130">
+    <cfRule type="expression" dxfId="128" priority="130">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:L21">
-    <cfRule type="expression" dxfId="129" priority="127">
+    <cfRule type="expression" dxfId="127" priority="127">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="128">
+    <cfRule type="expression" dxfId="126" priority="128">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24 D23:F23">
-    <cfRule type="expression" dxfId="127" priority="125">
+    <cfRule type="expression" dxfId="125" priority="125">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="126">
+    <cfRule type="expression" dxfId="124" priority="126">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="125" priority="124" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="124" priority="122">
+    <cfRule type="expression" dxfId="122" priority="122">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="123">
+    <cfRule type="expression" dxfId="121" priority="123">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="122" priority="120">
+    <cfRule type="expression" dxfId="120" priority="120">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="121">
+    <cfRule type="expression" dxfId="119" priority="121">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="120" priority="118">
+    <cfRule type="expression" dxfId="118" priority="118">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="119">
+    <cfRule type="expression" dxfId="117" priority="119">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="118" priority="116">
+    <cfRule type="expression" dxfId="116" priority="116">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="117">
+    <cfRule type="expression" dxfId="115" priority="117">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="116" priority="115" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="115" priority="113">
+    <cfRule type="expression" dxfId="113" priority="113">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="114">
+    <cfRule type="expression" dxfId="112" priority="114">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="113" priority="111">
+    <cfRule type="expression" dxfId="111" priority="111">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="112">
+    <cfRule type="expression" dxfId="110" priority="112">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="111" priority="109">
+    <cfRule type="expression" dxfId="109" priority="109">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="110">
+    <cfRule type="expression" dxfId="108" priority="110">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="109" priority="107">
+    <cfRule type="expression" dxfId="107" priority="107">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="108">
+    <cfRule type="expression" dxfId="106" priority="108">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:H27">
-    <cfRule type="expression" dxfId="107" priority="105">
+    <cfRule type="expression" dxfId="105" priority="105">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="106">
+    <cfRule type="expression" dxfId="104" priority="106">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I27">
-    <cfRule type="expression" dxfId="105" priority="103">
+    <cfRule type="expression" dxfId="103" priority="103">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="104">
+    <cfRule type="expression" dxfId="102" priority="104">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="102" priority="100">
+    <cfRule type="expression" dxfId="100" priority="100">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="101">
+    <cfRule type="expression" dxfId="99" priority="101">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="100" priority="98">
+    <cfRule type="expression" dxfId="98" priority="98">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="99">
+    <cfRule type="expression" dxfId="97" priority="99">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="98" priority="96">
+    <cfRule type="expression" dxfId="96" priority="96">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="97">
+    <cfRule type="expression" dxfId="95" priority="97">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="96" priority="94">
+    <cfRule type="expression" dxfId="94" priority="94">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="95">
+    <cfRule type="expression" dxfId="93" priority="95">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="94" priority="92">
+    <cfRule type="expression" dxfId="92" priority="92">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="93">
+    <cfRule type="expression" dxfId="91" priority="93">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="92" priority="90">
+    <cfRule type="expression" dxfId="90" priority="90">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="91">
+    <cfRule type="expression" dxfId="89" priority="91">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="90" priority="88">
+    <cfRule type="expression" dxfId="88" priority="88">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="89">
+    <cfRule type="expression" dxfId="87" priority="89">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="88" priority="86">
+    <cfRule type="expression" dxfId="86" priority="86">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="87">
+    <cfRule type="expression" dxfId="85" priority="87">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J33 J28:L29 E28:E31">
-    <cfRule type="expression" dxfId="86" priority="84">
+    <cfRule type="expression" dxfId="84" priority="84">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="85">
+    <cfRule type="expression" dxfId="83" priority="85">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:L33">
-    <cfRule type="expression" dxfId="84" priority="82">
+    <cfRule type="expression" dxfId="82" priority="82">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="83">
+    <cfRule type="expression" dxfId="81" priority="83">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="82" priority="80">
+    <cfRule type="expression" dxfId="80" priority="80">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="81">
+    <cfRule type="expression" dxfId="79" priority="81">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="79" priority="77">
+    <cfRule type="expression" dxfId="77" priority="77">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="78">
+    <cfRule type="expression" dxfId="76" priority="78">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="77" priority="75">
+    <cfRule type="expression" dxfId="75" priority="75">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="76">
+    <cfRule type="expression" dxfId="74" priority="76">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="75" priority="73">
+    <cfRule type="expression" dxfId="73" priority="73">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="74">
+    <cfRule type="expression" dxfId="72" priority="74">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="73" priority="71">
+    <cfRule type="expression" dxfId="71" priority="71">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="70" priority="72">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="71" priority="69">
+    <cfRule type="expression" dxfId="69" priority="69">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="70">
+    <cfRule type="expression" dxfId="68" priority="70">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="69" priority="68" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="68" priority="66">
+    <cfRule type="expression" dxfId="66" priority="66">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="65" priority="67">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="66" priority="64">
+    <cfRule type="expression" dxfId="64" priority="64">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="65">
+    <cfRule type="expression" dxfId="63" priority="65">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="expression" dxfId="64" priority="62">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="63">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="62" priority="60">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="60" priority="58">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="58" priority="57" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="57" priority="55">
+    <cfRule type="expression" dxfId="55" priority="55">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="55" priority="53">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="51" priority="49">
+    <cfRule type="expression" dxfId="49" priority="49">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="48" priority="50">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="46" priority="44">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="42" priority="42">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B33">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J36 J34:L34 B34:E36">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:L36">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H36">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I36">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9594,80 +9454,80 @@
       </c>
     </row>
     <row r="40" spans="2:73" x14ac:dyDescent="0.4">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-      <c r="AL40" s="31"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="31"/>
-      <c r="AO40" s="31"/>
-      <c r="AP40" s="31"/>
-      <c r="AQ40" s="31"/>
-      <c r="AR40" s="31"/>
-      <c r="AS40" s="31"/>
-      <c r="AT40" s="31"/>
-      <c r="AU40" s="31"/>
-      <c r="AV40" s="31"/>
-      <c r="AW40" s="31"/>
-      <c r="AX40" s="31"/>
-      <c r="AY40" s="31"/>
-      <c r="AZ40" s="31"/>
-      <c r="BA40" s="31"/>
-      <c r="BB40" s="31"/>
-      <c r="BC40" s="31"/>
-      <c r="BD40" s="31"/>
-      <c r="BE40" s="31"/>
-      <c r="BF40" s="31"/>
-      <c r="BG40" s="31"/>
-      <c r="BH40" s="31"/>
-      <c r="BI40" s="31"/>
-      <c r="BJ40" s="31"/>
-      <c r="BK40" s="31"/>
-      <c r="BL40" s="31"/>
-      <c r="BM40" s="31"/>
-      <c r="BN40" s="31"/>
-      <c r="BO40" s="31"/>
-      <c r="BP40" s="31"/>
-      <c r="BQ40" s="31"/>
-      <c r="BR40" s="31"/>
-      <c r="BS40" s="31"/>
-      <c r="BT40" s="31"/>
-      <c r="BU40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="32"/>
+      <c r="AQ40" s="32"/>
+      <c r="AR40" s="32"/>
+      <c r="AS40" s="32"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
+      <c r="AV40" s="32"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="32"/>
+      <c r="AY40" s="32"/>
+      <c r="AZ40" s="32"/>
+      <c r="BA40" s="32"/>
+      <c r="BB40" s="32"/>
+      <c r="BC40" s="32"/>
+      <c r="BD40" s="32"/>
+      <c r="BE40" s="32"/>
+      <c r="BF40" s="32"/>
+      <c r="BG40" s="32"/>
+      <c r="BH40" s="32"/>
+      <c r="BI40" s="32"/>
+      <c r="BJ40" s="32"/>
+      <c r="BK40" s="32"/>
+      <c r="BL40" s="32"/>
+      <c r="BM40" s="32"/>
+      <c r="BN40" s="32"/>
+      <c r="BO40" s="32"/>
+      <c r="BP40" s="32"/>
+      <c r="BQ40" s="32"/>
+      <c r="BR40" s="32"/>
+      <c r="BS40" s="32"/>
+      <c r="BT40" s="32"/>
+      <c r="BU40" s="32"/>
     </row>
     <row r="41" spans="2:73" x14ac:dyDescent="0.4">
       <c r="B41" s="23" t="s">
@@ -10099,12 +9959,12 @@
   <sheetData>
     <row r="3" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -10115,21 +9975,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003442B980DF3C8247A14AC4F4CEC26B16" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="28b866df324f6e72f4ae0767aa81268a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="545b8069-f163-4bb3-9d35-7febfaab5682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44d7a6a8b5cec89910e4d0bef4271b70" ns2:_="">
     <xsd:import namespace="545b8069-f163-4bb3-9d35-7febfaab5682"/>
@@ -10273,24 +10118,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A64E9643-3472-45CF-A1F0-277D254AE09F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10306,4 +10149,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="228">
   <si>
     <t>質疑・課題</t>
     <phoneticPr fontId="1"/>
@@ -2107,6 +2107,171 @@
     </rPh>
     <rPh sb="113" eb="115">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左記の質問内容の通りです。</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実運用上、片側の基準線作成は行わないので考慮する必要は無いです。</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カタガワ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理内容の詳細までは、把握していませんが、何だかの方法で置換しているものと考えています。
+（SC側で調査致します。）</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字を構成している原始文字を検索する目的のものです。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば「TOYO」の「T」とかの文字のスペルを入力します。</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字1文字として、同じ手順で登録します。</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川端様</t>
+    <rPh sb="0" eb="2">
+      <t>カワバタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武市様</t>
+    <rPh sb="0" eb="2">
+      <t>タケイチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2508,7 +2673,52 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="278">
+  <dxfs count="284">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6947,8 +7157,8 @@
   </sheetPr>
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7885,9 +8095,15 @@
       <c r="I28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="9"/>
+      <c r="J28" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="29" spans="1:12" s="29" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
@@ -7917,9 +8133,15 @@
       <c r="I29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="9"/>
+      <c r="J29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="30" spans="1:12" s="29" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
@@ -7949,9 +8171,15 @@
       <c r="I30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="9"/>
+      <c r="J30" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="31" spans="1:12" s="29" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
@@ -7981,9 +8209,15 @@
       <c r="I31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="9"/>
+      <c r="J31" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="32" spans="1:12" s="29" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
@@ -8013,9 +8247,15 @@
       <c r="I32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="9"/>
+      <c r="J32" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="33" spans="1:12" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
@@ -8045,9 +8285,15 @@
       <c r="I33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="9"/>
+      <c r="J33" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K33" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="34" spans="1:12" s="29" customFormat="1" ht="315.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
@@ -8179,98 +8425,122 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="277" priority="908" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="283" priority="914" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
-    <cfRule type="expression" dxfId="276" priority="906">
+    <cfRule type="expression" dxfId="282" priority="912">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="907">
+    <cfRule type="expression" dxfId="281" priority="913">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="274" priority="421" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="280" priority="427" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22">
-    <cfRule type="expression" dxfId="273" priority="419">
+    <cfRule type="expression" dxfId="279" priority="425">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="420">
+    <cfRule type="expression" dxfId="278" priority="426">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="271" priority="417">
+    <cfRule type="expression" dxfId="277" priority="423">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="418">
+    <cfRule type="expression" dxfId="276" priority="424">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="269" priority="361" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="275" priority="367" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="268" priority="359">
+    <cfRule type="expression" dxfId="274" priority="365">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="360">
+    <cfRule type="expression" dxfId="273" priority="366">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C38">
-    <cfRule type="containsText" dxfId="266" priority="356" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="272" priority="362" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:L38 J25:J27">
-    <cfRule type="expression" dxfId="265" priority="354">
+    <cfRule type="expression" dxfId="271" priority="360">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="355">
+    <cfRule type="expression" dxfId="270" priority="361">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L24 K27:L27">
-    <cfRule type="expression" dxfId="263" priority="338">
+    <cfRule type="expression" dxfId="269" priority="344">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="339">
+    <cfRule type="expression" dxfId="268" priority="345">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="267" priority="338">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="339">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="265" priority="336">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="337">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="263" priority="334">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="335">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="expression" dxfId="261" priority="332">
-      <formula>$I6="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="260" priority="333">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="259" priority="330">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="259" priority="324">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="325">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="257" priority="328">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="331">
+    <cfRule type="expression" dxfId="256" priority="329">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="257" priority="328">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="329">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="B7:B9">
     <cfRule type="expression" dxfId="255" priority="326">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -8278,164 +8548,164 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="253" priority="318">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="319">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="251" priority="322">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="323">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="249" priority="320">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="321">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="247" priority="316">
+    <cfRule type="expression" dxfId="253" priority="322">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="317">
+    <cfRule type="expression" dxfId="252" priority="323">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="245" priority="314">
+    <cfRule type="expression" dxfId="251" priority="320">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="315">
+    <cfRule type="expression" dxfId="250" priority="321">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="243" priority="312">
+    <cfRule type="expression" dxfId="249" priority="318">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="313">
+    <cfRule type="expression" dxfId="248" priority="319">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="241" priority="308">
+    <cfRule type="expression" dxfId="247" priority="314">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="309">
+    <cfRule type="expression" dxfId="246" priority="315">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="239" priority="306">
+    <cfRule type="expression" dxfId="245" priority="312">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="307">
+    <cfRule type="expression" dxfId="244" priority="313">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="237" priority="304">
+    <cfRule type="expression" dxfId="243" priority="310">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="305">
+    <cfRule type="expression" dxfId="242" priority="311">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="235" priority="273">
+    <cfRule type="expression" dxfId="241" priority="279">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="274">
+    <cfRule type="expression" dxfId="240" priority="280">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="233" priority="302">
+    <cfRule type="expression" dxfId="239" priority="308">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="303">
+    <cfRule type="expression" dxfId="238" priority="309">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="231" priority="299">
+    <cfRule type="expression" dxfId="237" priority="305">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="300">
+    <cfRule type="expression" dxfId="236" priority="306">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="229" priority="297">
+    <cfRule type="expression" dxfId="235" priority="303">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="298">
+    <cfRule type="expression" dxfId="234" priority="304">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="227" priority="293">
+    <cfRule type="expression" dxfId="233" priority="299">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="294">
+    <cfRule type="expression" dxfId="232" priority="300">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="225" priority="291">
+    <cfRule type="expression" dxfId="231" priority="297">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="292">
+    <cfRule type="expression" dxfId="230" priority="298">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="223" priority="289">
+    <cfRule type="expression" dxfId="229" priority="295">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="290">
+    <cfRule type="expression" dxfId="228" priority="296">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="221" priority="277">
+    <cfRule type="expression" dxfId="227" priority="283">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="278">
+    <cfRule type="expression" dxfId="226" priority="284">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="219" priority="275">
+    <cfRule type="expression" dxfId="225" priority="281">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="276">
+    <cfRule type="expression" dxfId="224" priority="282">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="217" priority="259">
+    <cfRule type="expression" dxfId="223" priority="265">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="260">
+    <cfRule type="expression" dxfId="222" priority="266">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="215" priority="258" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="221" priority="264" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="220" priority="262">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="263">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="218" priority="260">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="261">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="216" priority="258">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="259">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
     <cfRule type="expression" dxfId="214" priority="256">
       <formula>$I12="確認中"</formula>
     </cfRule>
@@ -8443,304 +8713,304 @@
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="212" priority="254">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="212" priority="250">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="255">
+    <cfRule type="expression" dxfId="211" priority="251">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="210" priority="252">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="210" priority="254">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="253">
+    <cfRule type="expression" dxfId="209" priority="255">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="208" priority="250">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="208" priority="252">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="251">
+    <cfRule type="expression" dxfId="207" priority="253">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="206" priority="244">
+  <conditionalFormatting sqref="L12">
+    <cfRule type="expression" dxfId="206" priority="248">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="245">
+    <cfRule type="expression" dxfId="205" priority="249">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="204" priority="248">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="249">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="204" priority="247" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
+    <cfRule type="expression" dxfId="203" priority="245">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="202" priority="246">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="247">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="200" priority="242">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="243">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="198" priority="241" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="201" priority="243">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="244">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="199" priority="241">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="242">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="expression" dxfId="197" priority="239">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="240">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="195" priority="237">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="238">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="193" priority="235">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="236">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="191" priority="231">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="232">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="189" priority="222" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="188" priority="220">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="221">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22 D21:F22">
+    <cfRule type="expression" dxfId="186" priority="198">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="199">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="containsText" dxfId="184" priority="197" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="183" priority="195">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="196">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
+    <cfRule type="expression" dxfId="181" priority="193">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="194">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="179" priority="191">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="192">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="177" priority="190" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="176" priority="188">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="189">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="174" priority="186">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="187">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="172" priority="185" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="expression" dxfId="171" priority="183">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="184">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:H17 H18:H20">
+    <cfRule type="expression" dxfId="169" priority="181">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="182">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="expression" dxfId="167" priority="179">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="180">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="165" priority="177">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="178">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 D18:F18">
+    <cfRule type="expression" dxfId="163" priority="173">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="174">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20 D19:F20">
+    <cfRule type="expression" dxfId="161" priority="164">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="165">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="159" priority="159">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="160">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="157" priority="157">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="158">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="expression" dxfId="155" priority="155">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="240">
+    <cfRule type="expression" dxfId="154" priority="156">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="195" priority="237">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="238">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="193" priority="235">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="236">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="191" priority="233">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="153" priority="153">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="154">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="151" priority="151">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="152">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K20">
+    <cfRule type="expression" dxfId="149" priority="149">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="150">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L20">
+    <cfRule type="expression" dxfId="147" priority="147">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="148">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="145" priority="145">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="146">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="143" priority="143">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="234">
+    <cfRule type="expression" dxfId="142" priority="144">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="189" priority="231">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="232">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="187" priority="229">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="230">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="185" priority="225">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="226">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="183" priority="216" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="182" priority="214">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="215">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="180" priority="192">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="193">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="177" priority="189">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="190">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="175" priority="187">
+  <conditionalFormatting sqref="L16">
+    <cfRule type="expression" dxfId="141" priority="141">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="188">
+    <cfRule type="expression" dxfId="140" priority="142">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="173" priority="185">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="186">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="171" priority="184" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="170" priority="182">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="183">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="168" priority="180">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="181">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="166" priority="179" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="165" priority="177">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="178">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="163" priority="175">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="176">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="161" priority="173">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="174">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="159" priority="171">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="172">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="157" priority="167">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="168">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="155" priority="158">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="159">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="153" priority="153">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="154">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="151" priority="151">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="152">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="149" priority="149">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="150">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="147" priority="147">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="148">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="145" priority="145">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="146">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K20">
-    <cfRule type="expression" dxfId="143" priority="143">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="144">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L20">
-    <cfRule type="expression" dxfId="141" priority="141">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="142">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
+  <conditionalFormatting sqref="L17">
     <cfRule type="expression" dxfId="139" priority="139">
       <formula>$I17="確認中"</formula>
     </cfRule>
@@ -8748,105 +9018,105 @@
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="K22">
     <cfRule type="expression" dxfId="137" priority="137">
-      <formula>$I14="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="136" priority="138">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
     <cfRule type="expression" dxfId="135" priority="135">
-      <formula>$I16="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="134" priority="136">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:L21">
     <cfRule type="expression" dxfId="133" priority="133">
-      <formula>$I17="確認中"</formula>
+      <formula>$I21="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="132" priority="134">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 D23:F23">
     <cfRule type="expression" dxfId="131" priority="131">
-      <formula>$I22="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="130" priority="132">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="129" priority="129">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="130">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:L21">
-    <cfRule type="expression" dxfId="127" priority="127">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="128">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24 D23:F23">
-    <cfRule type="expression" dxfId="125" priority="125">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="129" priority="130" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="128" priority="128">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="126">
+    <cfRule type="expression" dxfId="127" priority="129">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="126" priority="126">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="127">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="124" priority="124">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="125">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="122" priority="122">
-      <formula>$I23="確認中"</formula>
+      <formula>$I24="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="121" priority="123">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="120" priority="120">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="121">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="118" priority="118">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="119">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="116" priority="116">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="120" priority="121" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="119" priority="119">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="117">
+    <cfRule type="expression" dxfId="118" priority="120">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="B24:B27">
+    <cfRule type="expression" dxfId="117" priority="117">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="118">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="115" priority="115">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="116">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
     <cfRule type="expression" dxfId="113" priority="113">
       <formula>$I24="確認中"</formula>
     </cfRule>
@@ -8854,52 +9124,52 @@
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B27">
+  <conditionalFormatting sqref="D25:H27">
     <cfRule type="expression" dxfId="111" priority="111">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="112">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I27">
+    <cfRule type="expression" dxfId="109" priority="109">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="110">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="106" priority="106">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="107">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="104" priority="104">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="105">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="102" priority="102">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="112">
+    <cfRule type="expression" dxfId="101" priority="103">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="109" priority="109">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="110">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="107" priority="107">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="108">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:H27">
-    <cfRule type="expression" dxfId="105" priority="105">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="106">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I27">
-    <cfRule type="expression" dxfId="103" priority="103">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="104">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
+  <conditionalFormatting sqref="L25">
     <cfRule type="expression" dxfId="100" priority="100">
       <formula>$I25="確認中"</formula>
     </cfRule>
@@ -8907,92 +9177,84 @@
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="K25">
     <cfRule type="expression" dxfId="98" priority="98">
-      <formula>$I23="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="97" priority="99">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
     <cfRule type="expression" dxfId="96" priority="96">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="97">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="expression" dxfId="94" priority="94">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="95">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="expression" dxfId="92" priority="92">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="97">
+    <cfRule type="expression" dxfId="91" priority="93">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="94" priority="94">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="95">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="92" priority="92">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="93">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="J28:L28 E28:E31 J29:J33">
     <cfRule type="expression" dxfId="90" priority="90">
-      <formula>$I26="確認中"</formula>
+      <formula>$I28="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="89" priority="91">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="88" priority="88">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="89">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="86" priority="86">
-      <formula>$I24="確認中"</formula>
+      <formula>$I28="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="85" priority="87">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J33 J28:L29 E28:E31">
-    <cfRule type="expression" dxfId="84" priority="84">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="83" priority="83">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="82" priority="84">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:L33">
-    <cfRule type="expression" dxfId="82" priority="82">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="83">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="80" priority="80">
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="81" priority="81">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="81">
+    <cfRule type="expression" dxfId="80" priority="82">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="G28:H28">
+    <cfRule type="expression" dxfId="79" priority="79">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="80">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
     <cfRule type="expression" dxfId="77" priority="77">
       <formula>$I28="確認中"</formula>
     </cfRule>
@@ -9000,44 +9262,44 @@
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="75" priority="75">
-      <formula>$I28="確認中"</formula>
+      <formula>$I29="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="74" priority="76">
-      <formula>$I28="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="73" priority="73">
-      <formula>$I28="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="74">
-      <formula>$I28="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="71" priority="71">
-      <formula>$I28="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="72">
-      <formula>$I28="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="69" priority="69">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="72" priority="72">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70">
+    <cfRule type="expression" dxfId="71" priority="73">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="70" priority="70">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="71">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="expression" dxfId="68" priority="68">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="69">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="expression" dxfId="66" priority="66">
       <formula>$I29="確認中"</formula>
     </cfRule>
@@ -9045,44 +9307,44 @@
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="64" priority="64">
-      <formula>$I29="確認中"</formula>
+      <formula>$I30="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="63" priority="65">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
-    <cfRule type="expression" dxfId="62" priority="62">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="63">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="60" priority="60">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="58" priority="58">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="61" priority="61">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="59">
+    <cfRule type="expression" dxfId="60" priority="62">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="expression" dxfId="59" priority="59">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="60">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:H30">
+    <cfRule type="expression" dxfId="57" priority="57">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="58">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="expression" dxfId="55" priority="55">
       <formula>$I30="確認中"</formula>
     </cfRule>
@@ -9090,44 +9352,44 @@
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="53" priority="53">
-      <formula>$I30="確認中"</formula>
+      <formula>$I31="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="54">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="expression" dxfId="51" priority="51">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="49" priority="49">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="47" priority="47">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="F31">
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:H31">
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="47">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="expression" dxfId="44" priority="44">
       <formula>$I31="確認中"</formula>
     </cfRule>
@@ -9135,73 +9397,73 @@
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="42" priority="42">
-      <formula>$I31="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="43">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H31">
-    <cfRule type="expression" dxfId="40" priority="40">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="38" priority="38">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="39" priority="39">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="38" priority="40">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="33" priority="33">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="37" priority="37">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="35" priority="35">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
     <cfRule type="expression" dxfId="26" priority="26">
       <formula>$I32="確認中"</formula>
     </cfRule>
@@ -9209,31 +9471,31 @@
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="F33">
     <cfRule type="expression" dxfId="24" priority="24">
-      <formula>$I32="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:H33">
     <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$I32="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
     <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$I32="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="18" priority="18">
       <formula>$I33="確認中"</formula>
     </cfRule>
@@ -9241,44 +9503,44 @@
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33">
+  <conditionalFormatting sqref="B28:B33">
     <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I33="確認中"</formula>
+      <formula>$I28="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B33">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>$I28="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J36 J34:L34 B34:E36">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:L36">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:H36">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I36">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>$I34="確認中"</formula>
     </cfRule>
@@ -9286,28 +9548,28 @@
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:L36">
+  <conditionalFormatting sqref="K29:K31">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I35="確認中"</formula>
+      <formula>$I29="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I35="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H36">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K33">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I34="確認中"</formula>
+      <formula>$I32="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I36">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:L33">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I34="確認中"</formula>
+      <formula>$I29="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I34="済み"</formula>
+      <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -9975,6 +10237,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003442B980DF3C8247A14AC4F4CEC26B16" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="28b866df324f6e72f4ae0767aa81268a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="545b8069-f163-4bb3-9d35-7febfaab5682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44d7a6a8b5cec89910e4d0bef4271b70" ns2:_="">
     <xsd:import namespace="545b8069-f163-4bb3-9d35-7febfaab5682"/>
@@ -10118,22 +10395,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A64E9643-3472-45CF-A1F0-277D254AE09F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10149,21 +10428,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="240">
   <si>
     <t>質疑・課題</t>
     <phoneticPr fontId="1"/>
@@ -2272,6 +2272,199 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田様</t>
+    <rPh sb="0" eb="3">
+      <t>ワダサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Platformマークが存在しない図面もあります。</t>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細化機能が正常終了すれば、作成されます。</t>
+    <rPh sb="0" eb="3">
+      <t>ショウサイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>セイジョウシュウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田様</t>
+    <rPh sb="0" eb="3">
+      <t>ワダサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド「Check Old Char.」は移行不要という認識で問題ないでしょうか。</t>
+    <rPh sb="22" eb="26">
+      <t>イコウフヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題ないです。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい、すべて入力しなくても動きます。</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい、合っています。</t>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認】
+「SafetyWarning」のダイアログはすべて入力しなくても良いでしょうか。</t>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認】
+C表図面登録時にDBに初期値を設定してくださいというエラーが出たのですが、「seiri_no_kanri」テーブルに「BK」と番号を設定しておくという認識で合っていますか。</t>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ズメントウロクジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【データ確認／依頼】
+現在ご提供頂いている図面「AT-B図面「AT-B-14313-00.MDL」にPlatformマークが存在しないため、雪マークと矢印マークの存在する図面をそれぞれご提供頂くことは可能でしょうか。
+ソースコード上では雪マークと矢印マークで挙動が少し異なっているようなので、どちらの図面も頂けますと幸いに存じます。</t>
+    <rPh sb="11" eb="13">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>テイキョウイタダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>サイワ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2673,7 +2866,52 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="284">
+  <dxfs count="288">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3326,21 +3564,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7155,10 +7378,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:L38"/>
+  <dimension ref="A3:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8093,7 +8316,7 @@
         <v>18</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>220</v>
@@ -8131,7 +8354,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>221</v>
@@ -8169,7 +8392,7 @@
         <v>18</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>222</v>
@@ -8207,7 +8430,7 @@
         <v>18</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>223</v>
@@ -8245,7 +8468,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>224</v>
@@ -8283,7 +8506,7 @@
         <v>18</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>225</v>
@@ -8319,11 +8542,17 @@
         <v>18</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="35" spans="1:12" s="29" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
@@ -8349,11 +8578,17 @@
         <v>18</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K35" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="36" spans="1:12" s="29" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
@@ -8381,11 +8616,17 @@
         <v>18</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
@@ -8403,325 +8644,519 @@
       <c r="K37" s="5"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="9"/>
+      <c r="B38" s="9">
+        <v>31</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="5">
+        <v>44797</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>35</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" s="5">
+        <v>44797</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F40" s="5">
+        <v>44797</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K40" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>37</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="5">
+        <v>44797</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" s="5">
+        <v>44797</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C39:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="283" priority="914" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C45:C1048576 C10:C11">
+    <cfRule type="containsText" dxfId="287" priority="920" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A39:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
-    <cfRule type="expression" dxfId="282" priority="912">
+  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A45:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
+    <cfRule type="expression" dxfId="286" priority="918">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="913">
+    <cfRule type="expression" dxfId="285" priority="919">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="280" priority="427" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="284" priority="433" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22">
-    <cfRule type="expression" dxfId="279" priority="425">
+    <cfRule type="expression" dxfId="283" priority="431">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="426">
+    <cfRule type="expression" dxfId="282" priority="432">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="277" priority="423">
+    <cfRule type="expression" dxfId="281" priority="429">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="424">
+    <cfRule type="expression" dxfId="280" priority="430">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="275" priority="367" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="279" priority="373" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="274" priority="365">
+    <cfRule type="expression" dxfId="278" priority="371">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="366">
+    <cfRule type="expression" dxfId="277" priority="372">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C38">
-    <cfRule type="containsText" dxfId="272" priority="362" operator="containsText" text="高">
+  <conditionalFormatting sqref="C37:C44">
+    <cfRule type="containsText" dxfId="276" priority="368" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:L38 J25:J27">
-    <cfRule type="expression" dxfId="271" priority="360">
+  <conditionalFormatting sqref="J25:J27 B37:L37 B42:L44 L38:L41 B38:C41 E38:J41">
+    <cfRule type="expression" dxfId="275" priority="366">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="361">
+    <cfRule type="expression" dxfId="274" priority="367">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L24 K27:L27">
-    <cfRule type="expression" dxfId="269" priority="344">
+    <cfRule type="expression" dxfId="273" priority="350">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="345">
+    <cfRule type="expression" dxfId="272" priority="351">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="267" priority="338">
+    <cfRule type="expression" dxfId="271" priority="344">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="339">
+    <cfRule type="expression" dxfId="270" priority="345">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="265" priority="336">
+    <cfRule type="expression" dxfId="269" priority="342">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="337">
+    <cfRule type="expression" dxfId="268" priority="343">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="263" priority="334">
+    <cfRule type="expression" dxfId="267" priority="340">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="335">
+    <cfRule type="expression" dxfId="266" priority="341">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="261" priority="332">
+    <cfRule type="expression" dxfId="265" priority="338">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="333">
+    <cfRule type="expression" dxfId="264" priority="339">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="259" priority="324">
+    <cfRule type="expression" dxfId="263" priority="330">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="325">
+    <cfRule type="expression" dxfId="262" priority="331">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="261" priority="334">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="335">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B9">
+    <cfRule type="expression" dxfId="259" priority="332">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="333">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
     <cfRule type="expression" dxfId="257" priority="328">
-      <formula>$I7="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="256" priority="329">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B9">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="expression" dxfId="255" priority="326">
-      <formula>$I7="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="254" priority="327">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="253" priority="322">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="253" priority="324">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="323">
+    <cfRule type="expression" dxfId="252" priority="325">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="I9">
     <cfRule type="expression" dxfId="251" priority="320">
-      <formula>$I8="確認中"</formula>
+      <formula>$I9="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="250" priority="321">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
     <cfRule type="expression" dxfId="249" priority="318">
-      <formula>$I8="確認中"</formula>
+      <formula>$I9="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="248" priority="319">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="247" priority="314">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="247" priority="316">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="315">
+    <cfRule type="expression" dxfId="246" priority="317">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="245" priority="312">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="245" priority="285">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="286">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:E11">
+    <cfRule type="expression" dxfId="243" priority="314">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="315">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="241" priority="311">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="312">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="239" priority="309">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="313">
+    <cfRule type="expression" dxfId="238" priority="310">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="243" priority="310">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="311">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="241" priority="279">
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="237" priority="305">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="306">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="235" priority="303">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="304">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="233" priority="301">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="302">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="231" priority="289">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="280">
+    <cfRule type="expression" dxfId="230" priority="290">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="239" priority="308">
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="229" priority="287">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="309">
+    <cfRule type="expression" dxfId="228" priority="288">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="237" priority="305">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="306">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="235" priority="303">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="304">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="233" priority="299">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="300">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="231" priority="297">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="298">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="229" priority="295">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="296">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="227" priority="283">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="284">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="225" priority="281">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="282">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="223" priority="265">
+    <cfRule type="expression" dxfId="227" priority="271">
       <formula>$I12="確認中"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="226" priority="272">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="225" priority="270" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="224" priority="268">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="269">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
     <cfRule type="expression" dxfId="222" priority="266">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="267">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="221" priority="264" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="220" priority="262">
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="220" priority="264">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="263">
+    <cfRule type="expression" dxfId="219" priority="265">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="218" priority="260">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="218" priority="262">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="261">
+    <cfRule type="expression" dxfId="217" priority="263">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="216" priority="258">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="216" priority="256">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="259">
+    <cfRule type="expression" dxfId="215" priority="257">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="214" priority="256">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="214" priority="260">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="257">
+    <cfRule type="expression" dxfId="213" priority="261">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="212" priority="250">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="212" priority="258">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="251">
+    <cfRule type="expression" dxfId="211" priority="259">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="L12">
     <cfRule type="expression" dxfId="210" priority="254">
       <formula>$I12="確認中"</formula>
     </cfRule>
@@ -8729,508 +9164,516 @@
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="208" priority="252">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="253">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="206" priority="248">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="208" priority="253" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A44">
+    <cfRule type="expression" dxfId="207" priority="251">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="252">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="expression" dxfId="205" priority="249">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="204" priority="247" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A38">
-    <cfRule type="expression" dxfId="203" priority="245">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="246">
+    <cfRule type="expression" dxfId="204" priority="250">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="201" priority="243">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="203" priority="247">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="244">
+    <cfRule type="expression" dxfId="202" priority="248">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="199" priority="241">
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="201" priority="245">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="246">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="199" priority="243">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="244">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="197" priority="241">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="242">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="195" priority="237">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="238">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="193" priority="228" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="192" priority="226">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="227">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22 D21:F22">
+    <cfRule type="expression" dxfId="190" priority="204">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="205">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="containsText" dxfId="188" priority="203" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="187" priority="201">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="202">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
+    <cfRule type="expression" dxfId="185" priority="199">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="200">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="183" priority="197">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="198">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="181" priority="196" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="180" priority="194">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="195">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="178" priority="192">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="193">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="176" priority="191" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="expression" dxfId="175" priority="189">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="190">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:H17 H18:H20">
+    <cfRule type="expression" dxfId="173" priority="187">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="188">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="expression" dxfId="171" priority="185">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="186">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="169" priority="183">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="184">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 D18:F18">
+    <cfRule type="expression" dxfId="167" priority="179">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="180">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20 D19:F20">
+    <cfRule type="expression" dxfId="165" priority="170">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="171">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="163" priority="165">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="166">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="161" priority="163">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="164">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="expression" dxfId="159" priority="161">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="242">
+    <cfRule type="expression" dxfId="158" priority="162">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="197" priority="239">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="157" priority="159">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="160">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="155" priority="157">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="158">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K20">
+    <cfRule type="expression" dxfId="153" priority="155">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="156">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L20">
+    <cfRule type="expression" dxfId="151" priority="153">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="154">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="149" priority="151">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="152">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="147" priority="149">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="240">
+    <cfRule type="expression" dxfId="146" priority="150">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="195" priority="237">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="238">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="193" priority="235">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="236">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="191" priority="231">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="232">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="189" priority="222" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="188" priority="220">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="221">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="186" priority="198">
+  <conditionalFormatting sqref="L16">
+    <cfRule type="expression" dxfId="145" priority="147">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="148">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="expression" dxfId="143" priority="145">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="146">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="141" priority="143">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="144">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="expression" dxfId="139" priority="141">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="142">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:L21">
+    <cfRule type="expression" dxfId="137" priority="139">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="199">
+    <cfRule type="expression" dxfId="136" priority="140">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="184" priority="197" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="183" priority="195">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="196">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="181" priority="193">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="194">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="179" priority="191">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="192">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="177" priority="190" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="176" priority="188">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="189">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="174" priority="186">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="187">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="172" priority="185" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="171" priority="183">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="184">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="169" priority="181">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="182">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="167" priority="179">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="180">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="165" priority="177">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="178">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="163" priority="173">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="174">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="161" priority="164">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="165">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="159" priority="159">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="160">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="157" priority="157">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="158">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="155" priority="155">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="156">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="153" priority="153">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="154">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="151" priority="151">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="152">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K20">
-    <cfRule type="expression" dxfId="149" priority="149">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="150">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L20">
-    <cfRule type="expression" dxfId="147" priority="147">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="148">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="145" priority="145">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="146">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="143" priority="143">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="144">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="141" priority="141">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="142">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="139" priority="139">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="140">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="137" priority="137">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="138">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="135" priority="135">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="136">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:L21">
-    <cfRule type="expression" dxfId="133" priority="133">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E24 D23:F23">
+    <cfRule type="expression" dxfId="135" priority="137">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="138">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
     <cfRule type="expression" dxfId="132" priority="134">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24 D23:F23">
-    <cfRule type="expression" dxfId="131" priority="131">
       <formula>$I23="確認中"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="131" priority="135">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
     <cfRule type="expression" dxfId="130" priority="132">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="133">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="129" priority="130" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="128" priority="128">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="128" priority="130">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="129">
+    <cfRule type="expression" dxfId="127" priority="131">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="126" priority="126">
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="126" priority="128">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="129">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="123" priority="125">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="126">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B27">
+    <cfRule type="expression" dxfId="121" priority="123">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="124">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="119" priority="121">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="122">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="expression" dxfId="117" priority="119">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="120">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H27">
+    <cfRule type="expression" dxfId="115" priority="117">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="118">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I27">
+    <cfRule type="expression" dxfId="113" priority="115">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="116">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="110" priority="112">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="113">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="108" priority="110">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="127">
+    <cfRule type="expression" dxfId="107" priority="111">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="124" priority="124">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="125">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="122" priority="122">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="106" priority="108">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="123">
+    <cfRule type="expression" dxfId="105" priority="109">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="120" priority="121" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="119" priority="119">
+  <conditionalFormatting sqref="L25">
+    <cfRule type="expression" dxfId="104" priority="106">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="107">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="expression" dxfId="102" priority="104">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="105">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="expression" dxfId="100" priority="102">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="103">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="expression" dxfId="98" priority="100">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="101">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="expression" dxfId="96" priority="98">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="120">
+    <cfRule type="expression" dxfId="95" priority="99">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="117" priority="117">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="118">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="115" priority="115">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="116">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="113" priority="113">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="114">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:H27">
-    <cfRule type="expression" dxfId="111" priority="111">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="112">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I27">
-    <cfRule type="expression" dxfId="109" priority="109">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="110">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="106" priority="106">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="107">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="104" priority="104">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="105">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="102" priority="102">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="103">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="100" priority="100">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="101">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="98" priority="98">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="99">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="96" priority="96">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="97">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="94" priority="94">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="95">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+  <conditionalFormatting sqref="J28:L28 E28:E31 J29:J33">
+    <cfRule type="expression" dxfId="94" priority="96">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="97">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="92" priority="92">
-      <formula>$I24="確認中"</formula>
+      <formula>$I28="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="91" priority="93">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L28 E28:E31 J29:J33">
-    <cfRule type="expression" dxfId="90" priority="90">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="89" priority="89">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="91">
+    <cfRule type="expression" dxfId="88" priority="90">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="86" priority="86">
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="87" priority="87">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="87">
+    <cfRule type="expression" dxfId="86" priority="88">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="G28:H28">
+    <cfRule type="expression" dxfId="85" priority="85">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="86">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
     <cfRule type="expression" dxfId="83" priority="83">
       <formula>$I28="確認中"</formula>
     </cfRule>
@@ -9238,44 +9681,44 @@
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="81" priority="81">
-      <formula>$I28="確認中"</formula>
+      <formula>$I29="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="80" priority="82">
-      <formula>$I28="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="79" priority="79">
-      <formula>$I28="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="80">
-      <formula>$I28="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="77" priority="77">
-      <formula>$I28="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="78">
-      <formula>$I28="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="75" priority="75">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="78" priority="78">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="76">
+    <cfRule type="expression" dxfId="77" priority="79">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="76" priority="76">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="77">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="expression" dxfId="74" priority="74">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="75">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I36">
     <cfRule type="expression" dxfId="72" priority="72">
       <formula>$I29="確認中"</formula>
     </cfRule>
@@ -9283,195 +9726,163 @@
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="expression" dxfId="70" priority="70">
-      <formula>$I29="確認中"</formula>
+      <formula>$I30="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="69" priority="71">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
-    <cfRule type="expression" dxfId="68" priority="68">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="66" priority="66">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="67">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="64" priority="64">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="67" priority="67">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="65">
+    <cfRule type="expression" dxfId="66" priority="68">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="61" priority="61">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="expression" dxfId="65" priority="65">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="64" priority="66">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="G30:H30">
+    <cfRule type="expression" dxfId="63" priority="63">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="64">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="59" priority="59">
-      <formula>$I30="確認中"</formula>
+      <formula>$I31="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="60">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="expression" dxfId="57" priority="57">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="55" priority="55">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="53" priority="53">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="50" priority="50">
+  <conditionalFormatting sqref="F31">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="G31:H31">
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="53">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="48" priority="48">
-      <formula>$I31="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="47" priority="49">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H31">
-    <cfRule type="expression" dxfId="46" priority="46">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="42" priority="42">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="45" priority="45">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="39" priority="39">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="35">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="37" priority="37">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="35" priority="35">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="33">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32">
+  <conditionalFormatting sqref="G33:H33">
     <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$I32="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="26" priority="26">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="24" priority="24">
       <formula>$I33="確認中"</formula>
     </cfRule>
@@ -9479,107 +9890,91 @@
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33">
+  <conditionalFormatting sqref="B28:B33">
     <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$I33="確認中"</formula>
+      <formula>$I28="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B33">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I28="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J36 J34:L34 B34:E36">
-    <cfRule type="expression" dxfId="13" priority="13">
+  <conditionalFormatting sqref="J34:J36 B34:E36 L34:L36">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:L36">
+  <conditionalFormatting sqref="F34:H36">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K31">
     <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$I35="確認中"</formula>
+      <formula>$I29="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$I35="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H36">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K33">
     <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:L33">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K36">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I36">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I34="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K31">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K33">
+  <conditionalFormatting sqref="K38:K41">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I32="確認中"</formula>
+      <formula>$I38="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:L33">
+      <formula>$I38="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I29="確認中"</formula>
+      <formula>$I38="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I29="済み"</formula>
+      <formula>$I38="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C44">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I44">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H44">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10246,12 +10641,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003442B980DF3C8247A14AC4F4CEC26B16" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="28b866df324f6e72f4ae0767aa81268a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="545b8069-f163-4bb3-9d35-7febfaab5682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44d7a6a8b5cec89910e4d0bef4271b70" ns2:_="">
     <xsd:import namespace="545b8069-f163-4bb3-9d35-7febfaab5682"/>
@@ -10395,6 +10784,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
   <ds:schemaRefs>
@@ -10404,15 +10799,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A64E9643-3472-45CF-A1F0-277D254AE09F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10428,4 +10814,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,12 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="質疑表" sheetId="24" r:id="rId1"/>
-    <sheet name="No6、No7" sheetId="25" r:id="rId2"/>
-    <sheet name="No.18　バルーンについて" sheetId="26" r:id="rId3"/>
-    <sheet name="No19" sheetId="27" r:id="rId4"/>
-    <sheet name="No24" sheetId="28" r:id="rId5"/>
-    <sheet name="No27" sheetId="29" r:id="rId6"/>
-    <sheet name="「SafetyWarning」のダイアログ" sheetId="30" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="31" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId3"/>
+    <sheet name="No6、No7" sheetId="25" r:id="rId4"/>
+    <sheet name="No.18　バルーンについて" sheetId="26" r:id="rId5"/>
+    <sheet name="No19" sheetId="27" r:id="rId6"/>
+    <sheet name="No24" sheetId="28" r:id="rId7"/>
+    <sheet name="No27" sheetId="29" r:id="rId8"/>
+    <sheet name="「SafetyWarning」のダイアログ" sheetId="30" r:id="rId9"/>
+    <sheet name="No41" sheetId="33" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="256">
   <si>
     <t>質疑・課題</t>
     <phoneticPr fontId="1"/>
@@ -293,35 +296,6 @@
   </si>
   <si>
     <t>対応中</t>
-  </si>
-  <si>
-    <t>DBの仕様書（テーブル構成等）
-→調査中
-まずは円弧配列
-SQLサーバーのテーブル構成出力（SCからご連絡）
-使用バージョンはSQLサーバー2008</t>
-    <rPh sb="17" eb="20">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>エンコ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>以前前任者が対応していたときにメニューの英語化を行ったようなのですが、
@@ -2468,12 +2442,337 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>①円弧配列</t>
+    <rPh sb="1" eb="5">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33、17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂いた受領データに関して追加でデータを頂きたいです。
+必要なデータに関しては現在取りまとめ中ですので、まとめ次第展開させていただきます。
+必要なデータの概要としては「Template1」、「Template3」はBMP画像（文字番号.bmp）と一部の図面。
+「Template2」は図面のみ。
+参照：「テンプレート機能に必要なデータ」シート（取りまとめ中）</t>
+    <rPh sb="0" eb="1">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="113" eb="117">
+      <t>モジバンゴウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレート機能の確認中に新たにDBを使用していることが判明したので、再びご提供頂くことは可能でしょうか。
+必要なDBに関しては別途DB名、テーブル名等を纏めて展開させていただきます。</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カクニンチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥C表作成の「Frame Data」コマンド（③ 図面枠データの生成）内で使用している「B_DRAW」のようにAdvanceCADの標準コマンドの頭に「B_」と付いているものがありますが、メニューの英語化などにあたり、名前だけ変更して登録しているものでしょうか。
+また、標準コマンドの機能に改修を加えたものでしょうか。</t>
+    <rPh sb="2" eb="5">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>エイゴカ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①_円弧配列_カスタム仕様書.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥C表作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列のデータ提供のお願い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC上原</t>
+  </si>
+  <si>
+    <t>テンプレート機能に「Size」のようにTemplate1～3に2つ以上同名あるものが存在しますが、今回の移植の対処となりますか？</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>イジョウドウメイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂いた受領データに関して、HMフォルダの図面はテンプレート機能で使うような図面、HEフォルダの図面は編集文字検索機能で使用しますか。</t>
+    <rPh sb="0" eb="1">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの仕様書（テーブル構成等）
+→調査中
+まずは円弧配列
+SQLサーバーのテーブル構成出力（SCからご連絡）
+使用バージョンはSQLサーバー2008
+2022/9 受領済</t>
+    <rPh sb="17" eb="20">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>ジュリョウスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備します。
+2022/9 受領済</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ジュリョウスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/9　受領済
+一部不足があるため、38以降に記載</t>
+    <rPh sb="7" eb="10">
+      <t>ジュリョウスミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2558,8 +2857,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2593,6 +2899,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2762,7 +3074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2862,26 +3174,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="288">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="312">
     <dxf>
       <fill>
         <patternFill>
@@ -3043,126 +3346,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3218,6 +3401,51 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3243,66 +3471,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3388,6 +3556,51 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3473,6 +3686,36 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3528,36 +3771,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3628,96 +3841,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3788,36 +3911,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3888,6 +3981,21 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3973,246 +4081,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4253,6 +4121,126 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4308,6 +4296,51 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4348,6 +4381,36 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4369,6 +4432,451 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7112,6 +7620,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>651908</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10696575" y="304800"/>
+          <a:ext cx="9843533" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>196335</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>169050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673875" y="254775"/>
+          <a:ext cx="9809460" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -7378,10 +7979,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:L44"/>
+  <dimension ref="A3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7520,10 +8121,10 @@
         <v>18</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
@@ -7542,7 +8143,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5">
         <v>44732</v>
@@ -7557,7 +8158,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="5">
         <v>44741</v>
@@ -7577,10 +8178,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="5">
         <v>44739</v>
@@ -7595,7 +8196,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="5">
         <v>44741</v>
@@ -7612,13 +8213,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="5">
         <v>44741</v>
@@ -7630,10 +8231,10 @@
         <v>18</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="K9" s="5">
         <v>44741</v>
@@ -7649,10 +8250,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F10" s="5">
         <v>44741</v>
@@ -7667,7 +8268,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="5">
         <v>44741</v>
@@ -7685,10 +8286,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="5">
         <v>44741</v>
@@ -7703,7 +8304,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="5">
         <v>44741</v>
@@ -7718,13 +8319,13 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F12" s="5">
         <v>44741</v>
@@ -7739,7 +8340,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="5">
         <v>44741</v>
@@ -7757,10 +8358,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="5">
         <v>44748</v>
@@ -7775,13 +8376,13 @@
         <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="5">
         <v>44755</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.4">
@@ -7790,13 +8391,13 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F14" s="5">
         <v>44748</v>
@@ -7811,7 +8412,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" s="5">
         <v>44771</v>
@@ -7829,16 +8430,16 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F15" s="5">
         <v>44750</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>18</v>
@@ -7847,7 +8448,7 @@
         <v>23</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
@@ -7857,22 +8458,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="5">
         <v>44754</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>18</v>
@@ -7881,7 +8482,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="5">
         <v>44771</v>
@@ -7895,22 +8496,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="5">
         <v>44754</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>18</v>
@@ -7919,7 +8520,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" s="5">
         <v>44771</v>
@@ -7937,16 +8538,16 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F18" s="5">
         <v>44753</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>18</v>
@@ -7955,7 +8556,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K18" s="5">
         <v>44755</v>
@@ -7973,16 +8574,16 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="5">
         <v>44755</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>18</v>
@@ -7991,7 +8592,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19" s="5">
         <v>44755</v>
@@ -8009,16 +8610,16 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="5">
         <v>44755</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>18</v>
@@ -8027,7 +8628,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="5">
         <v>44755</v>
@@ -8042,11 +8643,11 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="9"/>
@@ -8057,13 +8658,13 @@
         <v>19</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21" s="5">
         <v>44774</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="128.25" x14ac:dyDescent="0.4">
@@ -8076,13 +8677,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" s="5">
         <v>44769</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>18</v>
@@ -8091,7 +8692,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" s="5">
         <v>44769</v>
@@ -8105,37 +8706,37 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F23" s="5">
         <v>44782</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K23" s="5">
         <v>44792</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="57" x14ac:dyDescent="0.4">
@@ -8143,37 +8744,37 @@
         <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="5">
         <v>44782</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" s="5">
         <v>44792</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="156.75" x14ac:dyDescent="0.4">
@@ -8181,22 +8782,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F25" s="5">
         <v>44782</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>18</v>
@@ -8205,13 +8806,13 @@
         <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K25" s="5">
         <v>44782</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="71.25" x14ac:dyDescent="0.4">
@@ -8219,22 +8820,22 @@
         <v>22</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="5">
         <v>44782</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>18</v>
@@ -8243,13 +8844,13 @@
         <v>19</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K26" s="5">
         <v>44783</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="99.75" x14ac:dyDescent="0.4">
@@ -8257,22 +8858,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="5">
         <v>44782</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>18</v>
@@ -8281,13 +8882,13 @@
         <v>19</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="5">
         <v>44783</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="29" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8295,22 +8896,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F28" s="5">
         <v>44795</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>18</v>
@@ -8319,13 +8920,13 @@
         <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K28" s="5">
         <v>44797</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="29" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
@@ -8333,22 +8934,22 @@
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F29" s="5">
         <v>44795</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>18</v>
@@ -8357,13 +8958,13 @@
         <v>19</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K29" s="5">
         <v>44797</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="29" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8371,22 +8972,22 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F30" s="5">
         <v>44796</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>18</v>
@@ -8395,13 +8996,13 @@
         <v>19</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K30" s="5">
         <v>44797</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="29" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8409,22 +9010,22 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F31" s="5">
         <v>44796</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>18</v>
@@ -8433,13 +9034,13 @@
         <v>19</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K31" s="5">
         <v>44797</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="29" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.4">
@@ -8453,16 +9054,16 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F32" s="5">
         <v>44796</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>18</v>
@@ -8471,13 +9072,13 @@
         <v>19</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K32" s="5">
         <v>44797</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
@@ -8485,22 +9086,22 @@
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F33" s="5">
         <v>44796</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>18</v>
@@ -8509,13 +9110,13 @@
         <v>19</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K33" s="5">
         <v>44797</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="29" customFormat="1" ht="315.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8527,31 +9128,31 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F34" s="5">
         <v>44796</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K34" s="5">
         <v>44797</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="29" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
@@ -8563,16 +9164,16 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="F35" s="5">
         <v>44796</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>18</v>
@@ -8581,13 +9182,13 @@
         <v>19</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K35" s="5">
         <v>44797</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="29" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8601,16 +9202,16 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F36" s="5">
         <v>44796</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>18</v>
@@ -8619,13 +9220,13 @@
         <v>19</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K36" s="5">
         <v>44797</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -8634,13 +9235,27 @@
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="3"/>
+      <c r="D37" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="33">
+        <v>44797</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="K37" s="5"/>
       <c r="L37" s="9"/>
     </row>
@@ -8655,31 +9270,31 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F38" s="5">
         <v>44797</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K38" s="5">
         <v>44797</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.4">
@@ -8691,16 +9306,16 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F39" s="5">
         <v>44797</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>18</v>
@@ -8709,13 +9324,13 @@
         <v>19</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K39" s="5">
         <v>44797</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8727,16 +9342,16 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F40" s="5">
         <v>44797</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>18</v>
@@ -8745,13 +9360,13 @@
         <v>19</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K40" s="5">
         <v>44797</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8763,16 +9378,16 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" s="5">
         <v>44797</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>18</v>
@@ -8781,1200 +9396,1388 @@
         <v>19</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K41" s="5">
         <v>44797</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>38</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
+      <c r="B42" s="9">
+        <v>33</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F42" s="5">
+        <v>44811</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="5"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="157.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
+      <c r="B43" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="5">
+        <v>44811</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="5"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>40</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
+      <c r="C44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="5">
+        <v>44811</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="5"/>
       <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>41</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" s="5">
+        <v>44811</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>42</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="5">
+        <v>44811</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C45:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="287" priority="920" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C47:C1048576 C10:C11">
+    <cfRule type="containsText" dxfId="311" priority="940" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A45:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
-    <cfRule type="expression" dxfId="286" priority="918">
+  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A47:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
+    <cfRule type="expression" dxfId="310" priority="938">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="919">
+    <cfRule type="expression" dxfId="309" priority="939">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="284" priority="433" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="308" priority="453" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22">
-    <cfRule type="expression" dxfId="283" priority="431">
+    <cfRule type="expression" dxfId="307" priority="451">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="432">
+    <cfRule type="expression" dxfId="306" priority="452">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="281" priority="429">
+    <cfRule type="expression" dxfId="305" priority="449">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="430">
+    <cfRule type="expression" dxfId="304" priority="450">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="279" priority="373" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="303" priority="393" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="278" priority="371">
+    <cfRule type="expression" dxfId="302" priority="391">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="372">
+    <cfRule type="expression" dxfId="301" priority="392">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C44">
-    <cfRule type="containsText" dxfId="276" priority="368" operator="containsText" text="高">
+  <conditionalFormatting sqref="C37:C41">
+    <cfRule type="containsText" dxfId="300" priority="388" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J27 B37:L37 B42:L44 L38:L41 B38:C41 E38:J41">
-    <cfRule type="expression" dxfId="275" priority="366">
+  <conditionalFormatting sqref="J25:J27 B37:E37 J42:L44 L38:L41 B38:C41 E38:J41 J37:L37">
+    <cfRule type="expression" dxfId="299" priority="386">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="367">
+    <cfRule type="expression" dxfId="298" priority="387">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L24 K27:L27">
-    <cfRule type="expression" dxfId="273" priority="350">
+    <cfRule type="expression" dxfId="297" priority="370">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="351">
+    <cfRule type="expression" dxfId="296" priority="371">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="271" priority="344">
+    <cfRule type="expression" dxfId="295" priority="364">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="345">
+    <cfRule type="expression" dxfId="294" priority="365">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="269" priority="342">
+    <cfRule type="expression" dxfId="293" priority="362">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="343">
+    <cfRule type="expression" dxfId="292" priority="363">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="267" priority="340">
+    <cfRule type="expression" dxfId="291" priority="360">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="341">
+    <cfRule type="expression" dxfId="290" priority="361">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="265" priority="338">
+    <cfRule type="expression" dxfId="289" priority="358">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="339">
+    <cfRule type="expression" dxfId="288" priority="359">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="263" priority="330">
+    <cfRule type="expression" dxfId="287" priority="350">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="331">
+    <cfRule type="expression" dxfId="286" priority="351">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="261" priority="334">
+    <cfRule type="expression" dxfId="285" priority="354">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="335">
+    <cfRule type="expression" dxfId="284" priority="355">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="259" priority="332">
+    <cfRule type="expression" dxfId="283" priority="352">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="333">
+    <cfRule type="expression" dxfId="282" priority="353">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="257" priority="328">
+    <cfRule type="expression" dxfId="281" priority="348">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="329">
+    <cfRule type="expression" dxfId="280" priority="349">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="255" priority="326">
+    <cfRule type="expression" dxfId="279" priority="346">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="327">
+    <cfRule type="expression" dxfId="278" priority="347">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="253" priority="324">
+    <cfRule type="expression" dxfId="277" priority="344">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="325">
+    <cfRule type="expression" dxfId="276" priority="345">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="251" priority="320">
+    <cfRule type="expression" dxfId="275" priority="340">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="321">
+    <cfRule type="expression" dxfId="274" priority="341">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="249" priority="318">
+    <cfRule type="expression" dxfId="273" priority="338">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="319">
+    <cfRule type="expression" dxfId="272" priority="339">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="247" priority="316">
+    <cfRule type="expression" dxfId="271" priority="336">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="317">
+    <cfRule type="expression" dxfId="270" priority="337">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="245" priority="285">
+    <cfRule type="expression" dxfId="269" priority="305">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="286">
+    <cfRule type="expression" dxfId="268" priority="306">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="243" priority="314">
+    <cfRule type="expression" dxfId="267" priority="334">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="315">
+    <cfRule type="expression" dxfId="266" priority="335">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="241" priority="311">
+    <cfRule type="expression" dxfId="265" priority="331">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="312">
+    <cfRule type="expression" dxfId="264" priority="332">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="239" priority="309">
+    <cfRule type="expression" dxfId="263" priority="329">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="310">
+    <cfRule type="expression" dxfId="262" priority="330">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="237" priority="305">
+    <cfRule type="expression" dxfId="261" priority="325">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="306">
+    <cfRule type="expression" dxfId="260" priority="326">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="235" priority="303">
+    <cfRule type="expression" dxfId="259" priority="323">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="304">
+    <cfRule type="expression" dxfId="258" priority="324">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="233" priority="301">
+    <cfRule type="expression" dxfId="257" priority="321">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="302">
+    <cfRule type="expression" dxfId="256" priority="322">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="231" priority="289">
+    <cfRule type="expression" dxfId="255" priority="309">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="290">
+    <cfRule type="expression" dxfId="254" priority="310">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="229" priority="287">
+    <cfRule type="expression" dxfId="253" priority="307">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="288">
+    <cfRule type="expression" dxfId="252" priority="308">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="227" priority="271">
+    <cfRule type="expression" dxfId="251" priority="291">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="272">
+    <cfRule type="expression" dxfId="250" priority="292">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="225" priority="270" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="249" priority="290" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="224" priority="268">
+    <cfRule type="expression" dxfId="248" priority="288">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="269">
+    <cfRule type="expression" dxfId="247" priority="289">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="222" priority="266">
+    <cfRule type="expression" dxfId="246" priority="286">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="267">
+    <cfRule type="expression" dxfId="245" priority="287">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="220" priority="264">
+    <cfRule type="expression" dxfId="244" priority="284">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="265">
+    <cfRule type="expression" dxfId="243" priority="285">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="218" priority="262">
+    <cfRule type="expression" dxfId="242" priority="282">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="263">
+    <cfRule type="expression" dxfId="241" priority="283">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="216" priority="256">
+    <cfRule type="expression" dxfId="240" priority="276">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="257">
+    <cfRule type="expression" dxfId="239" priority="277">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="214" priority="260">
+    <cfRule type="expression" dxfId="238" priority="280">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="261">
+    <cfRule type="expression" dxfId="237" priority="281">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="212" priority="258">
+    <cfRule type="expression" dxfId="236" priority="278">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="259">
+    <cfRule type="expression" dxfId="235" priority="279">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="210" priority="254">
+    <cfRule type="expression" dxfId="234" priority="274">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="255">
+    <cfRule type="expression" dxfId="233" priority="275">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="208" priority="253" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="232" priority="273" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A44">
-    <cfRule type="expression" dxfId="207" priority="251">
+  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A46">
+    <cfRule type="expression" dxfId="3" priority="271">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="252">
+    <cfRule type="expression" dxfId="2" priority="272">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="205" priority="249">
+    <cfRule type="expression" dxfId="231" priority="269">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="250">
+    <cfRule type="expression" dxfId="230" priority="270">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="203" priority="247">
+    <cfRule type="expression" dxfId="229" priority="267">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="248">
+    <cfRule type="expression" dxfId="228" priority="268">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="201" priority="245">
+    <cfRule type="expression" dxfId="227" priority="265">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="246">
+    <cfRule type="expression" dxfId="226" priority="266">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="199" priority="243">
+    <cfRule type="expression" dxfId="225" priority="263">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="244">
+    <cfRule type="expression" dxfId="224" priority="264">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="197" priority="241">
+    <cfRule type="expression" dxfId="223" priority="261">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="242">
+    <cfRule type="expression" dxfId="222" priority="262">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="195" priority="237">
+    <cfRule type="expression" dxfId="221" priority="257">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="238">
+    <cfRule type="expression" dxfId="220" priority="258">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="193" priority="228" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="219" priority="248" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="192" priority="226">
+    <cfRule type="expression" dxfId="218" priority="246">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="227">
+    <cfRule type="expression" dxfId="217" priority="247">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="190" priority="204">
+    <cfRule type="expression" dxfId="216" priority="224">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="205">
+    <cfRule type="expression" dxfId="215" priority="225">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="188" priority="203" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="214" priority="223" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="187" priority="201">
+    <cfRule type="expression" dxfId="213" priority="221">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="202">
+    <cfRule type="expression" dxfId="212" priority="222">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="185" priority="199">
+    <cfRule type="expression" dxfId="211" priority="219">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="200">
+    <cfRule type="expression" dxfId="210" priority="220">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="183" priority="197">
+    <cfRule type="expression" dxfId="209" priority="217">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="198">
+    <cfRule type="expression" dxfId="208" priority="218">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="181" priority="196" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="207" priority="216" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="180" priority="194">
+    <cfRule type="expression" dxfId="206" priority="214">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="195">
+    <cfRule type="expression" dxfId="205" priority="215">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="178" priority="192">
+    <cfRule type="expression" dxfId="204" priority="212">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="193">
+    <cfRule type="expression" dxfId="203" priority="213">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="176" priority="191" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="202" priority="211" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="175" priority="189">
+    <cfRule type="expression" dxfId="201" priority="209">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="190">
+    <cfRule type="expression" dxfId="200" priority="210">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="173" priority="187">
+    <cfRule type="expression" dxfId="199" priority="207">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="188">
+    <cfRule type="expression" dxfId="198" priority="208">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="171" priority="185">
+    <cfRule type="expression" dxfId="197" priority="205">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="186">
+    <cfRule type="expression" dxfId="196" priority="206">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="169" priority="183">
+    <cfRule type="expression" dxfId="195" priority="203">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="184">
+    <cfRule type="expression" dxfId="194" priority="204">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="167" priority="179">
+    <cfRule type="expression" dxfId="193" priority="199">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="180">
+    <cfRule type="expression" dxfId="192" priority="200">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="165" priority="170">
+    <cfRule type="expression" dxfId="191" priority="190">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="171">
+    <cfRule type="expression" dxfId="190" priority="191">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="163" priority="165">
+    <cfRule type="expression" dxfId="189" priority="185">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="166">
+    <cfRule type="expression" dxfId="188" priority="186">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="161" priority="163">
+    <cfRule type="expression" dxfId="187" priority="183">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="164">
+    <cfRule type="expression" dxfId="186" priority="184">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="159" priority="161">
+    <cfRule type="expression" dxfId="185" priority="181">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="162">
+    <cfRule type="expression" dxfId="184" priority="182">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="157" priority="159">
+    <cfRule type="expression" dxfId="183" priority="179">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="160">
+    <cfRule type="expression" dxfId="182" priority="180">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="155" priority="157">
+    <cfRule type="expression" dxfId="181" priority="177">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="158">
+    <cfRule type="expression" dxfId="180" priority="178">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K20">
-    <cfRule type="expression" dxfId="153" priority="155">
+    <cfRule type="expression" dxfId="179" priority="175">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="156">
+    <cfRule type="expression" dxfId="178" priority="176">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L20">
-    <cfRule type="expression" dxfId="151" priority="153">
+    <cfRule type="expression" dxfId="177" priority="173">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="154">
+    <cfRule type="expression" dxfId="176" priority="174">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="149" priority="151">
+    <cfRule type="expression" dxfId="175" priority="171">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="152">
+    <cfRule type="expression" dxfId="174" priority="172">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="147" priority="149">
+    <cfRule type="expression" dxfId="173" priority="169">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="150">
+    <cfRule type="expression" dxfId="172" priority="170">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="145" priority="147">
+    <cfRule type="expression" dxfId="171" priority="167">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="148">
+    <cfRule type="expression" dxfId="170" priority="168">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="143" priority="145">
+    <cfRule type="expression" dxfId="169" priority="165">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="146">
+    <cfRule type="expression" dxfId="168" priority="166">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="141" priority="143">
+    <cfRule type="expression" dxfId="167" priority="163">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="144">
+    <cfRule type="expression" dxfId="166" priority="164">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="139" priority="141">
+    <cfRule type="expression" dxfId="165" priority="161">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="142">
+    <cfRule type="expression" dxfId="164" priority="162">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:L21">
-    <cfRule type="expression" dxfId="137" priority="139">
+    <cfRule type="expression" dxfId="163" priority="159">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="140">
+    <cfRule type="expression" dxfId="162" priority="160">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24 D23:F23">
-    <cfRule type="expression" dxfId="135" priority="137">
+    <cfRule type="expression" dxfId="161" priority="157">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="138">
+    <cfRule type="expression" dxfId="160" priority="158">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="159" priority="156" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="132" priority="134">
+    <cfRule type="expression" dxfId="158" priority="154">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="135">
+    <cfRule type="expression" dxfId="157" priority="155">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="130" priority="132">
+    <cfRule type="expression" dxfId="156" priority="152">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="133">
+    <cfRule type="expression" dxfId="155" priority="153">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="128" priority="130">
+    <cfRule type="expression" dxfId="154" priority="150">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="131">
+    <cfRule type="expression" dxfId="153" priority="151">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="126" priority="128">
+    <cfRule type="expression" dxfId="152" priority="148">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="129">
+    <cfRule type="expression" dxfId="151" priority="149">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="124" priority="127" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="150" priority="147" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="123" priority="125">
+    <cfRule type="expression" dxfId="149" priority="145">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="126">
+    <cfRule type="expression" dxfId="148" priority="146">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="121" priority="123">
+    <cfRule type="expression" dxfId="147" priority="143">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="124">
+    <cfRule type="expression" dxfId="146" priority="144">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="119" priority="121">
+    <cfRule type="expression" dxfId="145" priority="141">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="122">
+    <cfRule type="expression" dxfId="144" priority="142">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="117" priority="119">
+    <cfRule type="expression" dxfId="143" priority="139">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="120">
+    <cfRule type="expression" dxfId="142" priority="140">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:H27">
-    <cfRule type="expression" dxfId="115" priority="117">
+    <cfRule type="expression" dxfId="141" priority="137">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="118">
+    <cfRule type="expression" dxfId="140" priority="138">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I27">
-    <cfRule type="expression" dxfId="113" priority="115">
+    <cfRule type="expression" dxfId="139" priority="135">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="116">
+    <cfRule type="expression" dxfId="138" priority="136">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="137" priority="134" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="110" priority="112">
+    <cfRule type="expression" dxfId="136" priority="132">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="113">
+    <cfRule type="expression" dxfId="135" priority="133">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="108" priority="110">
+    <cfRule type="expression" dxfId="134" priority="130">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="111">
+    <cfRule type="expression" dxfId="133" priority="131">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="106" priority="108">
+    <cfRule type="expression" dxfId="132" priority="128">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="109">
+    <cfRule type="expression" dxfId="131" priority="129">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="104" priority="106">
+    <cfRule type="expression" dxfId="130" priority="126">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="107">
+    <cfRule type="expression" dxfId="129" priority="127">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="102" priority="104">
+    <cfRule type="expression" dxfId="128" priority="124">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="105">
+    <cfRule type="expression" dxfId="127" priority="125">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="100" priority="102">
+    <cfRule type="expression" dxfId="126" priority="122">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="103">
+    <cfRule type="expression" dxfId="125" priority="123">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="98" priority="100">
+    <cfRule type="expression" dxfId="124" priority="120">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="101">
+    <cfRule type="expression" dxfId="123" priority="121">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="96" priority="98">
+    <cfRule type="expression" dxfId="122" priority="118">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="99">
+    <cfRule type="expression" dxfId="121" priority="119">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:L28 E28:E31 J29:J33">
-    <cfRule type="expression" dxfId="94" priority="96">
+    <cfRule type="expression" dxfId="120" priority="116">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="97">
+    <cfRule type="expression" dxfId="119" priority="117">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="92" priority="92">
+    <cfRule type="expression" dxfId="118" priority="112">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="117" priority="113">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="116" priority="111" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="89" priority="89">
+    <cfRule type="expression" dxfId="115" priority="109">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="90">
+    <cfRule type="expression" dxfId="114" priority="110">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="87" priority="87">
+    <cfRule type="expression" dxfId="113" priority="107">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="88">
+    <cfRule type="expression" dxfId="112" priority="108">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="85" priority="85">
+    <cfRule type="expression" dxfId="111" priority="105">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="86">
+    <cfRule type="expression" dxfId="110" priority="106">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="83" priority="83">
+    <cfRule type="expression" dxfId="109" priority="103">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="84">
+    <cfRule type="expression" dxfId="108" priority="104">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="81" priority="81">
+    <cfRule type="expression" dxfId="107" priority="101">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="82">
+    <cfRule type="expression" dxfId="106" priority="102">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="105" priority="100" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="78" priority="78">
+    <cfRule type="expression" dxfId="104" priority="98">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="79">
+    <cfRule type="expression" dxfId="103" priority="99">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="76" priority="76">
+    <cfRule type="expression" dxfId="102" priority="96">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
+    <cfRule type="expression" dxfId="101" priority="97">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="expression" dxfId="74" priority="74">
+    <cfRule type="expression" dxfId="100" priority="94">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="75">
+    <cfRule type="expression" dxfId="99" priority="95">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I36">
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="98" priority="92">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="73">
+    <cfRule type="expression" dxfId="97" priority="93">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="70" priority="70">
+    <cfRule type="expression" dxfId="96" priority="90">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="71">
+    <cfRule type="expression" dxfId="95" priority="91">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="94" priority="89" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="93" priority="87">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
+    <cfRule type="expression" dxfId="92" priority="88">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="65" priority="65">
+    <cfRule type="expression" dxfId="91" priority="85">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="66">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="expression" dxfId="63" priority="63">
+    <cfRule type="expression" dxfId="89" priority="83">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
+    <cfRule type="expression" dxfId="88" priority="84">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="87" priority="79">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
+    <cfRule type="expression" dxfId="86" priority="80">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="85" priority="78" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="84" priority="76">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57">
+    <cfRule type="expression" dxfId="83" priority="77">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="54" priority="54">
+    <cfRule type="expression" dxfId="82" priority="74">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="81" priority="75">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="80" priority="72">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="79" priority="73">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="78" priority="68">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="77" priority="69">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="76" priority="67" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="75" priority="65">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="74" priority="66">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="73" priority="63">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="72" priority="64">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="71" priority="61">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="70" priority="62">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="69" priority="60" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="68" priority="58">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="67" priority="59">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="66" priority="56">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="65" priority="57">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="64" priority="54">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="63" priority="55">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="62" priority="50">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="61" priority="51">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="60" priority="48">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="59" priority="49">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="58" priority="44">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="57" priority="45">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B33">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="56" priority="42">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="55" priority="43">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="54" priority="41" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:J36 B34:E36 L34:L36">
+    <cfRule type="expression" dxfId="53" priority="39">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="40">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:H36">
+    <cfRule type="expression" dxfId="51" priority="35">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="36">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K31">
+    <cfRule type="expression" dxfId="49" priority="31">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="32">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K33">
+    <cfRule type="expression" dxfId="47" priority="29">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="30">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:L33">
+    <cfRule type="expression" dxfId="45" priority="27">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="28">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K36">
+    <cfRule type="expression" dxfId="43" priority="25">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="26">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:K41">
+    <cfRule type="expression" dxfId="41" priority="23">
+      <formula>$I38="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="24">
+      <formula>$I38="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
+    <cfRule type="expression" dxfId="39" priority="21">
+      <formula>$I38="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="22">
+      <formula>$I38="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C45">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46 B43:E45 B42:F42">
+    <cfRule type="expression" dxfId="20" priority="18">
+      <formula>$I42="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$I34="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H36">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$I34="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K31">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K33">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:L33">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K36">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I34="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:K41">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I38="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I38="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
+      <formula>$I42="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:E46">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>$I46="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I46="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:H42">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>$I42="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I42="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$I42="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$I42="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F46">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>$I43="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$I43="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:H46">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$I43="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$I43="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:I46">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$I43="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$I43="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:L46">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$I45="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$I45="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I38="確認中"</formula>
+      <formula>$I37="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I38="済み"</formula>
+      <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C46">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I46">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H36 H38:H46">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9983,7 +10786,49 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q20"/>
   <sheetViews>
@@ -9995,22 +10840,22 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="Q7" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="Q14" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -10049,7 +10894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -10061,17 +10906,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A12" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -10081,7 +10926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BU42"/>
   <sheetViews>
@@ -10097,22 +10942,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:73" x14ac:dyDescent="0.4">
       <c r="B40" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -10188,220 +11033,220 @@
     </row>
     <row r="41" spans="2:73" x14ac:dyDescent="0.4">
       <c r="B41" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="D41" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="E41" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="F41" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="G41" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="H41" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="I41" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="J41" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="K41" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="L41" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="L41" s="23" t="s">
+      <c r="M41" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="N41" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="N41" s="23" t="s">
+      <c r="O41" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="O41" s="23" t="s">
+      <c r="P41" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="P41" s="23" t="s">
+      <c r="Q41" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Q41" s="23" t="s">
+      <c r="R41" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="R41" s="23" t="s">
+      <c r="S41" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="S41" s="23" t="s">
+      <c r="T41" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="T41" s="23" t="s">
+      <c r="U41" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="U41" s="23" t="s">
+      <c r="V41" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="V41" s="23" t="s">
+      <c r="W41" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="W41" s="23" t="s">
+      <c r="X41" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="X41" s="23" t="s">
+      <c r="Y41" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="Y41" s="23" t="s">
+      <c r="Z41" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="Z41" s="23" t="s">
+      <c r="AA41" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="AA41" s="23" t="s">
+      <c r="AB41" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="AB41" s="23" t="s">
+      <c r="AC41" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="AC41" s="23" t="s">
+      <c r="AD41" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="AD41" s="23" t="s">
+      <c r="AE41" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="AE41" s="23" t="s">
+      <c r="AF41" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="AF41" s="23" t="s">
+      <c r="AG41" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="AG41" s="23" t="s">
+      <c r="AH41" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="AH41" s="23" t="s">
+      <c r="AI41" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="AI41" s="23" t="s">
+      <c r="AJ41" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AJ41" s="23" t="s">
+      <c r="AK41" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="AK41" s="23" t="s">
+      <c r="AL41" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="AL41" s="23" t="s">
+      <c r="AM41" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AM41" s="23" t="s">
+      <c r="AN41" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="AN41" s="23" t="s">
+      <c r="AO41" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="AO41" s="23" t="s">
+      <c r="AP41" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="AP41" s="23" t="s">
+      <c r="AQ41" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AQ41" s="23" t="s">
+      <c r="AR41" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AR41" s="23" t="s">
+      <c r="AS41" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AS41" s="23" t="s">
+      <c r="AT41" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="AT41" s="23" t="s">
+      <c r="AU41" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="AU41" s="23" t="s">
+      <c r="AV41" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="AV41" s="23" t="s">
+      <c r="AW41" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AW41" s="23" t="s">
+      <c r="AX41" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AX41" s="23" t="s">
+      <c r="AY41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AY41" s="23" t="s">
+      <c r="AZ41" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="AZ41" s="23" t="s">
+      <c r="BA41" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="BA41" s="23" t="s">
+      <c r="BB41" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="BB41" s="23" t="s">
+      <c r="BC41" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="BC41" s="23" t="s">
+      <c r="BD41" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="BD41" s="23" t="s">
+      <c r="BE41" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="BE41" s="23" t="s">
+      <c r="BF41" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="BF41" s="23" t="s">
+      <c r="BG41" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="BG41" s="23" t="s">
+      <c r="BH41" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="BH41" s="23" t="s">
+      <c r="BI41" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="BI41" s="23" t="s">
+      <c r="BJ41" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="BJ41" s="23" t="s">
+      <c r="BK41" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="BK41" s="23" t="s">
+      <c r="BL41" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="BL41" s="23" t="s">
+      <c r="BM41" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="BM41" s="23" t="s">
+      <c r="BN41" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="BN41" s="23" t="s">
+      <c r="BO41" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="BO41" s="23" t="s">
+      <c r="BP41" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="BP41" s="23" t="s">
+      <c r="BQ41" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="BQ41" s="23" t="s">
+      <c r="BR41" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="BR41" s="23" t="s">
+      <c r="BS41" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="BS41" s="23" t="s">
+      <c r="BT41" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="BT41" s="23" t="s">
+      <c r="BU41" s="23" t="s">
         <v>165</v>
-      </c>
-      <c r="BU41" s="23" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="42" spans="2:73" x14ac:dyDescent="0.4">
@@ -10409,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42" s="24">
         <v>303</v>
@@ -10418,10 +11263,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>168</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>169</v>
       </c>
       <c r="H42" s="24">
         <v>5153</v>
@@ -10433,109 +11278,109 @@
         <v>35</v>
       </c>
       <c r="K42" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="L42" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="L42" s="27" t="s">
+      <c r="M42" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="M42" s="24" t="s">
+      <c r="N42" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="N42" s="24" t="s">
+      <c r="O42" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="O42" s="24" t="s">
+      <c r="P42" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="P42" s="24" t="s">
+      <c r="Q42" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="Q42" s="24" t="s">
+      <c r="R42" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="R42" s="24" t="s">
+      <c r="S42" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="S42" s="24" t="s">
+      <c r="T42" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="T42" s="24" t="s">
+      <c r="U42" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="U42" s="24" t="s">
+      <c r="V42" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="V42" s="24" t="s">
+      <c r="W42" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="W42" s="24" t="s">
+      <c r="X42" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="X42" s="24" t="s">
+      <c r="Y42" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="Y42" s="24" t="s">
+      <c r="Z42" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="Z42" s="24" t="s">
+      <c r="AA42" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="AA42" s="24" t="s">
+      <c r="AB42" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="AB42" s="24" t="s">
+      <c r="AC42" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="AC42" s="24" t="s">
+      <c r="AD42" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="AD42" s="24" t="s">
+      <c r="AE42" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="AE42" s="24" t="s">
+      <c r="AF42" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AF42" s="24" t="s">
+      <c r="AG42" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="AG42" s="24" t="s">
+      <c r="AH42" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="AH42" s="24" t="s">
+      <c r="AI42" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="AI42" s="24" t="s">
+      <c r="AJ42" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="AJ42" s="24" t="s">
+      <c r="AK42" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="AK42" s="24" t="s">
+      <c r="AL42" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="AL42" s="24" t="s">
+      <c r="AM42" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="AM42" s="24" t="s">
+      <c r="AN42" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="AN42" s="24" t="s">
+      <c r="AO42" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="AO42" s="24" t="s">
+      <c r="AP42" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="AP42" s="24" t="s">
+      <c r="AQ42" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="AQ42" s="24" t="s">
+      <c r="AR42" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="AR42" s="24" t="s">
+      <c r="AS42" s="24" t="s">
         <v>203</v>
-      </c>
-      <c r="AS42" s="24" t="s">
-        <v>204</v>
       </c>
       <c r="AT42" s="26"/>
       <c r="AU42" s="26"/>
@@ -10576,7 +11421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10590,7 +11435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10604,7 +11449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M3:M15"/>
   <sheetViews>
@@ -10616,12 +11461,12 @@
   <sheetData>
     <row r="3" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -10632,12 +11477,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10785,15 +11627,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10817,10 +11663,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="258">
   <si>
     <t>質疑・課題</t>
     <phoneticPr fontId="1"/>
@@ -2764,6 +2764,68 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC平</t>
+    <rPh sb="2" eb="3">
+      <t>タイラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29ページ「3.3 改良要望」の「2.」の「処理の自動化」については、「編集文字の作成」や「編集文字のグループ化」等の編集作業は、自動処理を行う前に、事前準備として完了しているという認識でよろしいでしょうか。</t>
+    <rPh sb="10" eb="12">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="75" eb="79">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ニンシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3165,6 +3227,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3174,62 +3242,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="312">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="313">
     <dxf>
       <fill>
         <patternFill>
@@ -3346,6 +3363,141 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3371,81 +3523,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3471,6 +3548,111 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3586,21 +3768,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3656,66 +3823,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3771,6 +3878,21 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3911,6 +4033,21 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4081,6 +4218,81 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4181,66 +4393,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4311,36 +4463,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4411,6 +4533,261 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4451,291 +4828,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4776,6 +4868,21 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4816,21 +4923,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4852,31 +4944,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7979,10 +8046,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:L46"/>
+  <dimension ref="A3:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8002,11 +8069,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -9092,7 +9159,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>209</v>
@@ -9241,13 +9308,13 @@
       <c r="E37" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="30">
         <v>44797</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="31" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="10" t="s">
@@ -9559,1225 +9626,1324 @@
       <c r="K46" s="5"/>
       <c r="L46" s="9"/>
     </row>
+    <row r="47" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>43</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="5">
+        <v>44818</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C47:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="311" priority="940" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C48:C1048576 C10:C11">
+    <cfRule type="containsText" dxfId="312" priority="957" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A47:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
-    <cfRule type="expression" dxfId="310" priority="938">
+  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A48:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
+    <cfRule type="expression" dxfId="311" priority="955">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="939">
+    <cfRule type="expression" dxfId="310" priority="956">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="308" priority="453" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="309" priority="470" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22">
-    <cfRule type="expression" dxfId="307" priority="451">
+    <cfRule type="expression" dxfId="308" priority="468">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="452">
+    <cfRule type="expression" dxfId="307" priority="469">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="305" priority="449">
+    <cfRule type="expression" dxfId="306" priority="466">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="450">
+    <cfRule type="expression" dxfId="305" priority="467">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="303" priority="393" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="304" priority="410" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="302" priority="391">
+    <cfRule type="expression" dxfId="303" priority="408">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="392">
+    <cfRule type="expression" dxfId="302" priority="409">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C41">
-    <cfRule type="containsText" dxfId="300" priority="388" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="301" priority="405" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J27 B37:E37 J42:L44 L38:L41 B38:C41 E38:J41 J37:L37">
-    <cfRule type="expression" dxfId="299" priority="386">
+    <cfRule type="expression" dxfId="300" priority="403">
       <formula>$I25="確認中"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="299" priority="404">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:L24 K27:L27">
     <cfRule type="expression" dxfId="298" priority="387">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="388">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="296" priority="381">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="382">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="294" priority="379">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="293" priority="380">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="292" priority="377">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="378">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="290" priority="375">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="376">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="288" priority="367">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="287" priority="368">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="286" priority="371">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="372">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B9">
+    <cfRule type="expression" dxfId="284" priority="369">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="370">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="282" priority="365">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="366">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="280" priority="363">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="364">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="278" priority="361">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="362">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="276" priority="357">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="358">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="274" priority="355">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="356">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="272" priority="353">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="354">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="270" priority="322">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="323">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:E11">
+    <cfRule type="expression" dxfId="268" priority="351">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="352">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="266" priority="348">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="349">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="264" priority="346">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="263" priority="347">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="262" priority="342">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="343">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="260" priority="340">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="341">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" dxfId="258" priority="338">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="339">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="256" priority="326">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="327">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="254" priority="324">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="325">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="252" priority="308">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="309">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="250" priority="307" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="249" priority="305">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="306">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="247" priority="303">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="304">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="245" priority="301">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="302">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="243" priority="299">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="300">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="241" priority="293">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="294">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="239" priority="297">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="298">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="237" priority="295">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="296">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="expression" dxfId="235" priority="291">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="292">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="233" priority="290" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A46">
+    <cfRule type="expression" dxfId="232" priority="288">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="289">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="230" priority="286">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="287">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="228" priority="284">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="285">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="226" priority="282">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="283">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="224" priority="280">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="281">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="222" priority="278">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="279">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="220" priority="274">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="275">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="218" priority="265" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="217" priority="263">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="264">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22 D21:F22">
+    <cfRule type="expression" dxfId="215" priority="241">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="242">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="containsText" dxfId="213" priority="240" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="212" priority="238">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="239">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
+    <cfRule type="expression" dxfId="210" priority="236">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="237">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="208" priority="234">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="235">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="206" priority="233" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="205" priority="231">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="232">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="203" priority="229">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="230">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="201" priority="228" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="expression" dxfId="200" priority="226">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="227">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:H17 H18:H20">
+    <cfRule type="expression" dxfId="198" priority="224">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="225">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="expression" dxfId="196" priority="222">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="223">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="194" priority="220">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="221">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 D18:F18">
+    <cfRule type="expression" dxfId="192" priority="216">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="217">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20 D19:F20">
+    <cfRule type="expression" dxfId="190" priority="207">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="208">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="188" priority="202">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="203">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="186" priority="200">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="201">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="expression" dxfId="184" priority="198">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="199">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="182" priority="196">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="197">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="180" priority="194">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="195">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K20">
+    <cfRule type="expression" dxfId="178" priority="192">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="193">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L20">
+    <cfRule type="expression" dxfId="176" priority="190">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="191">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="174" priority="188">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="189">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="172" priority="186">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="187">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="expression" dxfId="170" priority="184">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="185">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="expression" dxfId="168" priority="182">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="183">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="166" priority="180">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="181">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="expression" dxfId="164" priority="178">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="179">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:L21">
+    <cfRule type="expression" dxfId="162" priority="176">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="177">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 D23:F23">
+    <cfRule type="expression" dxfId="160" priority="174">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="175">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="158" priority="173" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="157" priority="171">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="172">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="155" priority="169">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="170">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="153" priority="167">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="168">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="151" priority="165">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="166">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="149" priority="164" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="148" priority="162">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="163">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B27">
+    <cfRule type="expression" dxfId="146" priority="160">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="161">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="144" priority="158">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="159">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="expression" dxfId="142" priority="156">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="157">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H27">
+    <cfRule type="expression" dxfId="140" priority="154">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="155">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:L24 K27:L27">
-    <cfRule type="expression" dxfId="297" priority="370">
+  <conditionalFormatting sqref="I25:I27">
+    <cfRule type="expression" dxfId="138" priority="152">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="153">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="containsText" dxfId="136" priority="151" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="135" priority="149">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="150">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="133" priority="147">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="371">
+    <cfRule type="expression" dxfId="132" priority="148">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="295" priority="364">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="365">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="293" priority="362">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="363">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="291" priority="360">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="361">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="289" priority="358">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="359">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="287" priority="350">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="351">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="285" priority="354">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="355">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="283" priority="352">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="282" priority="353">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="281" priority="348">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="349">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="279" priority="346">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="347">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="277" priority="344">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="345">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="275" priority="340">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="341">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="273" priority="338">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="339">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="271" priority="336">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="337">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="269" priority="305">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="306">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="267" priority="334">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="335">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="265" priority="331">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="332">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="263" priority="329">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="330">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="261" priority="325">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="326">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="259" priority="323">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="324">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="257" priority="321">
-      <formula>$I10="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="322">
-      <formula>$I10="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="255" priority="309">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="310">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="253" priority="307">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="308">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="251" priority="291">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="292">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="249" priority="290" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="248" priority="288">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="289">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="246" priority="286">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="287">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="244" priority="284">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="285">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="242" priority="282">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="283">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="240" priority="276">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="277">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="238" priority="280">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="281">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="236" priority="278">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="279">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="234" priority="274">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="275">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="232" priority="273" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A46">
-    <cfRule type="expression" dxfId="3" priority="271">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="272">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="231" priority="269">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="270">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="229" priority="267">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="268">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="227" priority="265">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="266">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="225" priority="263">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="264">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="223" priority="261">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="262">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="221" priority="257">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="258">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="219" priority="248" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="218" priority="246">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="247">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="216" priority="224">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="225">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="214" priority="223" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="213" priority="221">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="222">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="211" priority="219">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="220">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="209" priority="217">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="218">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="207" priority="216" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="206" priority="214">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="215">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="204" priority="212">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="213">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="202" priority="211" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="201" priority="209">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="210">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="199" priority="207">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="208">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="197" priority="205">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="206">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="195" priority="203">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="204">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="193" priority="199">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="200">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="191" priority="190">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="191">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="189" priority="185">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="186">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="187" priority="183">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="184">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="185" priority="181">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="182">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="183" priority="179">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="180">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="181" priority="177">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="178">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K20">
-    <cfRule type="expression" dxfId="179" priority="175">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="176">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L20">
-    <cfRule type="expression" dxfId="177" priority="173">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="174">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="175" priority="171">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="172">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="173" priority="169">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="170">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="171" priority="167">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="168">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="169" priority="165">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="166">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="167" priority="163">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="164">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="165" priority="161">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="162">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:L21">
-    <cfRule type="expression" dxfId="163" priority="159">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="160">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24 D23:F23">
-    <cfRule type="expression" dxfId="161" priority="157">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="158">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="159" priority="156" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="158" priority="154">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="155">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="156" priority="152">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="153">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="154" priority="150">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="151">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="152" priority="148">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="131" priority="145">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="149">
+    <cfRule type="expression" dxfId="130" priority="146">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="150" priority="147" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="149" priority="145">
+  <conditionalFormatting sqref="L25">
+    <cfRule type="expression" dxfId="129" priority="143">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="144">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="expression" dxfId="127" priority="141">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="142">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="expression" dxfId="125" priority="139">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="140">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="expression" dxfId="123" priority="137">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="138">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="expression" dxfId="121" priority="135">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="146">
+    <cfRule type="expression" dxfId="120" priority="136">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="147" priority="143">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="144">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="145" priority="141">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="142">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="143" priority="139">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="140">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:H27">
-    <cfRule type="expression" dxfId="141" priority="137">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="138">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I27">
-    <cfRule type="expression" dxfId="139" priority="135">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="136">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="137" priority="134" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="136" priority="132">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="133">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="134" priority="130">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="131">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="132" priority="128">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="129">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="130" priority="126">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="127">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="128" priority="124">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="125">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="126" priority="122">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="123">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="124" priority="120">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="121">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="122" priority="118">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="119">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J28:L28 E28:E31 J29:J33">
-    <cfRule type="expression" dxfId="120" priority="116">
+    <cfRule type="expression" dxfId="119" priority="133">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="117">
+    <cfRule type="expression" dxfId="118" priority="134">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="118" priority="112">
+    <cfRule type="expression" dxfId="117" priority="129">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="113">
+    <cfRule type="expression" dxfId="116" priority="130">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="116" priority="111" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="115" priority="128" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="115" priority="109">
+    <cfRule type="expression" dxfId="114" priority="126">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="110">
+    <cfRule type="expression" dxfId="113" priority="127">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="113" priority="107">
+    <cfRule type="expression" dxfId="112" priority="124">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="108">
+    <cfRule type="expression" dxfId="111" priority="125">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="111" priority="105">
+    <cfRule type="expression" dxfId="110" priority="122">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="106">
+    <cfRule type="expression" dxfId="109" priority="123">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="109" priority="103">
+    <cfRule type="expression" dxfId="108" priority="120">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="104">
+    <cfRule type="expression" dxfId="107" priority="121">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="107" priority="101">
+    <cfRule type="expression" dxfId="106" priority="118">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="102">
+    <cfRule type="expression" dxfId="105" priority="119">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="105" priority="100" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="104" priority="117" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="104" priority="98">
+    <cfRule type="expression" dxfId="103" priority="115">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="99">
+    <cfRule type="expression" dxfId="102" priority="116">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="102" priority="96">
+    <cfRule type="expression" dxfId="101" priority="113">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="97">
+    <cfRule type="expression" dxfId="100" priority="114">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="expression" dxfId="100" priority="94">
+    <cfRule type="expression" dxfId="99" priority="111">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="95">
+    <cfRule type="expression" dxfId="98" priority="112">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I36">
-    <cfRule type="expression" dxfId="98" priority="92">
+    <cfRule type="expression" dxfId="97" priority="109">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="93">
+    <cfRule type="expression" dxfId="96" priority="110">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="96" priority="90">
+    <cfRule type="expression" dxfId="95" priority="107">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="91">
+    <cfRule type="expression" dxfId="94" priority="108">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="94" priority="89" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="93" priority="106" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="93" priority="87">
+    <cfRule type="expression" dxfId="92" priority="104">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="88">
+    <cfRule type="expression" dxfId="91" priority="105">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="91" priority="85">
+    <cfRule type="expression" dxfId="90" priority="102">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="86">
+    <cfRule type="expression" dxfId="89" priority="103">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="expression" dxfId="89" priority="83">
+    <cfRule type="expression" dxfId="88" priority="100">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="84">
+    <cfRule type="expression" dxfId="87" priority="101">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="87" priority="79">
+    <cfRule type="expression" dxfId="86" priority="96">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="80">
+    <cfRule type="expression" dxfId="85" priority="97">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="85" priority="78" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="84" priority="95" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="84" priority="76">
+    <cfRule type="expression" dxfId="83" priority="93">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="77">
+    <cfRule type="expression" dxfId="82" priority="94">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="82" priority="74">
+    <cfRule type="expression" dxfId="81" priority="91">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="75">
+    <cfRule type="expression" dxfId="80" priority="92">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="expression" dxfId="80" priority="72">
+    <cfRule type="expression" dxfId="79" priority="89">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="73">
+    <cfRule type="expression" dxfId="78" priority="90">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="78" priority="68">
+    <cfRule type="expression" dxfId="77" priority="85">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="69">
+    <cfRule type="expression" dxfId="76" priority="86">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="76" priority="67" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="75" priority="84" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="75" priority="65">
+    <cfRule type="expression" dxfId="74" priority="82">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="66">
+    <cfRule type="expression" dxfId="73" priority="83">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="73" priority="63">
+    <cfRule type="expression" dxfId="72" priority="80">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="64">
+    <cfRule type="expression" dxfId="71" priority="81">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="71" priority="61">
+    <cfRule type="expression" dxfId="70" priority="78">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="62">
+    <cfRule type="expression" dxfId="69" priority="79">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="69" priority="60" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="68" priority="77" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="68" priority="58">
+    <cfRule type="expression" dxfId="67" priority="75">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="59">
+    <cfRule type="expression" dxfId="66" priority="76">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="66" priority="56">
+    <cfRule type="expression" dxfId="65" priority="73">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="57">
+    <cfRule type="expression" dxfId="64" priority="74">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="expression" dxfId="64" priority="54">
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="55">
+    <cfRule type="expression" dxfId="62" priority="72">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="62" priority="50">
+    <cfRule type="expression" dxfId="61" priority="67">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="51">
+    <cfRule type="expression" dxfId="60" priority="68">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="expression" dxfId="60" priority="48">
+    <cfRule type="expression" dxfId="59" priority="65">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="49">
+    <cfRule type="expression" dxfId="58" priority="66">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="58" priority="44">
+    <cfRule type="expression" dxfId="57" priority="61">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="45">
+    <cfRule type="expression" dxfId="56" priority="62">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B33">
-    <cfRule type="expression" dxfId="56" priority="42">
+    <cfRule type="expression" dxfId="55" priority="59">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="43">
+    <cfRule type="expression" dxfId="54" priority="60">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="containsText" dxfId="54" priority="41" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:J36 B34:E36 L34:L36">
-    <cfRule type="expression" dxfId="53" priority="39">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="40">
+    <cfRule type="expression" dxfId="51" priority="57">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H36">
-    <cfRule type="expression" dxfId="51" priority="35">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="36">
+    <cfRule type="expression" dxfId="49" priority="53">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K31">
-    <cfRule type="expression" dxfId="49" priority="31">
+    <cfRule type="expression" dxfId="48" priority="48">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="32">
+    <cfRule type="expression" dxfId="47" priority="49">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K33">
-    <cfRule type="expression" dxfId="47" priority="29">
+    <cfRule type="expression" dxfId="46" priority="46">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="30">
+    <cfRule type="expression" dxfId="45" priority="47">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:L33">
-    <cfRule type="expression" dxfId="45" priority="27">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="28">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:K36">
-    <cfRule type="expression" dxfId="43" priority="25">
+    <cfRule type="expression" dxfId="42" priority="42">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="26">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:K41">
-    <cfRule type="expression" dxfId="41" priority="23">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>$I38="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="24">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$I38="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D41">
-    <cfRule type="expression" dxfId="39" priority="21">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>$I38="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>$I38="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C45">
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46 B43:E45 B42:F42">
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="35" priority="35">
       <formula>$I42="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>$I42="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E46">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>$I46="確認中"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>$I46="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:H42">
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>$I42="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>$I42="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$I42="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$I42="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F46">
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>$I43="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>$I43="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:H46">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>$I43="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>$I43="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:I46">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$I43="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$I43="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:L46">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$I45="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$I45="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
     <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I46="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>$I42="確認中"</formula>
-    </cfRule>
+      <formula>$I47="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I42="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$I42="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I42="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F46">
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>$I43="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>$I43="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H46">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>$I43="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$I43="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:I46">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$I43="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$I43="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:L46">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$I45="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$I45="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
+      <formula>$I47="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47 E47">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$I47="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$I47="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:H47">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I47="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I47="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:L47">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I47="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I37="確認中"</formula>
+      <formula>$I47="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I37="済み"</formula>
+      <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C47">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I47">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H36 H38:H46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H36 H38:H47">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10956,80 +11122,80 @@
       </c>
     </row>
     <row r="40" spans="2:73" x14ac:dyDescent="0.4">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="32"/>
-      <c r="AI40" s="32"/>
-      <c r="AJ40" s="32"/>
-      <c r="AK40" s="32"/>
-      <c r="AL40" s="32"/>
-      <c r="AM40" s="32"/>
-      <c r="AN40" s="32"/>
-      <c r="AO40" s="32"/>
-      <c r="AP40" s="32"/>
-      <c r="AQ40" s="32"/>
-      <c r="AR40" s="32"/>
-      <c r="AS40" s="32"/>
-      <c r="AT40" s="32"/>
-      <c r="AU40" s="32"/>
-      <c r="AV40" s="32"/>
-      <c r="AW40" s="32"/>
-      <c r="AX40" s="32"/>
-      <c r="AY40" s="32"/>
-      <c r="AZ40" s="32"/>
-      <c r="BA40" s="32"/>
-      <c r="BB40" s="32"/>
-      <c r="BC40" s="32"/>
-      <c r="BD40" s="32"/>
-      <c r="BE40" s="32"/>
-      <c r="BF40" s="32"/>
-      <c r="BG40" s="32"/>
-      <c r="BH40" s="32"/>
-      <c r="BI40" s="32"/>
-      <c r="BJ40" s="32"/>
-      <c r="BK40" s="32"/>
-      <c r="BL40" s="32"/>
-      <c r="BM40" s="32"/>
-      <c r="BN40" s="32"/>
-      <c r="BO40" s="32"/>
-      <c r="BP40" s="32"/>
-      <c r="BQ40" s="32"/>
-      <c r="BR40" s="32"/>
-      <c r="BS40" s="32"/>
-      <c r="BT40" s="32"/>
-      <c r="BU40" s="32"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="34"/>
+      <c r="AI40" s="34"/>
+      <c r="AJ40" s="34"/>
+      <c r="AK40" s="34"/>
+      <c r="AL40" s="34"/>
+      <c r="AM40" s="34"/>
+      <c r="AN40" s="34"/>
+      <c r="AO40" s="34"/>
+      <c r="AP40" s="34"/>
+      <c r="AQ40" s="34"/>
+      <c r="AR40" s="34"/>
+      <c r="AS40" s="34"/>
+      <c r="AT40" s="34"/>
+      <c r="AU40" s="34"/>
+      <c r="AV40" s="34"/>
+      <c r="AW40" s="34"/>
+      <c r="AX40" s="34"/>
+      <c r="AY40" s="34"/>
+      <c r="AZ40" s="34"/>
+      <c r="BA40" s="34"/>
+      <c r="BB40" s="34"/>
+      <c r="BC40" s="34"/>
+      <c r="BD40" s="34"/>
+      <c r="BE40" s="34"/>
+      <c r="BF40" s="34"/>
+      <c r="BG40" s="34"/>
+      <c r="BH40" s="34"/>
+      <c r="BI40" s="34"/>
+      <c r="BJ40" s="34"/>
+      <c r="BK40" s="34"/>
+      <c r="BL40" s="34"/>
+      <c r="BM40" s="34"/>
+      <c r="BN40" s="34"/>
+      <c r="BO40" s="34"/>
+      <c r="BP40" s="34"/>
+      <c r="BQ40" s="34"/>
+      <c r="BR40" s="34"/>
+      <c r="BS40" s="34"/>
+      <c r="BT40" s="34"/>
+      <c r="BU40" s="34"/>
     </row>
     <row r="41" spans="2:73" x14ac:dyDescent="0.4">
       <c r="B41" s="23" t="s">
@@ -11477,9 +11643,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11627,19 +11796,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11663,9 +11828,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,25 +5,27 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="898"/>
   </bookViews>
   <sheets>
     <sheet name="質疑表" sheetId="24" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="31" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="32" r:id="rId3"/>
-    <sheet name="No6、No7" sheetId="25" r:id="rId4"/>
-    <sheet name="No.18　バルーンについて" sheetId="26" r:id="rId5"/>
-    <sheet name="No19" sheetId="27" r:id="rId6"/>
-    <sheet name="No24" sheetId="28" r:id="rId7"/>
-    <sheet name="No27" sheetId="29" r:id="rId8"/>
-    <sheet name="「SafetyWarning」のダイアログ" sheetId="30" r:id="rId9"/>
-    <sheet name="No41" sheetId="33" r:id="rId10"/>
+    <sheet name="No6、No7" sheetId="25" r:id="rId2"/>
+    <sheet name="No.18　バルーンについて" sheetId="26" r:id="rId3"/>
+    <sheet name="No19" sheetId="27" r:id="rId4"/>
+    <sheet name="No24" sheetId="28" r:id="rId5"/>
+    <sheet name="No27" sheetId="29" r:id="rId6"/>
+    <sheet name="「SafetyWarning」のダイアログ" sheetId="30" r:id="rId7"/>
+    <sheet name="No41" sheetId="33" r:id="rId8"/>
+    <sheet name="No.47 49" sheetId="34" r:id="rId9"/>
+    <sheet name="No.52 53 55" sheetId="35" r:id="rId10"/>
+    <sheet name="No.58 59" sheetId="36" r:id="rId11"/>
+    <sheet name="No.61 FrameDataコマンド入力値一覧" sheetId="37" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="461">
   <si>
     <t>質疑・課題</t>
     <phoneticPr fontId="1"/>
@@ -2829,12 +2831,2172 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2022/9/26
+受領済</t>
+    <rPh sb="10" eb="13">
+      <t>ジュリョウスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧ACADコマンドそのまま</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的にはそう。
+TOYOTIRE様も詳細は不明なので、必要なら解析して確認する</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19ページ「グループ化」で行うグループ化は、3つ以上の編集文字をグループ化する事がありますでしょうか。</t>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22ページの「ラベリングのコード表」の右端列に表示されている「old code」(旧文字)とは、どのような文字のフォント名でしょうか。</t>
+    <rPh sb="16" eb="17">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミギハシ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>キュウモジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22ページの「ラベリングのコード表」の下の「29-A」の表はどのような条件で表示されていますでしょうか。</t>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列、C表作成</t>
+    <rPh sb="0" eb="4">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認（自動化）】
+円弧配列とC表作成の自動化の際の図面登録の扱いについてですが、下記(A)～（C)のどの認識でしょうか。
+（A)自動化内で図面登録を行う。
+（B)作図までを自動化にし、図面登録は使用者が完成図面確認後に別途図面登録コマンド実行。
+(C)自動化内で図面登録は行わないが、一時ファイルとして図面をローカルフォルダに保存する。</t>
+    <rPh sb="6" eb="9">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>ジドウカナイ</t>
+    </rPh>
+    <rPh sb="73" eb="77">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="96" eb="100">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>シヨウシャ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="107" eb="112">
+      <t>ズメンカクニンゴ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="115" eb="119">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="135" eb="139">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C表作成</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認（自動化）】
+Detail（ラベリング手動認識）機能は自動化には含まないという認識でよろしいでしょうか。</t>
+    <rPh sb="24" eb="28">
+      <t>シュドウニンシキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列</t>
+    <rPh sb="0" eb="4">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認（Template機能）／仕様確認（自動化）】
+「PLY1」、「PLY2」（プライ）画面は使用する場合は1図面につきどちらか一方という認識でよろしいでしょうか。</t>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認（自動化）】
+Platformマーク以外に図面によって作図の有無が変わる各種ラベリング定義機能はありますでしょうか。
+作図の有無が変わる場合、自動化の際に作図有無の情報が必要となるので確認させていただきたいです。</t>
+    <rPh sb="23" eb="25">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>テイギキノウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>サクズウム</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認】
+改良要望「②　“Labeling Detail”の操作時、処理能力を向上させる」の後半部の「ラベリングが漏れて表のピクチャに転記されない」についてですが、機能を調査したところ機能開始時に設定ファイル「C_BrandSet.ini」の[syousai]-syousai_brand_no から詳細化対象のブランドNoを取得していることが判明しました。
+以前、円弧配列をレクチャーいただいた際にブランドNoは基本固定と伺っておりますので、現在手動で定義している編集文字のブランドNoを設定ファイルに追加することで解決できると考えているのですがいかがでしょうか。</t>
+    <rPh sb="7" eb="11">
+      <t>カイリョウヨウボウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="94" eb="99">
+      <t>キノウカイシジ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="152" eb="157">
+      <t>ショウサイカタイショウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="186" eb="190">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>ウカガ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認】
+図面登録機能に含まれるDOTの削除に関して。
+単独のDOTの作成・削除機能が移植対象となっていませんが、図面登録側のDOT削除機能は移植後も必要でしょうか。</t>
+    <rPh sb="7" eb="9">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>イショクタイショウ</t>
+    </rPh>
+    <rPh sb="59" eb="64">
+      <t>ズメントウロクガワ</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>サクジョキノウ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>イショクゴ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C表作成、円弧配列</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（A)円弧配列、C表作成を連続実行するコマンドを1つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(B)円弧配列を自動で行うコマンド＋C表作成を自動で行うコマンドの計2つのコマンド</t>
+  </si>
+  <si>
+    <t>（例）編集文字検索の場合</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤枠の検索条件だけでは、検索結果（緑枠）が複数ある。</t>
+    <rPh sb="0" eb="2">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ミドリワク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動化の場合は「Height」等の青枠内の情報を使用して検索結果を一つに絞り込む必要がある。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>アオワクナイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEMPLATE2サイズ画面</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEMPLATE2　LoadIndex(S)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEMPLATE2　LoadIndex(D)・・・単輪と複輪</t>
+    <rPh sb="25" eb="27">
+      <t>タンワ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円周上の矢印マーク</t>
+    <rPh sb="0" eb="3">
+      <t>エンシュウジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印マークの編集文字PIC</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力例</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面登録時の入力</t>
+    <rPh sb="4" eb="9">
+      <t>ズメントウロクジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面登録以外で入力</t>
+    <rPh sb="4" eb="10">
+      <t>ズメントウロクイガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Modlename]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-TMP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle001]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-TMP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publication post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行部署</t>
+    <rPh sb="0" eb="4">
+      <t>ハッコウブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[YYYY]/[MM]/[DD]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/02/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>production standard No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-P/C番号（生産用C表番号）</t>
+    <rPh sb="8" eb="11">
+      <t>セイサンヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒョウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-P/C-23131</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>labeling Draw No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面番号</t>
+    <rPh sb="4" eb="8">
+      <t>ズメンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B-17185-00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「4 Figure number」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【C表作成】AT-B図面呼び出し時</t>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ズメンヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mold Draw No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TM図面番号</t>
+    <rPh sb="2" eb="4">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TM-18518-00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「7 Mold No.」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle007]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TWI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【C表作成】TWIコマンド使用時</t>
+    <rPh sb="13" eb="16">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle009]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Carcass+Breaker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造の状態
+（プライ数＋ベルト数＋キャップ数）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2P+2B+2C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Creator]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面制作者名</t>
+    <rPh sb="4" eb="6">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>セイサクシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WADA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「101 Creator」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[examination1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面チェック担当者名</t>
+    <rPh sb="10" eb="14">
+      <t>タントウシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAKAMOTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「102 examination1」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Approval]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面承認者名</t>
+    <rPh sb="6" eb="9">
+      <t>ショウニンシャ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KAWAKAMI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「105 Approval」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>safe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全コード</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面「Structure」</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tire Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面「Tire Type」</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Modelmaintitle]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル（＝パターン？）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSCV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル「201 Model maint title」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途1</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use2</t>
+  </si>
+  <si>
+    <t>用途2</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use3</t>
+  </si>
+  <si>
+    <t>用途3</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ区分
+「チューブタイプタイヤ」or「チューブレスタイヤ（TL)」</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>side division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイド区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル「6 Side Category」？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faiber division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繊維区分</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤのサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT245/70R17 119S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル「1 Size」（「Tire Type」の記入が図面あり）、
+登録画面「Tire Type」＋「Size」</t>
+    <rPh sb="31" eb="33">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【円弧配列】Template2「Size」コマンド</t>
+    <rPh sb="0" eb="6">
+      <t>｢エンコハイレツ｣</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bead structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビード構造</t>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Carcass ply number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーカスプライ枚数</t>
+    <rPh sb="7" eb="9">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carcass material</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーカス素材</t>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt number1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト枚数1</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt material1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト材質1</t>
+    <rPh sb="3" eb="5">
+      <t>ザイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt number2</t>
+  </si>
+  <si>
+    <t>ベルト枚数2</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt material2</t>
+  </si>
+  <si>
+    <t>ベルト材質2</t>
+    <rPh sb="3" eb="5">
+      <t>ザイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt number3</t>
+  </si>
+  <si>
+    <t>ベルト枚数3</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt material3</t>
+  </si>
+  <si>
+    <t>ベルト材質3</t>
+    <rPh sb="3" eb="5">
+      <t>ザイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle001]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル1の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle002]</t>
+  </si>
+  <si>
+    <t>ページタイトル2の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle003]</t>
+  </si>
+  <si>
+    <t>ページタイトル3の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle004]</t>
+  </si>
+  <si>
+    <t>ページタイトル4の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle005]</t>
+  </si>
+  <si>
+    <t>ページタイトル5の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle006]</t>
+  </si>
+  <si>
+    <t>ページタイトル6の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle007]</t>
+  </si>
+  <si>
+    <t>ページタイトル7の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle008]</t>
+  </si>
+  <si>
+    <t>ページタイトル8の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle009]</t>
+  </si>
+  <si>
+    <t>ページタイトル9の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle010]</t>
+  </si>
+  <si>
+    <t>ページタイトル10の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle011]</t>
+  </si>
+  <si>
+    <t>ページタイトル11の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle012]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル12の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle019]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル19の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認（自動化）】
+円弧配列とC表作成の自動化に関して、下記のどちらの認識が正しいでしょうか。
+(A)円弧配列、C表作成を連続実行するコマンドを1つ
+(B)円弧配列を自動で行うコマンド＋C表作成を自動で行うコマンドの計2つのコマンド
+※シート「No.47 49」を参照</t>
+    <rPh sb="12" eb="14">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t>レンゾクジッコウ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認（自動化）】
+円弧配列とC表作成の自動化において、作図に必要な情報は全て、事前に決定済みという認識でよろしいでしょうか。
+特に、円弧配列の編集文字、各種マーク類等でDB検索を行うものに関して、検索結果が1つに絞り込まれるレベルの情報は決定可能でしょうか。
+※シート「No.47 49」を参照</t>
+    <rPh sb="30" eb="32">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ケッテイズ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="75" eb="79">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="102" eb="106">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="123" eb="127">
+      <t>ケッテイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認（Template機能）／仕様確認（自動化）】
+「Load index(S)」、「Load index(D)」、「PR」（プライレーティング）画面について。
+ロードインデックスは1つの図面に付き何れかの1画面を使用するという認識でよろしいでしょうか。
+また、プライレーティングは常に使用するという認識でよろしいでしょうか。
+ロードインデックスとプライレーティングは表記方法が異なるが、示している内容は同じと認識しています。
+また、ロードインデックスのDは単輪と複輪があるときと認識しています。
+※シート「No.52 55」を参照</t>
+    <rPh sb="18" eb="22">
+      <t>シヨウカクニン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>イズ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>タンワ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C表作成のFrameDataコマンド（図枠作成機能）の入力項目の中で、AT-B図面作成機能で入力を行っている項目がございましたらご教授ください。
+C表作成の改良要望①のFrameDataの自動入力の対象となる項目の精査を行っているためご確認させてください。
+「No.61 FrameDataコマンド入力値一覧」シートにSCで確認した内容を含む入力項目一覧がありますので、
+AT-B図面登録機能（Brand→Brand Drawing→Drawing “regist“）時に入力を行うものはD列「AT-B図面登録時の入力」に、
+それ以外の機能で入力を行うものはE列「AT-B図面登録以外で入力」にそれぞれモデルタイトル、入力画面での項目、または対応コマンドをご記入いただきたいです。</t>
+    <rPh sb="19" eb="25">
+      <t>ズワクサクセイキノウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>キョウジュ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="173" eb="179">
+      <t>ニュウリョクコウモクイチラン</t>
+    </rPh>
+    <rPh sb="192" eb="196">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="273" eb="275">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="282" eb="283">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="311" eb="315">
+      <t>ニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="317" eb="319">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="323" eb="325">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>＜質疑No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>＜質疑No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認（図面登録）】
+AT-B図面登録画面のサイズ項目の「Suffx」（接尾）と「Ply（プライ）」はそれぞれロードインデックスと速度記号を入力する認識でよろしいでしょうか。
+※「No.52 53 55」参照</t>
+    <rPh sb="6" eb="10">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認（Template機能）／仕様確認（自動化）】
+「LT」画面は使用しない場合があるという認識でよろしいでしょうか。
+小型トラック用のタイヤの場合に、納入国に沿って「LT」表記か「C」表記にするかを設定する画面と認識しています。
+※「No.52 53 55」参照</t>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="80" eb="83">
+      <t>ノウニュウコク</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認（Template機能）】
+一部の画面にあるSize項目の「Speed」は速度カテゴリーが「ZR」となるときに「Z」を入力するという認識でよろしいでしょうか？
+※「No.52 53 55」参照</t>
+    <rPh sb="0" eb="5">
+      <t>｢ソウサカクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜質疑No.55＞</t>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>＜質疑No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>52 53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認】
+改良要望③「“Labeling Detail”の操作時、ラベリングの転記先の表へ不要な形状発生を無くす」について。
+SafetyWarning画面で入力した番号の1～4が図面上の出力ではそれぞれL、T、M、Bとなっているようです。
+5以降の番号はそのまま出力されています。
+そこで確認ですが、「表へ不要な形状発生を無くす」とありますが、本件で問題となっているのは英字が出力されることで、数字の番号自体は出力されても問題ないという認識で良いでしょうか。
+または、番号の出力も取りやめるという認識でしょうか。
+※シート「No.58 59」を参照</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カイリョウヨウボウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>ズメンジョウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ホンケン</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="204" eb="208">
+      <t>バンゴウジタイ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>＜質疑No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>58</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜質疑No.59＞</t>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認】
+改良要望「④　“Drawing Pos.”の操作時、作成されたPlatformのマーク（雪マークもしくは矢印マーク）を図面に配置させる」について。
+矢印（DOM)の場合は、円周上に矢印マークが配置されているかをブランドNoでチェックし、配置されていればレイアウト上に表示していることが判明しました。
+雪（IO)には円周上にマークは配置されていないという認識でよろしいでしょうか。
+※シート「No.58 59」を参照</t>
+    <rPh sb="7" eb="11">
+      <t>カイリョウヨウボウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>エンシュウジョウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="164" eb="167">
+      <t>エンシュウジョウ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">データ提供のお願い
+20220926_円弧配列_不足文字.xlsx
+不足文字一覧シートの画像とモデルを提供頂きたいです。
+</t>
+    <rPh sb="3" eb="5">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご連絡いただきました通り、「①_円弧配列_カスタム仕様書_REV05.docx」に
+①Lettering preparation（文字列準備）の「Fixed form character」コマンド
+②Arrangement（円弧配置）の「Placement "modi"」の「Move」及び「Delete」コマンド
+の記述がない事を確認しました。
+円弧配列機能の対象に追加いただきたくお願い致します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①Lettering preparation（文字列準備）の「Fixed form character」コマンド
+②Arangement（円弧配置）の「Placement "modi"」の「Move」及び「Delete」コマンド
+これらの操作手順を円弧配列のカスタム仕様書に追記頂くことは可能でしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lettering preparation（文字列準備）の「Fixed form character」コマンドはインプットデータがあるはずなのですが、そちらもアップロード頂けると助かります。
+maide in japanなどの文字列です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列のカスタム仕様書は追記後展開致します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lettering preparation（文字列準備）の「Fixed form character」コマンドのインプットデータ準備させていただきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島津様</t>
+    <rPh sb="0" eb="3">
+      <t>シマズサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>220922_円弧配列メニューTOYO案.xlsxにご記載頂いた下記コマンドは「①_円弧配列_カスタム仕様書_REV05.docx」に記述がないものでしたが、円弧配列機能の対象に追加するという認識でお間違いないでしょうか。
+①Lettering preparation（文字列準備）の「Fixed form character」コマンド
+②Arangement（円弧配置）の「Placement "modi"」の「Move」及び「Delete」コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>220922_円弧配列メニューTOYO案.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>220922_円弧配列メニューTOYO案.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>220922_円弧配列メニューTOYO案.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタム仕様書に記載のあった下記の4コマンドを「220922_円弧配列メニューTOYO案.xlsx」のメニュー上で見つけることが出来なかったのですが、円弧配列作業の流れに含まれず、対象外となったという認識でよろしいでしょうか。
+①「Character search」 - 「Primitive “CH”」（刻印文字呼出）
+②「Primitive “CH”」-「Character “regist”」（刻印文字登録）
+③「Editing “CH”」-「Character “regist”」（編集文字登録）
+④「Brand placement」-「Template」-「Plate」（替え駒）
+また、仮に④が移植対象として必要な場合、
+「Brand placement」-「Plate fixed」（替え駒配置修正）も併せて必要となるでしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「その他機能」は本来はもう一つあるとご説明頂いたと記憶しておりますが、こちらは現在ご確認頂いていいるC表作成メニューの確認結果と併せて、ご教授頂ける認識でよろしいでしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2926,8 +5088,47 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2967,6 +5168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3136,7 +5343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3233,6 +5440,39 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3246,7 +5486,492 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="313">
+  <dxfs count="375">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5945,6 +8670,768 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153187</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>48230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="304800"/>
+          <a:ext cx="5639587" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>267886</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="1552575"/>
+          <a:ext cx="8497486" cy="1752845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="右矢印 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="1924049"/>
+          <a:ext cx="1543050" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>実行結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="1457325"/>
+          <a:ext cx="409575" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="1733550"/>
+          <a:ext cx="257175" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8486774" y="619125"/>
+          <a:ext cx="1857375" cy="717423"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49845"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val 160697"/>
+            <a:gd name="adj4" fmla="val -20460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>処理内で意図的に数字を英字に変換している</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>614920</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5848350"/>
+          <a:ext cx="8158720" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="7077075"/>
+          <a:ext cx="466725" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52143</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666991</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2109543" y="7972424"/>
+          <a:ext cx="1300648" cy="1257533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16667</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="7339013"/>
+          <a:ext cx="511967" cy="633411"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581585</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>229197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="5848350"/>
+          <a:ext cx="4010585" cy="4277322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="5924550"/>
+          <a:ext cx="752475" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="線吹き出し 1 (枠付き) 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10915650" y="7191375"/>
+          <a:ext cx="2381250" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49845"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val -61159"/>
+            <a:gd name="adj4" fmla="val -48224"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>この番号で矢印マークが存在するかをチェックしている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7780,6 +11267,2396 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283788</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671512" y="714375"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ATB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表自動作図コマンド実行</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD1CA3E-D688-440D-B53D-2A1F6518E8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687200" y="1444065"/>
+          <a:ext cx="2324100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円弧配列機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD1CA3E-D688-440D-B53D-2A1F6518E8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687200" y="2255558"/>
+          <a:ext cx="2324100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表作成機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283788</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671512" y="3067050"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1849250" y="1099297"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1849250" y="1910790"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1849250" y="2722283"/>
+          <a:ext cx="0" cy="344767"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943599" y="714375"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ATB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図面自動作図コマンド実行</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472887</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53787</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD1CA3E-D688-440D-B53D-2A1F6518E8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5959287" y="1444065"/>
+          <a:ext cx="2324100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円弧配列機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>192555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943599" y="2255558"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7107050" y="2255558"/>
+          <a:ext cx="14287" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8762999" y="714375"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表自動作図コマンド実行</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>549087</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129987</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD1CA3E-D688-440D-B53D-2A1F6518E8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8778687" y="1444065"/>
+          <a:ext cx="2324100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表作成機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>192555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8762999" y="2255558"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7121337" y="1099297"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7121337" y="1910790"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339537</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339537</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9940737" y="1910790"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339537</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339537</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9940737" y="1099297"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>231550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4657725"/>
+          <a:ext cx="4019550" cy="4994050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="5172074"/>
+          <a:ext cx="1314450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38099" y="7867649"/>
+          <a:ext cx="3800475" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552447</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="L 字 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="76198" y="5162549"/>
+          <a:ext cx="3905249" cy="666751"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58571"/>
+            <a:gd name="adj2" fmla="val 283868"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>18190</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>237411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="542925"/>
+          <a:ext cx="6876190" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228598</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="L 字 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="742949" y="1609726"/>
+          <a:ext cx="2228849" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36076"/>
+            <a:gd name="adj2" fmla="val 87533"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676276" y="4267200"/>
+          <a:ext cx="3800474" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562476" y="4257674"/>
+          <a:ext cx="3000374" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="線吹き出し 1 (枠付き) 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="2371725"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49845"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val -18097"/>
+            <a:gd name="adj4" fmla="val -72708"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>質疑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No.xx</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>230124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2576513" y="2678049"/>
+          <a:ext cx="1052512" cy="1589151"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="線吹き出し 1 (枠付き) 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="5467350"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49845"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val -33644"/>
+            <a:gd name="adj4" fmla="val -66458"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>質疑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No.xx</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="781050"/>
+          <a:ext cx="3779520" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>233363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>230124</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4543425" y="1728788"/>
+          <a:ext cx="5762626" cy="949261"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306051" y="1485900"/>
+          <a:ext cx="428624" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324758</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="4352925"/>
+          <a:ext cx="3753758" cy="2470026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>324758</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344399" y="4352925"/>
+          <a:ext cx="3753759" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096251" y="3933824"/>
+          <a:ext cx="8315324" cy="3143251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>230124</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7315200" y="5505450"/>
+          <a:ext cx="781051" cy="268224"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170815</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7753350"/>
+          <a:ext cx="3599815" cy="3710940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105151" y="9353550"/>
+          <a:ext cx="628649" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>174498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="線吹き出し 1 (枠付き) 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="9696450"/>
+          <a:ext cx="1695450" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49845"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val 560"/>
+            <a:gd name="adj4" fmla="val -41247"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ロードインデックスと速度記号を入力？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -8046,10 +13923,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:L47"/>
+  <dimension ref="A3:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8069,11 +13946,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -9498,9 +15375,11 @@
         <v>18</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="9"/>
     </row>
@@ -9530,9 +15409,11 @@
         <v>18</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>258</v>
+      </c>
       <c r="K43" s="5"/>
       <c r="L43" s="9"/>
     </row>
@@ -9560,9 +15441,11 @@
         <v>18</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>258</v>
+      </c>
       <c r="K44" s="5"/>
       <c r="L44" s="9"/>
     </row>
@@ -9590,7 +15473,7 @@
         <v>18</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="5"/>
@@ -9620,9 +15503,11 @@
         <v>18</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="K46" s="5"/>
       <c r="L46" s="9"/>
     </row>
@@ -9656,1294 +15541,2330 @@
       <c r="K47" s="5"/>
       <c r="L47" s="9"/>
     </row>
+    <row r="48" spans="1:12" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>44</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>45</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F49" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" s="29" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>46</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F50" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" s="29" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>47</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F51" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:12" s="29" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>48</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" s="29" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>49</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F53" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" s="29" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>50</v>
+      </c>
+      <c r="B54" s="33">
+        <v>32</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:12" s="29" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>51</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F55" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="1:12" s="29" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>52</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="F56" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:12" s="29" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>53</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F57" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" spans="1:12" s="29" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>54</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" s="29" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>55</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F59" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="9"/>
+    </row>
+    <row r="60" spans="1:12" s="29" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>56</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F60" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="9"/>
+    </row>
+    <row r="61" spans="1:12" s="29" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>57</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F61" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="1:12" s="29" customFormat="1" ht="199.5" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>58</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F62" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="1:12" s="29" customFormat="1" ht="156.75" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>59</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F63" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="1:12" s="29" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>60</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="1:12" s="29" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>61</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F65" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="9"/>
+    </row>
+    <row r="66" spans="1:12" s="29" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>61</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F66" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="1:12" s="29" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>61</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F67" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:12" s="29" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>62</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F68" s="5">
+        <v>44831</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K68" s="5">
+        <v>44831</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="29" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>63</v>
+      </c>
+      <c r="B69" s="9">
+        <v>62</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F69" s="5">
+        <v>44831</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K69" s="5">
+        <v>44832</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="29" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>64</v>
+      </c>
+      <c r="B70" s="9">
+        <v>62</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F70" s="5">
+        <v>44831</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K70" s="5">
+        <v>44832</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="29" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>65</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F71" s="5">
+        <v>44838</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="1:12" s="29" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>66</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F72" s="5">
+        <v>44838</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C48:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="312" priority="957" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C73:C1048576 C10:C11">
+    <cfRule type="containsText" dxfId="374" priority="1030" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 A48:L1048576 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24">
-    <cfRule type="expression" dxfId="311" priority="955">
+  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24 A66:L66 A68:L1048576">
+    <cfRule type="expression" dxfId="373" priority="1028">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="956">
+    <cfRule type="expression" dxfId="372" priority="1029">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="309" priority="470" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="371" priority="543" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22">
-    <cfRule type="expression" dxfId="308" priority="468">
+    <cfRule type="expression" dxfId="370" priority="541">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="469">
+    <cfRule type="expression" dxfId="369" priority="542">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="306" priority="466">
+    <cfRule type="expression" dxfId="368" priority="539">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="467">
+    <cfRule type="expression" dxfId="367" priority="540">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="304" priority="410" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="366" priority="483" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="303" priority="408">
+    <cfRule type="expression" dxfId="365" priority="481">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="409">
+    <cfRule type="expression" dxfId="364" priority="482">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C41">
-    <cfRule type="containsText" dxfId="301" priority="405" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="363" priority="478" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J27 B37:E37 J42:L44 L38:L41 B38:C41 E38:J41 J37:L37">
-    <cfRule type="expression" dxfId="300" priority="403">
+  <conditionalFormatting sqref="J25:J27 B37:E37 L38:L41 B38:C41 E38:J41 J37:L37 J42:L44">
+    <cfRule type="expression" dxfId="362" priority="476">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="404">
+    <cfRule type="expression" dxfId="361" priority="477">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L24 K27:L27">
-    <cfRule type="expression" dxfId="298" priority="387">
+    <cfRule type="expression" dxfId="360" priority="460">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="388">
+    <cfRule type="expression" dxfId="359" priority="461">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="296" priority="381">
+    <cfRule type="expression" dxfId="358" priority="454">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="382">
+    <cfRule type="expression" dxfId="357" priority="455">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="294" priority="379">
+    <cfRule type="expression" dxfId="356" priority="452">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="380">
+    <cfRule type="expression" dxfId="355" priority="453">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="292" priority="377">
+    <cfRule type="expression" dxfId="354" priority="450">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="378">
+    <cfRule type="expression" dxfId="353" priority="451">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="290" priority="375">
+    <cfRule type="expression" dxfId="352" priority="448">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="376">
+    <cfRule type="expression" dxfId="351" priority="449">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="288" priority="367">
+    <cfRule type="expression" dxfId="350" priority="440">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="368">
+    <cfRule type="expression" dxfId="349" priority="441">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="286" priority="371">
+    <cfRule type="expression" dxfId="348" priority="444">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="372">
+    <cfRule type="expression" dxfId="347" priority="445">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="284" priority="369">
+    <cfRule type="expression" dxfId="346" priority="442">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="370">
+    <cfRule type="expression" dxfId="345" priority="443">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="282" priority="365">
+    <cfRule type="expression" dxfId="344" priority="438">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="366">
+    <cfRule type="expression" dxfId="343" priority="439">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="280" priority="363">
+    <cfRule type="expression" dxfId="342" priority="436">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="364">
+    <cfRule type="expression" dxfId="341" priority="437">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="278" priority="361">
+    <cfRule type="expression" dxfId="340" priority="434">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="362">
+    <cfRule type="expression" dxfId="339" priority="435">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="276" priority="357">
+    <cfRule type="expression" dxfId="338" priority="430">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="358">
+    <cfRule type="expression" dxfId="337" priority="431">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="274" priority="355">
+    <cfRule type="expression" dxfId="336" priority="428">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="356">
+    <cfRule type="expression" dxfId="335" priority="429">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="272" priority="353">
+    <cfRule type="expression" dxfId="334" priority="426">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="354">
+    <cfRule type="expression" dxfId="333" priority="427">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="270" priority="322">
+    <cfRule type="expression" dxfId="332" priority="395">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="323">
+    <cfRule type="expression" dxfId="331" priority="396">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="268" priority="351">
+    <cfRule type="expression" dxfId="330" priority="424">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="352">
+    <cfRule type="expression" dxfId="329" priority="425">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="266" priority="348">
+    <cfRule type="expression" dxfId="328" priority="421">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="349">
+    <cfRule type="expression" dxfId="327" priority="422">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="264" priority="346">
+    <cfRule type="expression" dxfId="326" priority="419">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="347">
+    <cfRule type="expression" dxfId="325" priority="420">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="262" priority="342">
+    <cfRule type="expression" dxfId="324" priority="415">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="343">
+    <cfRule type="expression" dxfId="323" priority="416">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="260" priority="340">
+    <cfRule type="expression" dxfId="322" priority="413">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="341">
+    <cfRule type="expression" dxfId="321" priority="414">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="258" priority="338">
+    <cfRule type="expression" dxfId="320" priority="411">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="339">
+    <cfRule type="expression" dxfId="319" priority="412">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="256" priority="326">
+    <cfRule type="expression" dxfId="318" priority="399">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="327">
+    <cfRule type="expression" dxfId="317" priority="400">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="254" priority="324">
+    <cfRule type="expression" dxfId="316" priority="397">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="325">
+    <cfRule type="expression" dxfId="315" priority="398">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="252" priority="308">
+    <cfRule type="expression" dxfId="314" priority="381">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="309">
+    <cfRule type="expression" dxfId="313" priority="382">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="250" priority="307" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="312" priority="380" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="249" priority="305">
+    <cfRule type="expression" dxfId="311" priority="378">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="306">
+    <cfRule type="expression" dxfId="310" priority="379">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="247" priority="303">
+    <cfRule type="expression" dxfId="309" priority="376">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="304">
+    <cfRule type="expression" dxfId="308" priority="377">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="245" priority="301">
+    <cfRule type="expression" dxfId="307" priority="374">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="302">
+    <cfRule type="expression" dxfId="306" priority="375">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="243" priority="299">
+    <cfRule type="expression" dxfId="305" priority="372">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="300">
+    <cfRule type="expression" dxfId="304" priority="373">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="241" priority="293">
+    <cfRule type="expression" dxfId="303" priority="366">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="294">
+    <cfRule type="expression" dxfId="302" priority="367">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="239" priority="297">
+    <cfRule type="expression" dxfId="301" priority="370">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="298">
+    <cfRule type="expression" dxfId="300" priority="371">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="237" priority="295">
+    <cfRule type="expression" dxfId="299" priority="368">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="296">
+    <cfRule type="expression" dxfId="298" priority="369">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="235" priority="291">
+    <cfRule type="expression" dxfId="297" priority="364">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="292">
+    <cfRule type="expression" dxfId="296" priority="365">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="233" priority="290" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="295" priority="363" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:L13 A13:F13 A14:A46">
-    <cfRule type="expression" dxfId="232" priority="288">
+    <cfRule type="expression" dxfId="294" priority="361">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="289">
+    <cfRule type="expression" dxfId="293" priority="362">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="230" priority="286">
+    <cfRule type="expression" dxfId="292" priority="359">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="287">
+    <cfRule type="expression" dxfId="291" priority="360">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="228" priority="284">
+    <cfRule type="expression" dxfId="290" priority="357">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="285">
+    <cfRule type="expression" dxfId="289" priority="358">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="226" priority="282">
+    <cfRule type="expression" dxfId="288" priority="355">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="283">
+    <cfRule type="expression" dxfId="287" priority="356">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="224" priority="280">
+    <cfRule type="expression" dxfId="286" priority="353">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="281">
+    <cfRule type="expression" dxfId="285" priority="354">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="222" priority="278">
+    <cfRule type="expression" dxfId="284" priority="351">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="279">
+    <cfRule type="expression" dxfId="283" priority="352">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="220" priority="274">
+    <cfRule type="expression" dxfId="282" priority="347">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="275">
+    <cfRule type="expression" dxfId="281" priority="348">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="218" priority="265" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="280" priority="338" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="217" priority="263">
+    <cfRule type="expression" dxfId="279" priority="336">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="264">
+    <cfRule type="expression" dxfId="278" priority="337">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="215" priority="241">
+    <cfRule type="expression" dxfId="277" priority="314">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="242">
+    <cfRule type="expression" dxfId="276" priority="315">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="213" priority="240" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="275" priority="313" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="212" priority="238">
+    <cfRule type="expression" dxfId="274" priority="311">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="239">
+    <cfRule type="expression" dxfId="273" priority="312">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="210" priority="236">
+    <cfRule type="expression" dxfId="272" priority="309">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="237">
+    <cfRule type="expression" dxfId="271" priority="310">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="208" priority="234">
+    <cfRule type="expression" dxfId="270" priority="307">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="235">
+    <cfRule type="expression" dxfId="269" priority="308">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="206" priority="233" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="268" priority="306" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="205" priority="231">
+    <cfRule type="expression" dxfId="267" priority="304">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="232">
+    <cfRule type="expression" dxfId="266" priority="305">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="203" priority="229">
+    <cfRule type="expression" dxfId="265" priority="302">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="230">
+    <cfRule type="expression" dxfId="264" priority="303">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="201" priority="228" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="263" priority="301" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="200" priority="226">
+    <cfRule type="expression" dxfId="262" priority="299">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="227">
+    <cfRule type="expression" dxfId="261" priority="300">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="198" priority="224">
+    <cfRule type="expression" dxfId="260" priority="297">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="225">
+    <cfRule type="expression" dxfId="259" priority="298">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="196" priority="222">
+    <cfRule type="expression" dxfId="258" priority="295">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="223">
+    <cfRule type="expression" dxfId="257" priority="296">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="194" priority="220">
+    <cfRule type="expression" dxfId="256" priority="293">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="221">
+    <cfRule type="expression" dxfId="255" priority="294">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="192" priority="216">
+    <cfRule type="expression" dxfId="254" priority="289">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="217">
+    <cfRule type="expression" dxfId="253" priority="290">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="190" priority="207">
+    <cfRule type="expression" dxfId="252" priority="280">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="208">
+    <cfRule type="expression" dxfId="251" priority="281">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="188" priority="202">
+    <cfRule type="expression" dxfId="250" priority="275">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="203">
+    <cfRule type="expression" dxfId="249" priority="276">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="186" priority="200">
+    <cfRule type="expression" dxfId="248" priority="273">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="201">
+    <cfRule type="expression" dxfId="247" priority="274">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="184" priority="198">
+    <cfRule type="expression" dxfId="246" priority="271">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="199">
+    <cfRule type="expression" dxfId="245" priority="272">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="182" priority="196">
+    <cfRule type="expression" dxfId="244" priority="269">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="197">
+    <cfRule type="expression" dxfId="243" priority="270">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="180" priority="194">
+    <cfRule type="expression" dxfId="242" priority="267">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="195">
+    <cfRule type="expression" dxfId="241" priority="268">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K20">
-    <cfRule type="expression" dxfId="178" priority="192">
+    <cfRule type="expression" dxfId="240" priority="265">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="193">
+    <cfRule type="expression" dxfId="239" priority="266">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L20">
-    <cfRule type="expression" dxfId="176" priority="190">
+    <cfRule type="expression" dxfId="238" priority="263">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="191">
+    <cfRule type="expression" dxfId="237" priority="264">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="174" priority="188">
+    <cfRule type="expression" dxfId="236" priority="261">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="189">
+    <cfRule type="expression" dxfId="235" priority="262">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="172" priority="186">
+    <cfRule type="expression" dxfId="234" priority="259">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="187">
+    <cfRule type="expression" dxfId="233" priority="260">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="170" priority="184">
+    <cfRule type="expression" dxfId="232" priority="257">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="185">
+    <cfRule type="expression" dxfId="231" priority="258">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="168" priority="182">
+    <cfRule type="expression" dxfId="230" priority="255">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="183">
+    <cfRule type="expression" dxfId="229" priority="256">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="166" priority="180">
+    <cfRule type="expression" dxfId="228" priority="253">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="181">
+    <cfRule type="expression" dxfId="227" priority="254">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="164" priority="178">
+    <cfRule type="expression" dxfId="226" priority="251">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="179">
+    <cfRule type="expression" dxfId="225" priority="252">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:L21">
-    <cfRule type="expression" dxfId="162" priority="176">
+    <cfRule type="expression" dxfId="224" priority="249">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="177">
+    <cfRule type="expression" dxfId="223" priority="250">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24 D23:F23">
-    <cfRule type="expression" dxfId="160" priority="174">
+    <cfRule type="expression" dxfId="222" priority="247">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="175">
+    <cfRule type="expression" dxfId="221" priority="248">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="158" priority="173" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="220" priority="246" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="157" priority="171">
+    <cfRule type="expression" dxfId="219" priority="244">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="172">
+    <cfRule type="expression" dxfId="218" priority="245">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="155" priority="169">
+    <cfRule type="expression" dxfId="217" priority="242">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="170">
+    <cfRule type="expression" dxfId="216" priority="243">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="153" priority="167">
+    <cfRule type="expression" dxfId="215" priority="240">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="168">
+    <cfRule type="expression" dxfId="214" priority="241">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="151" priority="165">
+    <cfRule type="expression" dxfId="213" priority="238">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="166">
+    <cfRule type="expression" dxfId="212" priority="239">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="149" priority="164" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="211" priority="237" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="148" priority="162">
+    <cfRule type="expression" dxfId="210" priority="235">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="163">
+    <cfRule type="expression" dxfId="209" priority="236">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="146" priority="160">
+    <cfRule type="expression" dxfId="208" priority="233">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="161">
+    <cfRule type="expression" dxfId="207" priority="234">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="144" priority="158">
+    <cfRule type="expression" dxfId="206" priority="231">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="159">
+    <cfRule type="expression" dxfId="205" priority="232">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="142" priority="156">
+    <cfRule type="expression" dxfId="204" priority="229">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="157">
+    <cfRule type="expression" dxfId="203" priority="230">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:H27">
-    <cfRule type="expression" dxfId="140" priority="154">
+    <cfRule type="expression" dxfId="202" priority="227">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="155">
+    <cfRule type="expression" dxfId="201" priority="228">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I27">
-    <cfRule type="expression" dxfId="138" priority="152">
+    <cfRule type="expression" dxfId="200" priority="225">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="153">
+    <cfRule type="expression" dxfId="199" priority="226">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="136" priority="151" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="198" priority="224" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="135" priority="149">
+    <cfRule type="expression" dxfId="197" priority="222">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="150">
+    <cfRule type="expression" dxfId="196" priority="223">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="133" priority="147">
+    <cfRule type="expression" dxfId="195" priority="220">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="148">
+    <cfRule type="expression" dxfId="194" priority="221">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="131" priority="145">
+    <cfRule type="expression" dxfId="193" priority="218">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="146">
+    <cfRule type="expression" dxfId="192" priority="219">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="129" priority="143">
+    <cfRule type="expression" dxfId="191" priority="216">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="144">
+    <cfRule type="expression" dxfId="190" priority="217">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="127" priority="141">
+    <cfRule type="expression" dxfId="189" priority="214">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="142">
+    <cfRule type="expression" dxfId="188" priority="215">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="125" priority="139">
+    <cfRule type="expression" dxfId="187" priority="212">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="140">
+    <cfRule type="expression" dxfId="186" priority="213">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="123" priority="137">
+    <cfRule type="expression" dxfId="185" priority="210">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="138">
+    <cfRule type="expression" dxfId="184" priority="211">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="121" priority="135">
+    <cfRule type="expression" dxfId="183" priority="208">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="136">
+    <cfRule type="expression" dxfId="182" priority="209">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:L28 E28:E31 J29:J33">
-    <cfRule type="expression" dxfId="119" priority="133">
+    <cfRule type="expression" dxfId="181" priority="206">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="134">
+    <cfRule type="expression" dxfId="180" priority="207">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="117" priority="129">
+    <cfRule type="expression" dxfId="179" priority="202">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="130">
+    <cfRule type="expression" dxfId="178" priority="203">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="115" priority="128" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="177" priority="201" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="114" priority="126">
+    <cfRule type="expression" dxfId="176" priority="199">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="127">
+    <cfRule type="expression" dxfId="175" priority="200">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="112" priority="124">
+    <cfRule type="expression" dxfId="174" priority="197">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="125">
+    <cfRule type="expression" dxfId="173" priority="198">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="110" priority="122">
+    <cfRule type="expression" dxfId="172" priority="195">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="123">
+    <cfRule type="expression" dxfId="171" priority="196">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="108" priority="120">
+    <cfRule type="expression" dxfId="170" priority="193">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="121">
+    <cfRule type="expression" dxfId="169" priority="194">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="106" priority="118">
+    <cfRule type="expression" dxfId="168" priority="191">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="119">
+    <cfRule type="expression" dxfId="167" priority="192">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="104" priority="117" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="166" priority="190" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="103" priority="115">
+    <cfRule type="expression" dxfId="165" priority="188">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="116">
+    <cfRule type="expression" dxfId="164" priority="189">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="101" priority="113">
+    <cfRule type="expression" dxfId="163" priority="186">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="114">
+    <cfRule type="expression" dxfId="162" priority="187">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="expression" dxfId="99" priority="111">
+    <cfRule type="expression" dxfId="161" priority="184">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="112">
+    <cfRule type="expression" dxfId="160" priority="185">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I36">
-    <cfRule type="expression" dxfId="97" priority="109">
+    <cfRule type="expression" dxfId="159" priority="182">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="110">
+    <cfRule type="expression" dxfId="158" priority="183">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="95" priority="107">
+    <cfRule type="expression" dxfId="157" priority="180">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="108">
+    <cfRule type="expression" dxfId="156" priority="181">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="93" priority="106" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="155" priority="179" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="92" priority="104">
+    <cfRule type="expression" dxfId="154" priority="177">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="105">
+    <cfRule type="expression" dxfId="153" priority="178">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="90" priority="102">
+    <cfRule type="expression" dxfId="152" priority="175">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="103">
+    <cfRule type="expression" dxfId="151" priority="176">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="expression" dxfId="88" priority="100">
+    <cfRule type="expression" dxfId="150" priority="173">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="101">
+    <cfRule type="expression" dxfId="149" priority="174">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="86" priority="96">
+    <cfRule type="expression" dxfId="148" priority="169">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="97">
+    <cfRule type="expression" dxfId="147" priority="170">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="84" priority="95" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="146" priority="168" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="83" priority="93">
+    <cfRule type="expression" dxfId="145" priority="166">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="94">
+    <cfRule type="expression" dxfId="144" priority="167">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="81" priority="91">
+    <cfRule type="expression" dxfId="143" priority="164">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="92">
+    <cfRule type="expression" dxfId="142" priority="165">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H31">
-    <cfRule type="expression" dxfId="79" priority="89">
+    <cfRule type="expression" dxfId="141" priority="162">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="90">
+    <cfRule type="expression" dxfId="140" priority="163">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="77" priority="85">
+    <cfRule type="expression" dxfId="139" priority="158">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="86">
+    <cfRule type="expression" dxfId="138" priority="159">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="75" priority="84" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="137" priority="157" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="74" priority="82">
+    <cfRule type="expression" dxfId="136" priority="155">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="83">
+    <cfRule type="expression" dxfId="135" priority="156">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="72" priority="80">
+    <cfRule type="expression" dxfId="134" priority="153">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="81">
+    <cfRule type="expression" dxfId="133" priority="154">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="70" priority="78">
+    <cfRule type="expression" dxfId="132" priority="151">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="79">
+    <cfRule type="expression" dxfId="131" priority="152">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="68" priority="77" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="130" priority="150" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="67" priority="75">
+    <cfRule type="expression" dxfId="129" priority="148">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="76">
+    <cfRule type="expression" dxfId="128" priority="149">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="65" priority="73">
+    <cfRule type="expression" dxfId="127" priority="146">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="74">
+    <cfRule type="expression" dxfId="126" priority="147">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="expression" dxfId="63" priority="71">
+    <cfRule type="expression" dxfId="125" priority="144">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="72">
+    <cfRule type="expression" dxfId="124" priority="145">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="61" priority="67">
+    <cfRule type="expression" dxfId="123" priority="140">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="68">
+    <cfRule type="expression" dxfId="122" priority="141">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="expression" dxfId="59" priority="65">
+    <cfRule type="expression" dxfId="121" priority="138">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="66">
+    <cfRule type="expression" dxfId="120" priority="139">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="57" priority="61">
+    <cfRule type="expression" dxfId="119" priority="134">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="62">
+    <cfRule type="expression" dxfId="118" priority="135">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B33">
-    <cfRule type="expression" dxfId="55" priority="59">
+    <cfRule type="expression" dxfId="117" priority="132">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="60">
+    <cfRule type="expression" dxfId="116" priority="133">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="115" priority="131" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:J36 B34:E36 L34:L36">
-    <cfRule type="expression" dxfId="52" priority="56">
+    <cfRule type="expression" dxfId="114" priority="129">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="57">
+    <cfRule type="expression" dxfId="113" priority="130">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H36">
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="112" priority="125">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="111" priority="126">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K31">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="110" priority="121">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="109" priority="122">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K33">
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="108" priority="119">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="107" priority="120">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:L33">
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="106" priority="117">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="105" priority="118">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:K36">
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="104" priority="115">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="103" priority="116">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:K41">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="102" priority="113">
       <formula>$I38="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="101" priority="114">
       <formula>$I38="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D41">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="100" priority="111">
       <formula>$I38="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="99" priority="112">
       <formula>$I38="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C45">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="98" priority="110" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46 B43:E45 B42:F42">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="97" priority="108">
       <formula>$I42="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="96" priority="109">
       <formula>$I42="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="95" priority="107" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E46">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="94" priority="105">
       <formula>$I46="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="93" priority="106">
       <formula>$I46="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="92" priority="103">
       <formula>$I42="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="91" priority="104">
       <formula>$I42="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="90" priority="101">
       <formula>$I42="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="89" priority="102">
       <formula>$I42="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F46">
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="88" priority="99">
       <formula>$I43="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="87" priority="100">
       <formula>$I43="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H46">
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="86" priority="97">
       <formula>$I43="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="85" priority="98">
       <formula>$I43="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:I46">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="84" priority="95">
       <formula>$I43="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="83" priority="96">
       <formula>$I43="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:L46">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="82" priority="93">
       <formula>$I45="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="81" priority="94">
       <formula>$I45="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="80" priority="91">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="79" priority="92">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="16" priority="16">
+  <conditionalFormatting sqref="A47:A65">
+    <cfRule type="expression" dxfId="78" priority="89">
       <formula>$I47="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="77" priority="90">
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="76" priority="87">
       <formula>$I47="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="75" priority="88">
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="74" priority="86" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47 E47">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="73" priority="84">
       <formula>$I47="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="72" priority="85">
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="71" priority="82">
       <formula>$I47="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="70" priority="83">
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="69" priority="80">
       <formula>$I47="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="68" priority="81">
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="67" priority="78">
       <formula>$I47="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="66" priority="79">
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:L47">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="65" priority="76">
       <formula>$I47="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="64" priority="77">
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="63" priority="74">
       <formula>$I47="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="62" priority="75">
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J50 E48:F48 E49">
+    <cfRule type="expression" dxfId="61" priority="72">
+      <formula>$I48="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="73">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="59" priority="70">
+      <formula>$I50="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="71">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:L50">
+    <cfRule type="expression" dxfId="57" priority="68">
+      <formula>$I48="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="69">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:H48">
+    <cfRule type="expression" dxfId="55" priority="66">
+      <formula>$I48="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="67">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="53" priority="64">
+      <formula>$I48="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="65">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="51" priority="62">
+      <formula>$I48="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="63">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="containsText" dxfId="49" priority="61" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="48" priority="59">
+      <formula>$I48="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="60">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="46" priority="57">
+      <formula>$I48="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="58">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="44" priority="55">
+      <formula>$I49="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="56">
+      <formula>$I49="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="41" priority="52">
+      <formula>$I49="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="53">
+      <formula>$I49="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="39" priority="50">
+      <formula>$I49="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="51">
+      <formula>$I49="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="expression" dxfId="37" priority="48">
+      <formula>$I49="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="49">
+      <formula>$I49="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:H49">
+    <cfRule type="expression" dxfId="35" priority="46">
+      <formula>$I49="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="47">
+      <formula>$I49="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="33" priority="44">
+      <formula>$I49="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="45">
+      <formula>$I49="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="31" priority="42">
+      <formula>$I50="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="43">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="containsText" dxfId="29" priority="41" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="28" priority="39">
+      <formula>$I50="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="40">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="26" priority="37">
+      <formula>$I50="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="38">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="expression" dxfId="24" priority="35">
+      <formula>$I50="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="36">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:H50">
+    <cfRule type="expression" dxfId="22" priority="33">
+      <formula>$I50="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="34">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="20" priority="31">
+      <formula>$I50="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="32">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:C65 C51:C61">
+    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62 B55:B59 G55:L59 F56:F59 F62:J62 B65:L65 B51:L54 K63:L63 F63:I64 B60:L61">
+    <cfRule type="expression" dxfId="17" priority="28">
+      <formula>$I51="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="29">
+      <formula>$I51="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:D62 J63 B63:C64 E63:E64 J64:L64">
+    <cfRule type="expression" dxfId="14" priority="25">
+      <formula>$I62="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="26">
+      <formula>$I62="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:F55 C56:E59">
+    <cfRule type="expression" dxfId="12" priority="23">
+      <formula>$I55="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="24">
+      <formula>$I55="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="10" priority="21">
+      <formula>$I62="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="22">
+      <formula>$I62="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="8" priority="19">
+      <formula>$I62="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="20">
+      <formula>$I62="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule type="expression" dxfId="6" priority="17">
+      <formula>$I63="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="18">
+      <formula>$I63="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:L67">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$I67="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$I67="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C72">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C72">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I72">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H36 H38:H47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H36 H38:H72">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10954,52 +17875,873 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M18" t="s">
+        <v>280</v>
+      </c>
+      <c r="S18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="24" x14ac:dyDescent="0.4">
+      <c r="A32" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.4">
+      <c r="A23" s="35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>282</v>
+      </c>
+      <c r="N24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="I27" sqref="I27"/>
+      <selection pane="topRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="39">
+        <v>2</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" s="39">
+        <v>2</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="F39" s="39"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="F40" s="39"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="F41" s="39"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="F42" s="39"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="F43" s="39"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="F44" s="39"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="F45" s="39"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="F46" s="39"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="F47" s="39"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="F48" s="39"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="F49" s="39"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="F50" s="39"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11060,7 +18802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -11092,7 +18834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BU42"/>
   <sheetViews>
@@ -11122,80 +18864,80 @@
       </c>
     </row>
     <row r="40" spans="2:73" x14ac:dyDescent="0.4">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="34"/>
-      <c r="AM40" s="34"/>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="34"/>
-      <c r="AQ40" s="34"/>
-      <c r="AR40" s="34"/>
-      <c r="AS40" s="34"/>
-      <c r="AT40" s="34"/>
-      <c r="AU40" s="34"/>
-      <c r="AV40" s="34"/>
-      <c r="AW40" s="34"/>
-      <c r="AX40" s="34"/>
-      <c r="AY40" s="34"/>
-      <c r="AZ40" s="34"/>
-      <c r="BA40" s="34"/>
-      <c r="BB40" s="34"/>
-      <c r="BC40" s="34"/>
-      <c r="BD40" s="34"/>
-      <c r="BE40" s="34"/>
-      <c r="BF40" s="34"/>
-      <c r="BG40" s="34"/>
-      <c r="BH40" s="34"/>
-      <c r="BI40" s="34"/>
-      <c r="BJ40" s="34"/>
-      <c r="BK40" s="34"/>
-      <c r="BL40" s="34"/>
-      <c r="BM40" s="34"/>
-      <c r="BN40" s="34"/>
-      <c r="BO40" s="34"/>
-      <c r="BP40" s="34"/>
-      <c r="BQ40" s="34"/>
-      <c r="BR40" s="34"/>
-      <c r="BS40" s="34"/>
-      <c r="BT40" s="34"/>
-      <c r="BU40" s="34"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="45"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="45"/>
+      <c r="AM40" s="45"/>
+      <c r="AN40" s="45"/>
+      <c r="AO40" s="45"/>
+      <c r="AP40" s="45"/>
+      <c r="AQ40" s="45"/>
+      <c r="AR40" s="45"/>
+      <c r="AS40" s="45"/>
+      <c r="AT40" s="45"/>
+      <c r="AU40" s="45"/>
+      <c r="AV40" s="45"/>
+      <c r="AW40" s="45"/>
+      <c r="AX40" s="45"/>
+      <c r="AY40" s="45"/>
+      <c r="AZ40" s="45"/>
+      <c r="BA40" s="45"/>
+      <c r="BB40" s="45"/>
+      <c r="BC40" s="45"/>
+      <c r="BD40" s="45"/>
+      <c r="BE40" s="45"/>
+      <c r="BF40" s="45"/>
+      <c r="BG40" s="45"/>
+      <c r="BH40" s="45"/>
+      <c r="BI40" s="45"/>
+      <c r="BJ40" s="45"/>
+      <c r="BK40" s="45"/>
+      <c r="BL40" s="45"/>
+      <c r="BM40" s="45"/>
+      <c r="BN40" s="45"/>
+      <c r="BO40" s="45"/>
+      <c r="BP40" s="45"/>
+      <c r="BQ40" s="45"/>
+      <c r="BR40" s="45"/>
+      <c r="BS40" s="45"/>
+      <c r="BT40" s="45"/>
+      <c r="BU40" s="45"/>
     </row>
     <row r="41" spans="2:73" x14ac:dyDescent="0.4">
       <c r="B41" s="23" t="s">
@@ -11587,7 +19329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11601,7 +19343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11615,7 +19357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M3:M15"/>
   <sheetViews>
@@ -11633,6 +19375,75 @@
     <row r="15" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
         <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="A18" s="35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H21" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -11652,6 +19463,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003442B980DF3C8247A14AC4F4CEC26B16" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="28b866df324f6e72f4ae0767aa81268a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="545b8069-f163-4bb3-9d35-7febfaab5682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44d7a6a8b5cec89910e4d0bef4271b70" ns2:_="">
     <xsd:import namespace="545b8069-f163-4bb3-9d35-7febfaab5682"/>
@@ -11795,12 +19612,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
   <ds:schemaRefs>
@@ -11810,6 +19621,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="545b8069-f163-4bb3-9d35-7febfaab5682"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A64E9643-3472-45CF-A1F0-277D254AE09F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11825,13 +19652,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27700287-F134-4389-B66A-F8B49DC2E1B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -25,7 +25,7 @@
     <sheet name="No.58 59" sheetId="36" r:id="rId11"/>
     <sheet name="No.61 FrameDataコマンド入力値一覧" sheetId="37" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="467">
   <si>
     <t>質疑・課題</t>
     <phoneticPr fontId="1"/>
@@ -4990,6 +4990,31 @@
   <si>
     <t>「その他機能」は本来はもう一つあるとご説明頂いたと記憶しておりますが、こちらは現在ご確認頂いていいるC表作成メニューの確認結果と併せて、ご教授頂ける認識でよろしいでしょうか。</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>220922_円弧配列メニューTOYO案.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「円弧配列メニュー案01」シートに「Fixed from character」の構成内容がありますが、AdvanceCADのメニューにある「INMETRO」は不要でしょうか。
+（「No.67」シートの赤枠部分になります。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「円弧配列メニュー案01」シートの「基準円」作図と削除設定画面（36～56行目）に「3つ必要」という吹き出しがありますが、どのような項目が必要となりますでしょうか。</t>
+    <rPh sb="37" eb="39">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C表作成</t>
+  </si>
+  <si>
+    <t>「改良要望⑥ R-P/C番号の採番機能追加とDB化」に関してですが、カスタム仕様書に『生産仕様の決定次第だが、試作用C表に相当する生産用C表番号も取得できれば良い』  と記載がありますが、R-P/C番号（生産番号）の採番ルールはありますでしょうか。</t>
+  </si>
+  <si>
+    <t>SC山本</t>
   </si>
 </sst>
 </file>
@@ -5486,7 +5511,72 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="375">
+  <dxfs count="383">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13923,9 +14013,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:L72"/>
+  <dimension ref="A3:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
@@ -16321,88 +16411,210 @@
       <c r="K72" s="5"/>
       <c r="L72" s="9"/>
     </row>
+    <row r="73" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>67</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F73" s="5">
+        <v>44839</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>68</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F74" s="5">
+        <v>44839</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>69</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F75" s="5">
+        <v>44846</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C73:C1048576 C10:C11">
-    <cfRule type="containsText" dxfId="374" priority="1030" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C76:C1048576 C10:C11">
+    <cfRule type="containsText" dxfId="382" priority="1038" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24 A66:L66 A68:L1048576">
-    <cfRule type="expression" dxfId="373" priority="1028">
+  <conditionalFormatting sqref="A4:L4 G21:H22 D14:E14 J6 H6 A6:E6 A3 D3:L3 F9:F11 B10:E10 E12 J11 K6:K11 L10:L11 B11:B12 A8:A12 B14:B15 E15:F15 J17:J23 J15:L15 J14:K14 J16:K16 H23:H24 A66:L66 A68:L72 A76:L1048576">
+    <cfRule type="expression" dxfId="381" priority="1036">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="1029">
+    <cfRule type="expression" dxfId="380" priority="1037">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="371" priority="543" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="379" priority="551" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I7 L6:L8 I21:I22">
-    <cfRule type="expression" dxfId="370" priority="541">
+    <cfRule type="expression" dxfId="378" priority="549">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="542">
+    <cfRule type="expression" dxfId="377" priority="550">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7">
-    <cfRule type="expression" dxfId="368" priority="539">
+    <cfRule type="expression" dxfId="376" priority="547">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="540">
+    <cfRule type="expression" dxfId="375" priority="548">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9 C14">
-    <cfRule type="containsText" dxfId="366" priority="483" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="374" priority="491" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 C7 H7 E7 C8:F8 E9 J7:J10 L9 C14">
-    <cfRule type="expression" dxfId="365" priority="481">
+    <cfRule type="expression" dxfId="373" priority="489">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="482">
+    <cfRule type="expression" dxfId="372" priority="490">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C41">
-    <cfRule type="containsText" dxfId="363" priority="478" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="371" priority="486" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J27 B37:E37 L38:L41 B38:C41 E38:J41 J37:L37 J42:L44">
-    <cfRule type="expression" dxfId="362" priority="476">
+    <cfRule type="expression" dxfId="370" priority="484">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="477">
+    <cfRule type="expression" dxfId="369" priority="485">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L24 K27:L27">
-    <cfRule type="expression" dxfId="360" priority="460">
+    <cfRule type="expression" dxfId="368" priority="468">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="461">
+    <cfRule type="expression" dxfId="367" priority="469">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="358" priority="454">
+    <cfRule type="expression" dxfId="366" priority="462">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="455">
+    <cfRule type="expression" dxfId="365" priority="463">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="364" priority="460">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="461">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="362" priority="458">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="459">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="360" priority="456">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="359" priority="457">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="358" priority="448">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="449">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="356" priority="452">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -16410,204 +16622,204 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="B7:B9">
     <cfRule type="expression" dxfId="354" priority="450">
-      <formula>$I6="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="353" priority="451">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="352" priority="448">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="449">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="350" priority="440">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="441">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="348" priority="444">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="445">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="346" priority="442">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="443">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="344" priority="438">
+    <cfRule type="expression" dxfId="352" priority="446">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="439">
+    <cfRule type="expression" dxfId="351" priority="447">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="342" priority="436">
+    <cfRule type="expression" dxfId="350" priority="444">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="437">
+    <cfRule type="expression" dxfId="349" priority="445">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="340" priority="434">
+    <cfRule type="expression" dxfId="348" priority="442">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="435">
+    <cfRule type="expression" dxfId="347" priority="443">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="338" priority="430">
+    <cfRule type="expression" dxfId="346" priority="438">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="431">
+    <cfRule type="expression" dxfId="345" priority="439">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="336" priority="428">
+    <cfRule type="expression" dxfId="344" priority="436">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="429">
+    <cfRule type="expression" dxfId="343" priority="437">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="334" priority="426">
+    <cfRule type="expression" dxfId="342" priority="434">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="427">
+    <cfRule type="expression" dxfId="341" priority="435">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="332" priority="395">
+    <cfRule type="expression" dxfId="340" priority="403">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="396">
+    <cfRule type="expression" dxfId="339" priority="404">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="330" priority="424">
+    <cfRule type="expression" dxfId="338" priority="432">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="425">
+    <cfRule type="expression" dxfId="337" priority="433">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="328" priority="421">
+    <cfRule type="expression" dxfId="336" priority="429">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="422">
+    <cfRule type="expression" dxfId="335" priority="430">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="326" priority="419">
+    <cfRule type="expression" dxfId="334" priority="427">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="420">
+    <cfRule type="expression" dxfId="333" priority="428">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="324" priority="415">
+    <cfRule type="expression" dxfId="332" priority="423">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="416">
+    <cfRule type="expression" dxfId="331" priority="424">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="322" priority="413">
+    <cfRule type="expression" dxfId="330" priority="421">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="414">
+    <cfRule type="expression" dxfId="329" priority="422">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="320" priority="411">
+    <cfRule type="expression" dxfId="328" priority="419">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="412">
+    <cfRule type="expression" dxfId="327" priority="420">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="318" priority="399">
+    <cfRule type="expression" dxfId="326" priority="407">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="400">
+    <cfRule type="expression" dxfId="325" priority="408">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="316" priority="397">
+    <cfRule type="expression" dxfId="324" priority="405">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="398">
+    <cfRule type="expression" dxfId="323" priority="406">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="314" priority="381">
+    <cfRule type="expression" dxfId="322" priority="389">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="382">
+    <cfRule type="expression" dxfId="321" priority="390">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="312" priority="380" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="320" priority="388" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="311" priority="378">
+    <cfRule type="expression" dxfId="319" priority="386">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="379">
+    <cfRule type="expression" dxfId="318" priority="387">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="309" priority="376">
+    <cfRule type="expression" dxfId="317" priority="384">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="377">
+    <cfRule type="expression" dxfId="316" priority="385">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="307" priority="374">
+    <cfRule type="expression" dxfId="315" priority="382">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="375">
+    <cfRule type="expression" dxfId="314" priority="383">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="313" priority="380">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="381">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="311" priority="374">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="375">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="309" priority="378">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="379">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="307" priority="376">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="377">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
     <cfRule type="expression" dxfId="305" priority="372">
       <formula>$I12="確認中"</formula>
     </cfRule>
@@ -16615,439 +16827,439 @@
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="303" priority="366">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="302" priority="367">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="303" priority="371" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A46">
+    <cfRule type="expression" dxfId="302" priority="369">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="301" priority="370">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="371">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="300" priority="367">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="299" priority="368">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="369">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="297" priority="364">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="365">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="295" priority="363" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:L13 A13:F13 A14:A46">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" dxfId="298" priority="365">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="366">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="296" priority="363">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="364">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
     <cfRule type="expression" dxfId="294" priority="361">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="293" priority="362">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="292" priority="359">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="360">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="290" priority="355">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="356">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="288" priority="346" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="287" priority="344">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="345">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22 D21:F22">
+    <cfRule type="expression" dxfId="285" priority="322">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="323">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="containsText" dxfId="283" priority="321" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="282" priority="319">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="320">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
+    <cfRule type="expression" dxfId="280" priority="317">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="318">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="278" priority="315">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="316">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="276" priority="314" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="275" priority="312">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="313">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="273" priority="310">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="311">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="271" priority="309" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="expression" dxfId="270" priority="307">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="308">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:H17 H18:H20">
+    <cfRule type="expression" dxfId="268" priority="305">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="306">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="expression" dxfId="266" priority="303">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="304">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="264" priority="301">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="263" priority="302">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 D18:F18">
+    <cfRule type="expression" dxfId="262" priority="297">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="298">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20 D19:F20">
+    <cfRule type="expression" dxfId="260" priority="288">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="289">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="258" priority="283">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="284">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="256" priority="281">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="282">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H15">
+    <cfRule type="expression" dxfId="254" priority="279">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="362">
+    <cfRule type="expression" dxfId="253" priority="280">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="292" priority="359">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="360">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="290" priority="357">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="358">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="288" priority="355">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="252" priority="277">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="278">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="250" priority="275">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="276">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K20">
+    <cfRule type="expression" dxfId="248" priority="273">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="274">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L20">
+    <cfRule type="expression" dxfId="246" priority="271">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="272">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="244" priority="269">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="270">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="242" priority="267">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="356">
+    <cfRule type="expression" dxfId="241" priority="268">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="286" priority="353">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="354">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="284" priority="351">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="352">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="282" priority="347">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="348">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="280" priority="338" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="279" priority="336">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="337">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22 D21:F22">
-    <cfRule type="expression" dxfId="277" priority="314">
+  <conditionalFormatting sqref="L16">
+    <cfRule type="expression" dxfId="240" priority="265">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="266">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="expression" dxfId="238" priority="263">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="264">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="236" priority="261">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="262">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="expression" dxfId="234" priority="259">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="260">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:L21">
+    <cfRule type="expression" dxfId="232" priority="257">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="315">
+    <cfRule type="expression" dxfId="231" priority="258">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="275" priority="313" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="274" priority="311">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="312">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H16 E17 B16:B17">
-    <cfRule type="expression" dxfId="272" priority="309">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="310">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="270" priority="307">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="308">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="268" priority="306" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="267" priority="304">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="305">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="265" priority="302">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="303">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="containsText" dxfId="263" priority="301" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="expression" dxfId="262" priority="299">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="300">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:H17 H18:H20">
-    <cfRule type="expression" dxfId="260" priority="297">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="298">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="expression" dxfId="258" priority="295">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="296">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="256" priority="293">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="294">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 D18:F18">
-    <cfRule type="expression" dxfId="254" priority="289">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="290">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20 D19:F20">
-    <cfRule type="expression" dxfId="252" priority="280">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="281">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="250" priority="275">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="276">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="248" priority="273">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="274">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H15">
-    <cfRule type="expression" dxfId="246" priority="271">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="272">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="244" priority="269">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="270">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="242" priority="267">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="268">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K20">
-    <cfRule type="expression" dxfId="240" priority="265">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="266">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L20">
-    <cfRule type="expression" dxfId="238" priority="263">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="264">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="236" priority="261">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="262">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="234" priority="259">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="260">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="232" priority="257">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="258">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="E24 D23:F23">
     <cfRule type="expression" dxfId="230" priority="255">
-      <formula>$I17="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="229" priority="256">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="228" priority="253">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="254">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="226" priority="251">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="252">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:L21">
-    <cfRule type="expression" dxfId="224" priority="249">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="250">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24 D23:F23">
-    <cfRule type="expression" dxfId="222" priority="247">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="228" priority="254" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="227" priority="252">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="248">
+    <cfRule type="expression" dxfId="226" priority="253">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="220" priority="246" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="219" priority="244">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="225" priority="250">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="245">
+    <cfRule type="expression" dxfId="224" priority="251">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="217" priority="242">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="223" priority="248">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="243">
+    <cfRule type="expression" dxfId="222" priority="249">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="215" priority="240">
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="221" priority="246">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="247">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="219" priority="245" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="218" priority="243">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="244">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B27">
+    <cfRule type="expression" dxfId="216" priority="241">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="242">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="214" priority="239">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="240">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="expression" dxfId="212" priority="237">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="238">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H27">
+    <cfRule type="expression" dxfId="210" priority="235">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="236">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I27">
+    <cfRule type="expression" dxfId="208" priority="233">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="234">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="containsText" dxfId="206" priority="232" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="205" priority="230">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="231">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="203" priority="228">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="241">
+    <cfRule type="expression" dxfId="202" priority="229">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="213" priority="238">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="201" priority="226">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="239">
+    <cfRule type="expression" dxfId="200" priority="227">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="211" priority="237" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="210" priority="235">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="236">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="208" priority="233">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="234">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="206" priority="231">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="232">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="204" priority="229">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="230">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:H27">
-    <cfRule type="expression" dxfId="202" priority="227">
+  <conditionalFormatting sqref="L25">
+    <cfRule type="expression" dxfId="199" priority="224">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="228">
+    <cfRule type="expression" dxfId="198" priority="225">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I27">
-    <cfRule type="expression" dxfId="200" priority="225">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="226">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="198" priority="224" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
+  <conditionalFormatting sqref="K25">
     <cfRule type="expression" dxfId="197" priority="222">
       <formula>$I25="確認中"</formula>
     </cfRule>
@@ -17055,505 +17267,505 @@
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="L26">
     <cfRule type="expression" dxfId="195" priority="220">
-      <formula>$I23="確認中"</formula>
+      <formula>$I26="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="194" priority="221">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
     <cfRule type="expression" dxfId="193" priority="218">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="219">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="expression" dxfId="191" priority="216">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="219">
+    <cfRule type="expression" dxfId="190" priority="217">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="191" priority="216">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="217">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="J28:L28 E28:E31 J29:J33">
     <cfRule type="expression" dxfId="189" priority="214">
-      <formula>$I25="確認中"</formula>
+      <formula>$I28="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="188" priority="215">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="187" priority="212">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="213">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="185" priority="210">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="211">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="187" priority="210">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="211">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="185" priority="209" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="184" priority="207">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="183" priority="208">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="209">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L28 E28:E31 J29:J33">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="182" priority="205">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="181" priority="206">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
+    <cfRule type="expression" dxfId="180" priority="203">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="207">
+    <cfRule type="expression" dxfId="179" priority="204">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="179" priority="202">
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="178" priority="201">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="203">
+    <cfRule type="expression" dxfId="177" priority="202">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="177" priority="201" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D29">
     <cfRule type="expression" dxfId="176" priority="199">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="200">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="174" priority="198" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="173" priority="196">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="197">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="171" priority="194">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="195">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="expression" dxfId="169" priority="192">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="193">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I36">
+    <cfRule type="expression" dxfId="167" priority="190">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="191">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="165" priority="188">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="189">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="163" priority="187" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="162" priority="185">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="186">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="expression" dxfId="160" priority="183">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="184">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:H30">
+    <cfRule type="expression" dxfId="158" priority="181">
+      <formula>$I30="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="182">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="156" priority="177">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="178">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="154" priority="176" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="153" priority="174">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="175">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="expression" dxfId="151" priority="172">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="173">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:H31">
+    <cfRule type="expression" dxfId="149" priority="170">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="171">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="147" priority="166">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="167">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="containsText" dxfId="145" priority="165" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="144" priority="163">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="164">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="142" priority="161">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="162">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="140" priority="159">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="160">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="138" priority="158" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="137" priority="156">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="157">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="135" priority="154">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="155">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="expression" dxfId="133" priority="152">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="153">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="expression" dxfId="131" priority="148">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="149">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:H33">
+    <cfRule type="expression" dxfId="129" priority="146">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="147">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="127" priority="142">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="143">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B33">
+    <cfRule type="expression" dxfId="125" priority="140">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="200">
+    <cfRule type="expression" dxfId="124" priority="141">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="174" priority="197">
-      <formula>$I28="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="198">
-      <formula>$I28="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="172" priority="195">
-      <formula>$I28="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="196">
-      <formula>$I28="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="170" priority="193">
-      <formula>$I28="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="194">
-      <formula>$I28="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="168" priority="191">
+  <conditionalFormatting sqref="C34:C36">
+    <cfRule type="containsText" dxfId="123" priority="139" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:J36 B34:E36 L34:L36">
+    <cfRule type="expression" dxfId="122" priority="137">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="138">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:H36">
+    <cfRule type="expression" dxfId="120" priority="133">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="134">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K31">
+    <cfRule type="expression" dxfId="118" priority="129">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="192">
+    <cfRule type="expression" dxfId="117" priority="130">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="containsText" dxfId="166" priority="190" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="165" priority="188">
+  <conditionalFormatting sqref="K32:K33">
+    <cfRule type="expression" dxfId="116" priority="127">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="128">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:L33">
+    <cfRule type="expression" dxfId="114" priority="125">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="189">
+    <cfRule type="expression" dxfId="113" priority="126">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="163" priority="186">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="187">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:H29">
-    <cfRule type="expression" dxfId="161" priority="184">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="185">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I36">
-    <cfRule type="expression" dxfId="159" priority="182">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="183">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="157" priority="180">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="181">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="155" priority="179" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="154" priority="177">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="178">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="152" priority="175">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="176">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="expression" dxfId="150" priority="173">
-      <formula>$I30="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="174">
-      <formula>$I30="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="148" priority="169">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="170">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="146" priority="168" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="145" priority="166">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="167">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="143" priority="164">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="165">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H31">
-    <cfRule type="expression" dxfId="141" priority="162">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="163">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="139" priority="158">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="159">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="137" priority="157" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="136" priority="155">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="156">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="134" priority="153">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="154">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="132" priority="151">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="152">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="130" priority="150" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="129" priority="148">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="149">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="127" priority="146">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="147">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32">
-    <cfRule type="expression" dxfId="125" priority="144">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="145">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="123" priority="140">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="141">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33">
-    <cfRule type="expression" dxfId="121" priority="138">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="139">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="119" priority="134">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="135">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B33">
-    <cfRule type="expression" dxfId="117" priority="132">
-      <formula>$I28="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="133">
-      <formula>$I28="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C36">
-    <cfRule type="containsText" dxfId="115" priority="131" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J36 B34:E36 L34:L36">
-    <cfRule type="expression" dxfId="114" priority="129">
+  <conditionalFormatting sqref="K34:K36">
+    <cfRule type="expression" dxfId="112" priority="123">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="130">
+    <cfRule type="expression" dxfId="111" priority="124">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H36">
-    <cfRule type="expression" dxfId="112" priority="125">
-      <formula>$I34="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="126">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K31">
+  <conditionalFormatting sqref="K38:K41">
     <cfRule type="expression" dxfId="110" priority="121">
-      <formula>$I29="確認中"</formula>
+      <formula>$I38="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="109" priority="122">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K33">
+      <formula>$I38="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D41">
     <cfRule type="expression" dxfId="108" priority="119">
-      <formula>$I32="確認中"</formula>
+      <formula>$I38="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="107" priority="120">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:L33">
-    <cfRule type="expression" dxfId="106" priority="117">
-      <formula>$I29="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="118">
-      <formula>$I29="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K36">
-    <cfRule type="expression" dxfId="104" priority="115">
-      <formula>$I34="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="116">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:K41">
+      <formula>$I38="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C45">
+    <cfRule type="containsText" dxfId="106" priority="118" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46 B43:E45 B42:F42">
+    <cfRule type="expression" dxfId="105" priority="116">
+      <formula>$I42="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="117">
+      <formula>$I42="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="containsText" dxfId="103" priority="115" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:E46">
     <cfRule type="expression" dxfId="102" priority="113">
-      <formula>$I38="確認中"</formula>
+      <formula>$I46="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="101" priority="114">
-      <formula>$I38="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
+      <formula>$I46="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:H42">
     <cfRule type="expression" dxfId="100" priority="111">
-      <formula>$I38="確認中"</formula>
+      <formula>$I42="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="99" priority="112">
-      <formula>$I38="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C45">
-    <cfRule type="containsText" dxfId="98" priority="110" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46 B43:E45 B42:F42">
-    <cfRule type="expression" dxfId="97" priority="108">
+      <formula>$I42="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="98" priority="109">
       <formula>$I42="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="109">
+    <cfRule type="expression" dxfId="97" priority="110">
       <formula>$I42="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="95" priority="107" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E46">
+  <conditionalFormatting sqref="F43:F46">
+    <cfRule type="expression" dxfId="96" priority="107">
+      <formula>$I43="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="108">
+      <formula>$I43="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:H46">
     <cfRule type="expression" dxfId="94" priority="105">
-      <formula>$I46="確認中"</formula>
+      <formula>$I43="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="93" priority="106">
-      <formula>$I46="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42">
+      <formula>$I43="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:I46">
     <cfRule type="expression" dxfId="92" priority="103">
-      <formula>$I42="確認中"</formula>
+      <formula>$I43="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="91" priority="104">
-      <formula>$I42="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
+      <formula>$I43="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:L46">
     <cfRule type="expression" dxfId="90" priority="101">
-      <formula>$I42="確認中"</formula>
+      <formula>$I45="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="89" priority="102">
-      <formula>$I42="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F46">
+      <formula>$I45="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
     <cfRule type="expression" dxfId="88" priority="99">
-      <formula>$I43="確認中"</formula>
+      <formula>$I37="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="87" priority="100">
-      <formula>$I43="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H46">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:A65">
     <cfRule type="expression" dxfId="86" priority="97">
-      <formula>$I43="確認中"</formula>
+      <formula>$I47="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="85" priority="98">
-      <formula>$I43="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:I46">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="expression" dxfId="84" priority="95">
-      <formula>$I43="確認中"</formula>
+      <formula>$I47="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="83" priority="96">
-      <formula>$I43="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:L46">
-    <cfRule type="expression" dxfId="82" priority="93">
-      <formula>$I45="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="94">
-      <formula>$I45="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="80" priority="91">
-      <formula>$I37="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="92">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:A65">
-    <cfRule type="expression" dxfId="78" priority="89">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="containsText" dxfId="82" priority="94" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47 E47">
+    <cfRule type="expression" dxfId="81" priority="92">
       <formula>$I47="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="90">
+    <cfRule type="expression" dxfId="80" priority="93">
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="76" priority="87">
+  <conditionalFormatting sqref="F47">
+    <cfRule type="expression" dxfId="79" priority="90">
       <formula>$I47="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="88">
+    <cfRule type="expression" dxfId="78" priority="91">
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="containsText" dxfId="74" priority="86" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47 E47">
+  <conditionalFormatting sqref="G47:H47">
+    <cfRule type="expression" dxfId="77" priority="88">
+      <formula>$I47="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="89">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="75" priority="86">
+      <formula>$I47="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="87">
+      <formula>$I47="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:L47">
     <cfRule type="expression" dxfId="73" priority="84">
       <formula>$I47="確認中"</formula>
     </cfRule>
@@ -17561,7 +17773,7 @@
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="D47">
     <cfRule type="expression" dxfId="71" priority="82">
       <formula>$I47="確認中"</formula>
     </cfRule>
@@ -17569,39 +17781,39 @@
       <formula>$I47="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:H47">
+  <conditionalFormatting sqref="J48:J50 E48:F48 E49">
     <cfRule type="expression" dxfId="69" priority="80">
-      <formula>$I47="確認中"</formula>
+      <formula>$I48="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="68" priority="81">
-      <formula>$I47="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="67" priority="78">
-      <formula>$I47="確認中"</formula>
+      <formula>$I50="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="66" priority="79">
-      <formula>$I47="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:L47">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:L50">
     <cfRule type="expression" dxfId="65" priority="76">
-      <formula>$I47="確認中"</formula>
+      <formula>$I48="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="64" priority="77">
-      <formula>$I47="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:H48">
     <cfRule type="expression" dxfId="63" priority="74">
-      <formula>$I47="確認中"</formula>
+      <formula>$I48="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="62" priority="75">
-      <formula>$I47="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J50 E48:F48 E49">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
     <cfRule type="expression" dxfId="61" priority="72">
       <formula>$I48="確認中"</formula>
     </cfRule>
@@ -17609,81 +17821,81 @@
       <formula>$I48="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
+  <conditionalFormatting sqref="D48">
     <cfRule type="expression" dxfId="59" priority="70">
-      <formula>$I50="確認中"</formula>
+      <formula>$I48="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="71">
-      <formula>$I50="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48:L50">
-    <cfRule type="expression" dxfId="57" priority="68">
+      <formula>$I48="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="containsText" dxfId="57" priority="69" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>$I48="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="69">
+    <cfRule type="expression" dxfId="55" priority="68">
       <formula>$I48="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:H48">
-    <cfRule type="expression" dxfId="55" priority="66">
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="54" priority="65">
       <formula>$I48="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="67">
+    <cfRule type="expression" dxfId="53" priority="66">
       <formula>$I48="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="53" priority="64">
-      <formula>$I48="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="65">
-      <formula>$I48="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="51" priority="62">
-      <formula>$I48="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="63">
-      <formula>$I48="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="49" priority="61" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="48" priority="59">
-      <formula>$I48="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="60">
-      <formula>$I48="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="46" priority="57">
-      <formula>$I48="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="58">
-      <formula>$I48="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="44" priority="55">
+    <cfRule type="expression" dxfId="52" priority="63">
       <formula>$I49="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="56">
+    <cfRule type="expression" dxfId="51" priority="64">
       <formula>$I49="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="50" priority="62" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="49" priority="60">
+      <formula>$I49="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="61">
+      <formula>$I49="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="47" priority="58">
+      <formula>$I49="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="59">
+      <formula>$I49="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="expression" dxfId="45" priority="56">
+      <formula>$I49="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="57">
+      <formula>$I49="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:H49">
+    <cfRule type="expression" dxfId="43" priority="54">
+      <formula>$I49="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="55">
+      <formula>$I49="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
     <cfRule type="expression" dxfId="41" priority="52">
       <formula>$I49="確認中"</formula>
     </cfRule>
@@ -17691,52 +17903,52 @@
       <formula>$I49="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
+  <conditionalFormatting sqref="D50">
     <cfRule type="expression" dxfId="39" priority="50">
-      <formula>$I49="確認中"</formula>
+      <formula>$I50="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="51">
-      <formula>$I49="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="37" priority="48">
-      <formula>$I49="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="49">
-      <formula>$I49="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49:H49">
-    <cfRule type="expression" dxfId="35" priority="46">
-      <formula>$I49="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="47">
-      <formula>$I49="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="33" priority="44">
-      <formula>$I49="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="45">
-      <formula>$I49="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="31" priority="42">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="containsText" dxfId="37" priority="49" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="36" priority="47">
       <formula>$I50="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="43">
+    <cfRule type="expression" dxfId="35" priority="48">
       <formula>$I50="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="containsText" dxfId="29" priority="41" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="34" priority="45">
+      <formula>$I50="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="46">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="expression" dxfId="32" priority="43">
+      <formula>$I50="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="44">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:H50">
+    <cfRule type="expression" dxfId="30" priority="41">
+      <formula>$I50="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="42">
+      <formula>$I50="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
     <cfRule type="expression" dxfId="28" priority="39">
       <formula>$I50="確認中"</formula>
     </cfRule>
@@ -17744,127 +17956,129 @@
       <formula>$I50="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="26" priority="37">
-      <formula>$I50="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="38">
-      <formula>$I50="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="expression" dxfId="24" priority="35">
-      <formula>$I50="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="36">
-      <formula>$I50="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50:H50">
+  <conditionalFormatting sqref="C63:C65 C51:C61">
+    <cfRule type="containsText" dxfId="26" priority="38" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62 B55:B59 G55:L59 F56:F59 F62:J62 B65:L65 B51:L54 K63:L63 F63:I64 B60:L61">
+    <cfRule type="expression" dxfId="25" priority="36">
+      <formula>$I51="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="37">
+      <formula>$I51="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:D62 J63 B63:C64 E63:E64 J64:L64">
     <cfRule type="expression" dxfId="22" priority="33">
-      <formula>$I50="確認中"</formula>
+      <formula>$I62="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="34">
-      <formula>$I50="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+      <formula>$I62="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:F55 C56:E59">
     <cfRule type="expression" dxfId="20" priority="31">
-      <formula>$I50="確認中"</formula>
+      <formula>$I55="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="32">
-      <formula>$I50="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63:C65 C51:C61">
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L62 B55:B59 G55:L59 F56:F59 F62:J62 B65:L65 B51:L54 K63:L63 F63:I64 B60:L61">
-    <cfRule type="expression" dxfId="17" priority="28">
-      <formula>$I51="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="29">
-      <formula>$I51="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62:D62 J63 B63:C64 E63:E64 J64:L64">
+      <formula>$I55="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="expression" dxfId="18" priority="29">
+      <formula>$I62="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="30">
+      <formula>$I62="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="16" priority="27">
+      <formula>$I62="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="28">
+      <formula>$I62="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
     <cfRule type="expression" dxfId="14" priority="25">
-      <formula>$I62="確認中"</formula>
+      <formula>$I63="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="26">
-      <formula>$I62="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55:F55 C56:E59">
-    <cfRule type="expression" dxfId="12" priority="23">
-      <formula>$I55="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="24">
-      <formula>$I55="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="10" priority="21">
-      <formula>$I62="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="22">
-      <formula>$I62="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="8" priority="19">
-      <formula>$I62="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="20">
-      <formula>$I62="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D64">
-    <cfRule type="expression" dxfId="6" priority="17">
-      <formula>$I63="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="18">
       <formula>$I63="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:L67">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$I67="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$I67="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C72">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:L73">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I73="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I73="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:L74">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$I74="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$I67="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$I67="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C72">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C68)))</formula>
+      <formula>$I74="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74:C75">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:L75">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I75="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$I75="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C75">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I75">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H36 H38:H72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H36 H38:H75">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19454,21 +19668,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003442B980DF3C8247A14AC4F4CEC26B16" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="28b866df324f6e72f4ae0767aa81268a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="545b8069-f163-4bb3-9d35-7febfaab5682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44d7a6a8b5cec89910e4d0bef4271b70" ns2:_="">
     <xsd:import namespace="545b8069-f163-4bb3-9d35-7febfaab5682"/>
@@ -19612,10 +19811,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A64E9643-3472-45CF-A1F0-277D254AE09F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="545b8069-f163-4bb3-9d35-7febfaab5682"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19637,19 +19861,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A64E9643-3472-45CF-A1F0-277D254AE09F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="545b8069-f163-4bb3-9d35-7febfaab5682"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/質疑表/TOYOTIRE_質疑表.xlsx
+++ b/質疑表/TOYOTIRE_質疑表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240" tabRatio="898"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240" tabRatio="898" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="質疑表" sheetId="24" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="535">
   <si>
     <t>質疑・課題</t>
     <phoneticPr fontId="1"/>
@@ -6181,10 +6181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑧</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「編集文字」の登録を配置し、ご提示の「One character」から「Additional character」(追加文字指定)と「Before adding character」(追加直前文字指定)に変更しております。</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -6219,10 +6215,6 @@
     <rPh sb="102" eb="104">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑨</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6551,6 +6543,55 @@
     </rPh>
     <rPh sb="90" eb="91">
       <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ化後、図と重複する寸法がないように寸法線を引き直します。（現在は、手作業で修正している。）</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スンポウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>スンポウセン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -16078,13 +16119,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2240</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>23495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>666748</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16148,13 +16189,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>51995</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>369793</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>162971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16259,13 +16300,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16314,13 +16355,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>217801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16401,13 +16442,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390313</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>325331</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16493,13 +16534,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>379107</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>186803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>314125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>84829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16596,13 +16637,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>156880</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>182217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>481851</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>27617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16691,13 +16732,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>178733</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>223630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>389403</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>34211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16778,13 +16819,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16884,13 +16925,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>12476</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>12476</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16939,13 +16980,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>16398</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>16398</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16994,13 +17035,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17049,13 +17090,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17104,13 +17145,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>664845</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>664845</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17159,13 +17200,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>19685</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>19685</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17214,13 +17255,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>16279</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>16279</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17269,13 +17310,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17324,13 +17365,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>171974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>451724</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>219623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17404,13 +17445,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>382475</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>73959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>309283</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>159123</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17504,13 +17545,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>181535</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>115943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>163592</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17584,13 +17625,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>188258</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>178695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>226345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17664,13 +17705,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>194983</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>31362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17744,13 +17785,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>385390</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>189042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400630</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17838,13 +17879,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>5266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>407353</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>51548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17932,13 +17973,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>376517</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>56815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>402869</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>103096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18026,13 +18067,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>261470</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>14381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>359148</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>57935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18156,13 +18197,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>356159</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>138992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>379336</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>187888</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18250,13 +18291,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>360455</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>165140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>383632</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18344,13 +18385,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>293967</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>504637</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>206033</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18439,13 +18480,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>209176</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>212352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>306854</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>20582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18533,13 +18574,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>215152</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>123601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18633,13 +18674,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>3509</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>176008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>3509</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>51548</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18688,13 +18729,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>168093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>43633</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18743,13 +18784,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>557961</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>573201</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>158341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18827,13 +18868,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>564683</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>209887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18911,13 +18952,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>560201</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>226359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>575441</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>37317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18995,13 +19036,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>66260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>210854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19082,13 +19123,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>339913</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>212351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>437590</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>20581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19176,13 +19217,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>436937</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>218177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>452178</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>29135</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19270,13 +19311,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>432547</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>34401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>448236</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>80684</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19364,13 +19405,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>439269</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>74745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>121025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19458,13 +19499,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>291353</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19526,13 +19567,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>208429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466165</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>73959</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19594,13 +19635,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>208429</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>331694</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>118783</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19662,13 +19703,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>215153</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>103095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>338418</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>203948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19730,13 +19771,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>293593</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>38436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>391270</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>81990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19824,13 +19865,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>484093</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>16024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>50552</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>63674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19904,13 +19945,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>502023</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>67571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>68482</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>115221</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19984,13 +20025,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>506505</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>60848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>72964</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>108498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20064,13 +20105,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>560201</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>24653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>575441</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20148,13 +20189,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257734</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>303117</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>224119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20278,13 +20319,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>400405</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>226358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>327213</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>76198</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20378,13 +20419,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>389208</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>216179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20472,13 +20513,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>362482</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>216180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>389208</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>176088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20566,13 +20607,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>366281</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>174919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>386229</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>160839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20660,13 +20701,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>438657</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>102854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20754,13 +20795,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400947</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>61936</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20848,13 +20889,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>517711</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>230356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20914,13 +20955,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>356347</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>68992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>432547</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20980,13 +21021,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>340659</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>221391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>416859</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21046,13 +21087,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21112,13 +21153,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>553123</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21196,13 +21237,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>369795</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493060</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21264,13 +21305,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581297</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21348,13 +21389,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581297</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>229913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21432,13 +21473,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>567371</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>227849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>582611</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>14451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21516,13 +21557,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>519173</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>181148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>595373</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21698,7 +21739,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>⑧</a:t>
+            <a:t>⑨</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -22576,8 +22617,13 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>⑦</a:t>
+            <a:t>⑧</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23124,13 +23170,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>76197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23760,7 +23806,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>⑨</a:t>
+            <a:t>⑩</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23976,6 +24022,213 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>131278</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17962078" y="3019427"/>
+          <a:ext cx="2421422" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="テキスト ボックス 165"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19983450" y="3133726"/>
+          <a:ext cx="257175" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>242607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>230804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="正方形/長方形 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8A383F-E76D-40E2-95C3-3D51781E74E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18073407" y="3097829"/>
+          <a:ext cx="1614768" cy="285773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Auto Dimensions</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -41177,7 +41430,7 @@
   </sheetPr>
   <dimension ref="A3:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I79" sqref="C78:I79"/>
     </sheetView>
   </sheetViews>
@@ -43839,7 +44092,7 @@
         <v>489</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F76" s="5">
         <v>44852</v>
@@ -43899,7 +44152,7 @@
         <v>487</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F78" s="5">
         <v>44852</v>
@@ -43929,7 +44182,7 @@
         <v>487</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F79" s="5">
         <v>44852</v>
@@ -47039,11 +47292,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AY51"/>
+  <dimension ref="A1:AY52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -47158,7 +47409,7 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="53"/>
       <c r="C23" s="51" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
@@ -47301,78 +47552,78 @@
       <c r="B29" s="66" t="s">
         <v>510</v>
       </c>
-      <c r="C29" s="64" t="s">
-        <v>511</v>
-      </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="65"/>
+      <c r="C29" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="49"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B30" s="46" t="s">
-        <v>512</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="45"/>
+      <c r="B30" s="66" t="s">
+        <v>531</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="65"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B31" s="46"/>
-      <c r="C31" s="50" t="s">
+      <c r="B31" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="52"/>
+      <c r="C31" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="45"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B32" s="66" t="s">
-        <v>514</v>
-      </c>
+      <c r="B32" s="46"/>
       <c r="C32" s="50" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
@@ -47391,31 +47642,33 @@
       <c r="R32" s="51"/>
       <c r="S32" s="52"/>
     </row>
-    <row r="33" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B33" s="66" t="s">
+        <v>533</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="52"/>
     </row>
-    <row r="34" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="56"/>
-      <c r="C34" s="57" t="s">
-        <v>516</v>
-      </c>
+    <row r="34" spans="2:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
@@ -47433,9 +47686,11 @@
       <c r="R34" s="55"/>
       <c r="S34" s="55"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
+    <row r="35" spans="2:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="56"/>
+      <c r="C35" s="57" t="s">
+        <v>514</v>
+      </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
@@ -47453,20 +47708,16 @@
       <c r="R35" s="55"/>
       <c r="S35" s="55"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B36" s="58" t="s">
-        <v>517</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="55"/>
       <c r="L36" s="55"/>
       <c r="M36" s="55"/>
@@ -47477,20 +47728,20 @@
       <c r="R36" s="55"/>
       <c r="S36" s="55"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B37" s="58" t="s">
-        <v>519</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>520</v>
-      </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="49"/>
+        <v>515</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
       <c r="K37" s="55"/>
       <c r="L37" s="55"/>
       <c r="M37" s="55"/>
@@ -47501,115 +47752,139 @@
       <c r="R37" s="55"/>
       <c r="S37" s="55"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B38" s="61" t="s">
-        <v>521</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>522</v>
-      </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="52"/>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B38" s="58" t="s">
+        <v>517</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>518</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B39" s="63"/>
-      <c r="C39" s="57"/>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B39" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="52"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B40" s="63"/>
       <c r="C40" s="57"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.4">
       <c r="B41" s="63"/>
       <c r="C41" s="57"/>
     </row>
-    <row r="45" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="B45" s="42" t="s">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B42" s="63"/>
+      <c r="C42" s="57"/>
+    </row>
+    <row r="46" spans="2:33" ht="24" x14ac:dyDescent="0.4">
+      <c r="B46" s="42" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B48" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70" t="s">
+        <v>447</v>
+      </c>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70" t="s">
+        <v>448</v>
+      </c>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70" t="s">
+        <v>449</v>
+      </c>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="S48" s="70"/>
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
+      <c r="V48" s="70"/>
+      <c r="W48" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="X48" s="70"/>
+      <c r="Y48" s="70"/>
+      <c r="Z48" s="71" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="72"/>
+      <c r="AC48" s="73"/>
+      <c r="AD48" s="71" t="s">
         <v>523</v>
       </c>
+      <c r="AE48" s="72"/>
+      <c r="AF48" s="72"/>
+      <c r="AG48" s="73"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B47" s="70" t="s">
-        <v>446</v>
-      </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70" t="s">
-        <v>447</v>
-      </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70" t="s">
-        <v>448</v>
-      </c>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70" t="s">
-        <v>449</v>
-      </c>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="70" t="s">
-        <v>450</v>
-      </c>
-      <c r="S47" s="70"/>
-      <c r="T47" s="70"/>
-      <c r="U47" s="70"/>
-      <c r="V47" s="70"/>
-      <c r="W47" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="X47" s="70"/>
-      <c r="Y47" s="70"/>
-      <c r="Z47" s="71" t="s">
+    <row r="49" spans="1:45" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="40" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AS51" t="s">
         <v>524</v>
       </c>
-      <c r="AA47" s="72"/>
-      <c r="AB47" s="72"/>
-      <c r="AC47" s="73"/>
-      <c r="AD47" s="71" t="s">
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AI52" t="s">
         <v>525</v>
-      </c>
-      <c r="AE47" s="72"/>
-      <c r="AF47" s="72"/>
-      <c r="AG47" s="73"/>
-    </row>
-    <row r="48" spans="1:33" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="40" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="50" spans="35:45" x14ac:dyDescent="0.4">
-      <c r="AS50" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="51" spans="35:45" x14ac:dyDescent="0.4">
-      <c r="AI51" t="s">
-        <v>527</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AC48"/>
+    <mergeCell ref="AD48:AG48"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="N1:R1"/>
@@ -47628,7 +47903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -48289,15 +48564,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003442B980DF3C8247A14AC4F4CEC26B16" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="28b866df324f6e72f4ae0767aa81268a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="545b8069-f163-4bb3-9d35-7febfaab5682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44d7a6a8b5cec89910e4d0bef4271b70" ns2:_="">
     <xsd:import namespace="545b8069-f163-4bb3-9d35-7febfaab5682"/>
@@ -48441,6 +48707,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -48448,14 +48723,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A64E9643-3472-45CF-A1F0-277D254AE09F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48469,6 +48736,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FA67CF-DDF3-48C1-90A6-0E62D44AD2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
